--- a/cp1/tostogan_fb-01_novak_fb-01_cp1/bigram_cross2.xlsx
+++ b/cp1/tostogan_fb-01_novak_fb-01_cp1/bigram_cross2.xlsx
@@ -476,7 +476,7 @@
   <dimension ref="A1:AI35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -593,85 +593,85 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.521831484540949E-3</v>
+        <v>2.4837820304897821E-3</v>
       </c>
       <c r="D2">
-        <v>6.084493745574699E-3</v>
+        <v>6.7272137528381444E-3</v>
       </c>
       <c r="E2">
-        <v>1.3932027377861689E-2</v>
+        <v>1.682208887447292E-2</v>
       </c>
       <c r="F2">
-        <v>4.4972858154354494E-3</v>
+        <v>3.636068764190723E-3</v>
       </c>
       <c r="G2">
-        <v>6.2933679490205334E-3</v>
+        <v>7.6410963347388911E-3</v>
       </c>
       <c r="H2">
-        <v>2.1418456455038941E-3</v>
+        <v>4.1704508595523842E-3</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>1.7677602076941229E-3</v>
+        <v>2.1967239701589361E-3</v>
       </c>
       <c r="K2">
-        <v>4.3662969081897573E-3</v>
+        <v>4.2993837171586124E-3</v>
       </c>
       <c r="L2">
-        <v>9.1102194949256553E-3</v>
+        <v>1.1573953940966591E-2</v>
       </c>
       <c r="M2">
-        <v>1.534104319093698E-5</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>8.4706160018881288E-3</v>
+        <v>9.0593577684073955E-3</v>
       </c>
       <c r="O2">
-        <v>2.316497521831485E-3</v>
+        <v>2.6702886798572818E-3</v>
       </c>
       <c r="P2">
-        <v>6.2485248996931794E-3</v>
+        <v>6.091469348037626E-3</v>
       </c>
       <c r="Q2">
-        <v>1.170993627566675E-2</v>
+        <v>1.635501135257866E-2</v>
       </c>
       <c r="R2">
-        <v>8.9709700259617657E-3</v>
+        <v>1.022542977619202E-2</v>
       </c>
       <c r="S2">
-        <v>1.5604201085673831E-2</v>
+        <v>1.484917288355498E-2</v>
       </c>
       <c r="T2">
-        <v>4.417040358744395E-3</v>
+        <v>3.7285111903989621E-3</v>
       </c>
       <c r="U2">
-        <v>1.4319093698371491E-2</v>
+        <v>1.521732079143691E-2</v>
       </c>
       <c r="V2">
-        <v>5.9971678074109041E-3</v>
+        <v>8.4228024651313658E-3</v>
       </c>
       <c r="W2">
-        <v>3.6346471560066091E-3</v>
+        <v>4.6886149854038278E-3</v>
       </c>
       <c r="X2">
-        <v>1.0337502950200611E-3</v>
+        <v>8.4901070385987672E-4</v>
       </c>
       <c r="Y2">
-        <v>1.1281567146565971E-3</v>
+        <v>1.445831981835874E-3</v>
       </c>
       <c r="Z2">
-        <v>5.2985603021005428E-4</v>
+        <v>2.8624716185533572E-4</v>
       </c>
       <c r="AA2">
-        <v>3.2263393910785931E-3</v>
+        <v>6.5990917937074284E-3</v>
       </c>
       <c r="AB2">
-        <v>1.1777200849657781E-3</v>
+        <v>5.619526435290302E-4</v>
       </c>
       <c r="AC2">
-        <v>1.0266698135473211E-4</v>
+        <v>1.094712941939669E-4</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>1.7347179608213361E-3</v>
+        <v>2.92085630879014E-3</v>
       </c>
       <c r="AH2">
-        <v>8.9686098654708516E-5</v>
+        <v>3.1625040544923779E-5</v>
       </c>
       <c r="AI2">
-        <v>9.85367004956337E-4</v>
+        <v>2.962212131041194E-3</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -697,88 +697,88 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.5669105499173941E-2</v>
+        <v>1.585955238404152E-2</v>
       </c>
       <c r="C3">
-        <v>7.6705215954684912E-5</v>
+        <v>1.216347713266299E-5</v>
       </c>
       <c r="D3">
-        <v>8.2723625206514043E-4</v>
+        <v>3.5598443074927018E-4</v>
       </c>
       <c r="E3">
-        <v>3.4599952796790178E-3</v>
+        <v>3.292247810574116E-3</v>
       </c>
       <c r="F3">
-        <v>8.4139721501062077E-4</v>
+        <v>9.6415828738241973E-4</v>
       </c>
       <c r="G3">
-        <v>2.0698607505310359E-3</v>
+        <v>1.7815439506973731E-3</v>
       </c>
       <c r="H3">
-        <v>9.9952796790181734E-4</v>
+        <v>1.339604281543951E-3</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>8.1089847551086602E-7</v>
       </c>
       <c r="J3">
-        <v>1.2154826528203921E-3</v>
+        <v>1.8334414531300681E-3</v>
       </c>
       <c r="K3">
-        <v>2.9065376445598298E-3</v>
+        <v>3.1389879987025618E-3</v>
       </c>
       <c r="L3">
-        <v>2.2303516639131461E-4</v>
+        <v>2.8462536490431401E-4</v>
       </c>
       <c r="M3">
-        <v>7.9183384470143969E-4</v>
+        <v>7.7927343496594231E-4</v>
       </c>
       <c r="N3">
-        <v>3.4859570450790659E-3</v>
+        <v>5.391663963671748E-3</v>
       </c>
       <c r="O3">
-        <v>8.5166391314609388E-3</v>
+        <v>7.7043464158287386E-3</v>
       </c>
       <c r="P3">
-        <v>3.2652820391786642E-3</v>
+        <v>3.186020110282193E-3</v>
       </c>
       <c r="Q3">
-        <v>5.1793721973094169E-3</v>
+        <v>3.2817061303924751E-3</v>
       </c>
       <c r="R3">
-        <v>5.3103611045551102E-5</v>
+        <v>2.5137852740836849E-5</v>
       </c>
       <c r="S3">
-        <v>1.721737078121312E-3</v>
+        <v>6.9980538436587741E-4</v>
       </c>
       <c r="T3">
-        <v>3.8033986311069149E-3</v>
+        <v>1.8220888744729161E-3</v>
       </c>
       <c r="U3">
-        <v>3.8801038470615999E-3</v>
+        <v>5.0567628932857607E-3</v>
       </c>
       <c r="V3">
-        <v>5.5121548265282044E-3</v>
+        <v>3.750405449237756E-3</v>
       </c>
       <c r="W3">
-        <v>1.7229171583667689E-4</v>
+        <v>4.54103146286085E-5</v>
       </c>
       <c r="X3">
-        <v>3.1626150578239321E-4</v>
+        <v>1.4190723321440149E-4</v>
       </c>
       <c r="Y3">
-        <v>1.365352843993391E-3</v>
+        <v>7.7521894258838792E-4</v>
       </c>
       <c r="Z3">
-        <v>4.3780977106443241E-4</v>
+        <v>3.6490431397988971E-5</v>
       </c>
       <c r="AA3">
-        <v>9.3934387538352612E-4</v>
+        <v>8.3846902367823548E-4</v>
       </c>
       <c r="AB3">
-        <v>8.6027849893792778E-4</v>
+        <v>9.3739863769056115E-4</v>
       </c>
       <c r="AC3">
-        <v>2.4309653056407839E-4</v>
+        <v>1.8326305546545571E-4</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -790,13 +790,13 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>3.1862166627330661E-5</v>
+        <v>1.621796951021732E-6</v>
       </c>
       <c r="AH3">
-        <v>6.4904413500118004E-4</v>
+        <v>9.2036976970483295E-4</v>
       </c>
       <c r="AI3">
-        <v>2.1914090158130749E-3</v>
+        <v>1.83506325008109E-3</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -804,106 +804,106 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.348359688458815E-4</v>
+        <v>3.527408368472267E-4</v>
       </c>
       <c r="C4">
-        <v>1.0431909369837151E-3</v>
+        <v>5.2951670450859551E-4</v>
       </c>
       <c r="D4">
-        <v>1.6521123436393671E-5</v>
+        <v>4.0544923775543302E-6</v>
       </c>
       <c r="E4">
-        <v>4.9563370309181017E-5</v>
+        <v>4.6221213104119363E-5</v>
       </c>
       <c r="F4">
-        <v>5.9004012272834551E-6</v>
+        <v>3.2435939020434641E-6</v>
       </c>
       <c r="G4">
-        <v>1.180080245456691E-5</v>
+        <v>1.946156341226078E-5</v>
       </c>
       <c r="H4">
-        <v>2.1949492565494452E-3</v>
+        <v>2.3175478430100551E-3</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>2.4781685154590509E-5</v>
+        <v>3.2435939020434641E-6</v>
       </c>
       <c r="K4">
-        <v>1.062072220911022E-5</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>9.1456219022893553E-4</v>
+        <v>6.2033733376581251E-4</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.2605617181968373E-5</v>
+        <v>8.5144339928640937E-5</v>
       </c>
       <c r="O4">
-        <v>1.054991739438282E-3</v>
+        <v>6.4385338955562767E-4</v>
       </c>
       <c r="P4">
-        <v>3.3042246872787349E-5</v>
+        <v>5.1086603957184562E-5</v>
       </c>
       <c r="Q4">
-        <v>2.737786169459523E-4</v>
+        <v>2.3029516704508601E-4</v>
       </c>
       <c r="R4">
-        <v>2.0202973802218552E-3</v>
+        <v>1.775867661368797E-3</v>
       </c>
       <c r="S4">
-        <v>9.4406419636535288E-6</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>1.316969553929667E-3</v>
+        <v>9.1469348037625684E-4</v>
       </c>
       <c r="U4">
-        <v>1.7111163559122019E-4</v>
+        <v>1.7758676613687969E-4</v>
       </c>
       <c r="V4">
-        <v>1.062072220911022E-5</v>
+        <v>1.621796951021732E-6</v>
       </c>
       <c r="W4">
-        <v>1.0195893320745809E-3</v>
+        <v>1.1903989620499511E-3</v>
       </c>
       <c r="X4">
         <v>0</v>
       </c>
       <c r="Y4">
-        <v>3.5402407363700732E-5</v>
+        <v>3.3246837495945498E-5</v>
       </c>
       <c r="Z4">
-        <v>1.180080245456691E-5</v>
+        <v>8.1089847551086602E-7</v>
       </c>
       <c r="AA4">
-        <v>9.4406419636535288E-6</v>
+        <v>1.297437560817386E-5</v>
       </c>
       <c r="AB4">
-        <v>3.1862166627330661E-5</v>
+        <v>5.6762893285760616E-6</v>
       </c>
       <c r="AC4">
-        <v>2.5725749350955862E-4</v>
+        <v>1.881284463185209E-4</v>
       </c>
       <c r="AD4">
-        <v>1.3924946896388951E-4</v>
+        <v>1.7758676613687969E-4</v>
       </c>
       <c r="AE4">
-        <v>2.6929431201321691E-3</v>
+        <v>4.0098929614012322E-3</v>
       </c>
       <c r="AF4">
-        <v>3.0092046259145617E-4</v>
+        <v>3.9734025300032437E-5</v>
       </c>
       <c r="AG4">
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>7.5525135709228231E-5</v>
+        <v>1.621796951021732E-6</v>
       </c>
       <c r="AI4">
-        <v>2.135945244276611E-4</v>
+        <v>5.1086603957184559E-4</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -911,106 +911,106 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.9306112815671469E-3</v>
+        <v>5.1597469996756407E-3</v>
       </c>
       <c r="C5">
-        <v>6.6532924238848238E-3</v>
+        <v>5.8700940642231591E-3</v>
       </c>
       <c r="D5">
-        <v>2.59617654000472E-5</v>
+        <v>4.0544923775543302E-6</v>
       </c>
       <c r="E5">
-        <v>5.3103611045551102E-5</v>
+        <v>4.135582225105417E-5</v>
       </c>
       <c r="F5">
-        <v>4.1302808590984193E-5</v>
+        <v>1.929938371715861E-4</v>
       </c>
       <c r="G5">
-        <v>3.4104319093698369E-4</v>
+        <v>7.4845929289652933E-4</v>
       </c>
       <c r="H5">
-        <v>5.5239556289827709E-3</v>
+        <v>5.3640934155043786E-3</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>2.3601604909133818E-6</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>2.9029974038234597E-4</v>
+        <v>4.3383068439831332E-4</v>
       </c>
       <c r="L5">
-        <v>3.4186924710880341E-3</v>
+        <v>3.106552059682128E-3</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>3.6582487609157418E-4</v>
+        <v>1.2325656827765161E-4</v>
       </c>
       <c r="O5">
-        <v>8.5083785697427422E-4</v>
+        <v>8.9928640934155047E-4</v>
       </c>
       <c r="P5">
-        <v>9.7946660372905353E-5</v>
+        <v>9.5686020110282192E-5</v>
       </c>
       <c r="Q5">
-        <v>1.045551097474628E-3</v>
+        <v>1.6793707427830041E-3</v>
       </c>
       <c r="R5">
-        <v>6.4656596648572104E-3</v>
+        <v>6.0817385663314953E-3</v>
       </c>
       <c r="S5">
-        <v>1.6521123436393669E-4</v>
+        <v>4.2572169964320459E-4</v>
       </c>
       <c r="T5">
-        <v>6.0892140665565263E-4</v>
+        <v>5.3924748621472589E-4</v>
       </c>
       <c r="U5">
-        <v>1.9093698371489261E-3</v>
+        <v>3.7074278300356801E-3</v>
       </c>
       <c r="V5">
-        <v>4.9209346235544015E-4</v>
+        <v>1.8893934479403179E-4</v>
       </c>
       <c r="W5">
-        <v>7.2928959169223507E-4</v>
+        <v>4.5085955238404152E-4</v>
       </c>
       <c r="X5">
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>1.062072220911022E-4</v>
+        <v>4.3788517677586773E-5</v>
       </c>
       <c r="Z5">
-        <v>6.3724333254661322E-5</v>
+        <v>1.4596172559195589E-5</v>
       </c>
       <c r="AA5">
-        <v>6.0184092518291238E-5</v>
+        <v>1.037950048653909E-4</v>
       </c>
       <c r="AB5">
-        <v>9.2400283219258908E-4</v>
+        <v>6.5763866363931233E-4</v>
       </c>
       <c r="AC5">
-        <v>1.062072220911022E-5</v>
+        <v>1.5407071034706451E-5</v>
       </c>
       <c r="AD5">
-        <v>2.3601604909133818E-6</v>
+        <v>4.0544923775543302E-6</v>
       </c>
       <c r="AE5">
-        <v>2.8616945952324759E-3</v>
+        <v>3.0287058060330841E-3</v>
       </c>
       <c r="AF5">
-        <v>1.062072220911022E-4</v>
+        <v>1.248783652286734E-4</v>
       </c>
       <c r="AG5">
-        <v>8.2605617181968373E-6</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>2.3601604909133818E-6</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>2.7731885768232238E-4</v>
+        <v>1.5650340577359721E-4</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -1018,25 +1018,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4.9209346235544015E-4</v>
+        <v>9.9659422640285432E-4</v>
       </c>
       <c r="C6">
-        <v>1.5978286523483599E-3</v>
+        <v>1.079305870904963E-3</v>
       </c>
       <c r="D6">
-        <v>1.1800802454566909E-6</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>2.4781685154590509E-5</v>
+        <v>8.1089847551086602E-7</v>
       </c>
       <c r="F6">
-        <v>5.9004012272834551E-6</v>
+        <v>8.1089847551086602E-7</v>
       </c>
       <c r="G6">
-        <v>7.2692943120132168E-4</v>
+        <v>1.097956535841713E-3</v>
       </c>
       <c r="H6">
-        <v>3.8706632050979469E-4</v>
+        <v>7.7765163801492049E-4</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1045,73 +1045,73 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.1800802454566909E-6</v>
+        <v>8.1089847551086602E-7</v>
       </c>
       <c r="L6">
-        <v>7.9891432617417986E-4</v>
+        <v>4.9626986701264996E-4</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.3334906773660609E-4</v>
+        <v>4.2166720726565027E-5</v>
       </c>
       <c r="O6">
-        <v>1.0903941468019831E-3</v>
+        <v>1.635582225105417E-3</v>
       </c>
       <c r="P6">
-        <v>1.6521123436393671E-5</v>
+        <v>1.946156341226078E-5</v>
       </c>
       <c r="Q6">
-        <v>1.9353316025489729E-4</v>
+        <v>2.1488809601037949E-4</v>
       </c>
       <c r="R6">
-        <v>7.256313429313193E-3</v>
+        <v>8.3417126175802797E-3</v>
       </c>
       <c r="S6">
-        <v>1.29808827000236E-5</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>1.439697899457163E-3</v>
+        <v>4.9545896853713911E-4</v>
       </c>
       <c r="U6">
-        <v>5.5463771536464478E-5</v>
+        <v>1.5407071034706451E-5</v>
       </c>
       <c r="V6">
-        <v>8.2605617181968373E-6</v>
+        <v>4.0544923775543302E-6</v>
       </c>
       <c r="W6">
-        <v>6.6438517819211707E-4</v>
+        <v>3.9490755757379178E-4</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>8.1089847551086602E-7</v>
       </c>
       <c r="Y6">
-        <v>1.1800802454566909E-6</v>
+        <v>0</v>
       </c>
       <c r="Z6">
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>9.4406419636535288E-6</v>
+        <v>2.5137852740836849E-5</v>
       </c>
       <c r="AB6">
-        <v>8.2605617181968373E-6</v>
+        <v>6.4871878040869282E-6</v>
       </c>
       <c r="AC6">
         <v>0</v>
       </c>
       <c r="AD6">
-        <v>1.1800802454566909E-6</v>
+        <v>0</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>1.1800802454566909E-6</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>7.0804814727401466E-6</v>
+        <v>0</v>
       </c>
       <c r="AH6">
         <v>0</v>
@@ -1125,106 +1125,106 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.0785933443474159E-3</v>
+        <v>7.8819331819656184E-4</v>
       </c>
       <c r="C7">
-        <v>4.4371017229171581E-3</v>
+        <v>5.3121959130716838E-3</v>
       </c>
       <c r="D7">
-        <v>4.1302808590984193E-5</v>
+        <v>8.919883230619527E-6</v>
       </c>
       <c r="E7">
-        <v>1.1552985603021011E-3</v>
+        <v>6.6493674991891015E-4</v>
       </c>
       <c r="F7">
-        <v>2.9502006136417271E-5</v>
+        <v>4.8653908530651959E-6</v>
       </c>
       <c r="G7">
-        <v>5.6643851781921173E-5</v>
+        <v>2.108336036328252E-5</v>
       </c>
       <c r="H7">
-        <v>4.8749114939815909E-3</v>
+        <v>4.3374959455076221E-3</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>8.1425536936511678E-5</v>
+        <v>1.4596172559195589E-5</v>
       </c>
       <c r="K7">
-        <v>2.9502006136417271E-5</v>
+        <v>4.8653908530651959E-6</v>
       </c>
       <c r="L7">
-        <v>2.4073637007316498E-3</v>
+        <v>2.1886149854038269E-3</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.8203917866414922E-4</v>
+        <v>2.3759325332468371E-4</v>
       </c>
       <c r="O7">
-        <v>5.475572338919046E-4</v>
+        <v>5.7411612066169315E-4</v>
       </c>
       <c r="P7">
-        <v>1.168279443002124E-4</v>
+        <v>4.2977619202075897E-5</v>
       </c>
       <c r="Q7">
-        <v>1.678074109039415E-3</v>
+        <v>1.8715536814790791E-3</v>
       </c>
       <c r="R7">
-        <v>3.6322869955156948E-3</v>
+        <v>3.8258190074602662E-3</v>
       </c>
       <c r="S7">
-        <v>1.770120368185037E-4</v>
+        <v>6.9737268893934476E-5</v>
       </c>
       <c r="T7">
-        <v>9.2754307292895917E-4</v>
+        <v>1.539896204995135E-3</v>
       </c>
       <c r="U7">
-        <v>5.3693651168279445E-4</v>
+        <v>2.6029841063898799E-4</v>
       </c>
       <c r="V7">
-        <v>7.6705215954684912E-5</v>
+        <v>2.1407719753486861E-4</v>
       </c>
       <c r="W7">
-        <v>1.5506254425300919E-3</v>
+        <v>1.505027570548167E-3</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>8.1089847551086602E-7</v>
       </c>
       <c r="Y7">
-        <v>3.658248760915742E-5</v>
+        <v>7.2980862795977942E-5</v>
       </c>
       <c r="Z7">
-        <v>3.5992447486429081E-4</v>
+        <v>3.1300681154719431E-4</v>
       </c>
       <c r="AA7">
-        <v>5.1923530800094407E-5</v>
+        <v>6.1628284138825817E-5</v>
       </c>
       <c r="AB7">
-        <v>7.198489497285816E-5</v>
+        <v>7.4602659746999682E-5</v>
       </c>
       <c r="AC7">
         <v>0</v>
       </c>
       <c r="AD7">
-        <v>3.1862166627330661E-5</v>
+        <v>4.8653908530651959E-6</v>
       </c>
       <c r="AE7">
-        <v>6.2662261033750294E-4</v>
+        <v>4.8005189750243273E-4</v>
       </c>
       <c r="AF7">
-        <v>3.4930375265518061E-4</v>
+        <v>8.4576710995783329E-4</v>
       </c>
       <c r="AG7">
-        <v>3.5402407363700729E-6</v>
+        <v>0</v>
       </c>
       <c r="AH7">
-        <v>2.59617654000472E-5</v>
+        <v>1.216347713266299E-5</v>
       </c>
       <c r="AI7">
-        <v>3.3514278970970033E-4</v>
+        <v>2.440804411287707E-4</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -1232,88 +1232,88 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.454330894500826E-2</v>
+        <v>1.85898475510866E-2</v>
       </c>
       <c r="C8">
-        <v>2.1005428369129099E-4</v>
+        <v>2.351605578981512E-5</v>
       </c>
       <c r="D8">
-        <v>8.9332074581071513E-4</v>
+        <v>1.440966590982809E-3</v>
       </c>
       <c r="E8">
-        <v>2.6563606325230109E-3</v>
+        <v>2.0450859552384039E-3</v>
       </c>
       <c r="F8">
-        <v>2.2315317441586029E-3</v>
+        <v>3.185209211806682E-3</v>
       </c>
       <c r="G8">
-        <v>2.976162379041775E-3</v>
+        <v>2.9013947453778791E-3</v>
       </c>
       <c r="H8">
-        <v>1.5848477696483361E-3</v>
+        <v>1.5885501135257871E-3</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.3344347415624264E-4</v>
+        <v>7.2899772948426856E-4</v>
       </c>
       <c r="K8">
-        <v>1.2638659428841159E-3</v>
+        <v>1.31041193642556E-3</v>
       </c>
       <c r="L8">
-        <v>1.9353316025489729E-4</v>
+        <v>1.2650016217969509E-4</v>
       </c>
       <c r="M8">
-        <v>2.1276846825584142E-3</v>
+        <v>2.1853713915017839E-3</v>
       </c>
       <c r="N8">
-        <v>1.4904413500118009E-3</v>
+        <v>1.298248459292897E-3</v>
       </c>
       <c r="O8">
-        <v>5.9063016285107383E-3</v>
+        <v>5.2457022380797934E-3</v>
       </c>
       <c r="P8">
-        <v>3.195657304696719E-3</v>
+        <v>4.2718131689912422E-3</v>
       </c>
       <c r="Q8">
-        <v>7.5843757375501537E-3</v>
+        <v>7.5405449237755436E-3</v>
       </c>
       <c r="R8">
-        <v>3.174415860278499E-4</v>
+        <v>2.8138177100227053E-4</v>
       </c>
       <c r="S8">
-        <v>7.6587207930139251E-4</v>
+        <v>1.2877067791112549E-3</v>
       </c>
       <c r="T8">
-        <v>6.4597592636299267E-3</v>
+        <v>5.9122607849497241E-3</v>
       </c>
       <c r="U8">
-        <v>4.7828652348359691E-3</v>
+        <v>4.2458644177748948E-3</v>
       </c>
       <c r="V8">
-        <v>4.873731413736134E-3</v>
+        <v>5.6592604605903343E-3</v>
       </c>
       <c r="W8">
-        <v>1.9471324050035401E-4</v>
+        <v>1.200129743756082E-4</v>
       </c>
       <c r="X8">
-        <v>6.8444654236488075E-5</v>
+        <v>9.7307817061303918E-6</v>
       </c>
       <c r="Y8">
-        <v>5.5463771536464477E-4</v>
+        <v>5.8303600389231268E-4</v>
       </c>
       <c r="Z8">
-        <v>5.5581779561010146E-4</v>
+        <v>3.8517677586766139E-4</v>
       </c>
       <c r="AA8">
-        <v>1.000708048147274E-3</v>
+        <v>1.2236457995458969E-3</v>
       </c>
       <c r="AB8">
-        <v>5.912202029738022E-4</v>
+        <v>9.0253000324359389E-4</v>
       </c>
       <c r="AC8">
-        <v>6.1128156714656602E-4</v>
+        <v>8.1900746026597471E-4</v>
       </c>
       <c r="AD8">
         <v>0</v>
@@ -1325,13 +1325,13 @@
         <v>0</v>
       </c>
       <c r="AG8">
-        <v>9.4406419636535288E-6</v>
+        <v>8.1089847551086602E-7</v>
       </c>
       <c r="AH8">
-        <v>1.062072220911022E-4</v>
+        <v>2.554330197859228E-4</v>
       </c>
       <c r="AI8">
-        <v>1.6639131460939339E-4</v>
+        <v>3.0327602984106392E-4</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -1339,7 +1339,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>6.5682776516380148E-4</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>9.7307817061303918E-6</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>8.1089847551086602E-7</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -1393,19 +1393,19 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>4.0544923775543302E-6</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>8.1089847551086602E-7</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>3.2435939020434641E-6</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>8.1089847551086602E-7</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>1.621796951021732E-6</v>
       </c>
       <c r="AC9">
         <v>0</v>
@@ -1446,70 +1446,70 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.9117299976398401E-4</v>
+        <v>4.7113201427181309E-4</v>
       </c>
       <c r="C10">
-        <v>1.292187868775077E-3</v>
+        <v>1.2917612714888099E-3</v>
       </c>
       <c r="D10">
-        <v>3.5402407363700732E-5</v>
+        <v>4.05449237755433E-5</v>
       </c>
       <c r="E10">
-        <v>2.3601604909133818E-6</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1.416096294548029E-5</v>
+        <v>3.2435939020434641E-6</v>
       </c>
       <c r="G10">
-        <v>8.0599480764692003E-4</v>
+        <v>8.0927667855984432E-4</v>
       </c>
       <c r="H10">
-        <v>3.0505074345055462E-3</v>
+        <v>4.8070061628284139E-3</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>6.4871878040869282E-6</v>
       </c>
       <c r="J10">
-        <v>5.9004012272834551E-6</v>
+        <v>7.2980862795977947E-6</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.346471560066085E-3</v>
+        <v>1.3177100227051569E-3</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.7819211706396031E-4</v>
+        <v>4.2166720726565027E-5</v>
       </c>
       <c r="O10">
-        <v>1.534104319093698E-5</v>
+        <v>2.270515731430425E-5</v>
       </c>
       <c r="P10">
-        <v>4.7203209818267636E-6</v>
+        <v>4.0544923775543302E-6</v>
       </c>
       <c r="Q10">
-        <v>8.9096058531980174E-4</v>
+        <v>7.0304897826792083E-4</v>
       </c>
       <c r="R10">
-        <v>7.3164975218314841E-5</v>
+        <v>3.1625040544923779E-5</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>8.1089847551086602E-7</v>
       </c>
       <c r="T10">
-        <v>3.5402407363700729E-6</v>
+        <v>4.0544923775543302E-6</v>
       </c>
       <c r="U10">
-        <v>3.3042246872787349E-5</v>
+        <v>7.2980862795977947E-6</v>
       </c>
       <c r="V10">
-        <v>2.3601604909133818E-6</v>
+        <v>1.865066493674992E-5</v>
       </c>
       <c r="W10">
-        <v>2.5725749350955862E-4</v>
+        <v>2.075900097307817E-4</v>
       </c>
       <c r="X10">
         <v>0</v>
@@ -1518,10 +1518,10 @@
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>3.5402407363700729E-6</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>3.5402407363700732E-5</v>
+        <v>6.4871878040869282E-6</v>
       </c>
       <c r="AB10">
         <v>0</v>
@@ -1536,13 +1536,13 @@
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>2.9502006136417271E-5</v>
+        <v>2.108336036328252E-5</v>
       </c>
       <c r="AG10">
         <v>0</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>8.1089847551086602E-7</v>
       </c>
       <c r="AI10">
         <v>0</v>
@@ -1553,106 +1553,106 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.327590276138777E-3</v>
+        <v>1.222024002594875E-3</v>
       </c>
       <c r="C11">
-        <v>4.8524899693179139E-3</v>
+        <v>4.7924099902692183E-3</v>
       </c>
       <c r="D11">
-        <v>1.156478640547557E-4</v>
+        <v>1.0622770029192341E-4</v>
       </c>
       <c r="E11">
-        <v>9.1810243096530561E-4</v>
+        <v>9.5767109957833278E-4</v>
       </c>
       <c r="F11">
-        <v>1.9589332074581071E-4</v>
+        <v>3.803113850145962E-4</v>
       </c>
       <c r="G11">
-        <v>8.6617890016521125E-4</v>
+        <v>6.3331170937398643E-4</v>
       </c>
       <c r="H11">
-        <v>5.6879867831012511E-4</v>
+        <v>2.416477457022381E-4</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.7946660372905353E-5</v>
+        <v>4.8653908530651959E-5</v>
       </c>
       <c r="K11">
-        <v>6.8444654236488075E-5</v>
+        <v>4.7032111579630233E-5</v>
       </c>
       <c r="L11">
-        <v>6.5376445598300682E-4</v>
+        <v>3.5517353227375933E-4</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.2508850601840931E-4</v>
+        <v>9.2442426208238726E-5</v>
       </c>
       <c r="O11">
-        <v>1.9471324050035401E-4</v>
+        <v>2.2299708076548819E-4</v>
       </c>
       <c r="P11">
-        <v>3.3632286995515702E-4</v>
+        <v>2.440804411287707E-4</v>
       </c>
       <c r="Q11">
-        <v>1.3854142081661551E-3</v>
+        <v>1.843172234836199E-3</v>
       </c>
       <c r="R11">
-        <v>7.8239320273778613E-4</v>
+        <v>4.1112552708400912E-4</v>
       </c>
       <c r="S11">
-        <v>2.2421524663677129E-5</v>
+        <v>1.054168018164126E-5</v>
       </c>
       <c r="T11">
-        <v>2.2067500590040119E-4</v>
+        <v>2.0191372040220571E-4</v>
       </c>
       <c r="U11">
-        <v>6.8444654236488075E-5</v>
+        <v>1.7028867985728191E-5</v>
       </c>
       <c r="V11">
-        <v>8.2605617181968373E-6</v>
+        <v>5.6762893285760616E-6</v>
       </c>
       <c r="W11">
-        <v>3.4812367240972392E-4</v>
+        <v>2.6273110606552061E-4</v>
       </c>
       <c r="X11">
         <v>0</v>
       </c>
       <c r="Y11">
-        <v>1.1800802454566909E-6</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>1.29808827000236E-5</v>
+        <v>1.621796951021732E-6</v>
       </c>
       <c r="AA11">
-        <v>6.1364172763747932E-5</v>
+        <v>1.7028867985728191E-5</v>
       </c>
       <c r="AB11">
-        <v>9.4406419636535288E-6</v>
+        <v>3.2435939020434641E-6</v>
       </c>
       <c r="AC11">
         <v>0</v>
       </c>
       <c r="AD11">
-        <v>2.360160490913382E-5</v>
+        <v>3.2435939020434642E-5</v>
       </c>
       <c r="AE11">
-        <v>4.6259145621902289E-4</v>
+        <v>3.1138501459617248E-4</v>
       </c>
       <c r="AF11">
-        <v>9.5586499881991977E-5</v>
+        <v>1.313655530327603E-3</v>
       </c>
       <c r="AG11">
-        <v>1.1800802454566909E-6</v>
+        <v>0</v>
       </c>
       <c r="AH11">
-        <v>1.1800802454566909E-6</v>
+        <v>1.6299059357768411E-4</v>
       </c>
       <c r="AI11">
-        <v>2.3365588860042481E-4</v>
+        <v>5.2059682127797598E-4</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -1660,106 +1660,106 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.5777672881755959E-2</v>
+        <v>1.721294193966915E-2</v>
       </c>
       <c r="C12">
-        <v>4.8737314137361337E-4</v>
+        <v>6.5682776516380153E-5</v>
       </c>
       <c r="D12">
-        <v>3.4458343167335378E-4</v>
+        <v>5.9357768407395392E-4</v>
       </c>
       <c r="E12">
-        <v>2.186688694831249E-3</v>
+        <v>2.2356470969834581E-3</v>
       </c>
       <c r="F12">
-        <v>6.7146565966485724E-4</v>
+        <v>3.746350956860201E-4</v>
       </c>
       <c r="G12">
-        <v>1.522303516639131E-3</v>
+        <v>1.5188128446318519E-3</v>
       </c>
       <c r="H12">
-        <v>2.2598536700495632E-3</v>
+        <v>1.7109957833279269E-3</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>3.1390134529147982E-4</v>
+        <v>2.156989944858904E-4</v>
       </c>
       <c r="K12">
-        <v>2.3979230587679958E-3</v>
+        <v>1.89182614336685E-3</v>
       </c>
       <c r="L12">
-        <v>1.10927543072929E-3</v>
+        <v>5.4168018164125846E-4</v>
       </c>
       <c r="M12">
-        <v>1.7134765164031149E-3</v>
+        <v>1.032273759325332E-3</v>
       </c>
       <c r="N12">
-        <v>3.0611281567146571E-3</v>
+        <v>1.391501783976646E-3</v>
       </c>
       <c r="O12">
-        <v>4.6294548029265992E-3</v>
+        <v>5.3138177100227049E-3</v>
       </c>
       <c r="P12">
-        <v>2.5324522067500591E-3</v>
+        <v>2.4148556600713592E-3</v>
       </c>
       <c r="Q12">
-        <v>4.1951852725985363E-3</v>
+        <v>3.1714239377229969E-3</v>
       </c>
       <c r="R12">
-        <v>6.3960349303752659E-4</v>
+        <v>3.0895231916964002E-4</v>
       </c>
       <c r="S12">
-        <v>1.023129572810951E-3</v>
+        <v>7.2575413558222514E-4</v>
       </c>
       <c r="T12">
-        <v>1.486901109275431E-3</v>
+        <v>4.0058384690236782E-4</v>
       </c>
       <c r="U12">
-        <v>3.6535284399339149E-3</v>
+        <v>2.079954589685371E-3</v>
       </c>
       <c r="V12">
-        <v>4.5704507906537649E-3</v>
+        <v>4.2207265650340579E-3</v>
       </c>
       <c r="W12">
-        <v>6.0184092518291238E-5</v>
+        <v>7.2980862795977947E-6</v>
       </c>
       <c r="X12">
-        <v>1.3452914798206279E-4</v>
+        <v>3.3246837495945498E-5</v>
       </c>
       <c r="Y12">
-        <v>1.5683266462119419E-3</v>
+        <v>1.290139474537788E-3</v>
       </c>
       <c r="Z12">
-        <v>1.0337502950200611E-3</v>
+        <v>7.3061952643529028E-4</v>
       </c>
       <c r="AA12">
-        <v>2.5029502006136419E-3</v>
+        <v>1.574764839442102E-3</v>
       </c>
       <c r="AB12">
-        <v>4.4607033278262922E-4</v>
+        <v>5.6843983133311705E-4</v>
       </c>
       <c r="AC12">
-        <v>3.1272126504602312E-4</v>
+        <v>1.4677262406746671E-4</v>
       </c>
       <c r="AD12">
         <v>0</v>
       </c>
       <c r="AE12">
-        <v>1.1800802454566909E-6</v>
+        <v>0</v>
       </c>
       <c r="AF12">
         <v>0</v>
       </c>
       <c r="AG12">
-        <v>1.180080245456691E-5</v>
+        <v>0</v>
       </c>
       <c r="AH12">
-        <v>3.8824640075525138E-4</v>
+        <v>2.5867661368796628E-4</v>
       </c>
       <c r="AI12">
-        <v>1.491621430257257E-3</v>
+        <v>1.14255595199481E-3</v>
       </c>
     </row>
     <row r="13" spans="1:35">
@@ -1767,88 +1767,88 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.362048619306112E-3</v>
+        <v>5.9065844956211486E-3</v>
       </c>
       <c r="C13">
-        <v>2.3601604909133818E-6</v>
+        <v>2.432695426532598E-6</v>
       </c>
       <c r="D13">
-        <v>2.7141845645503898E-5</v>
+        <v>3.0814142069412909E-5</v>
       </c>
       <c r="E13">
-        <v>1.180080245456691E-5</v>
+        <v>3.2435939020434641E-6</v>
       </c>
       <c r="F13">
-        <v>1.534104319093698E-5</v>
+        <v>4.8653908530651959E-6</v>
       </c>
       <c r="G13">
-        <v>1.2744866650932259E-4</v>
+        <v>2.335387609471294E-4</v>
       </c>
       <c r="H13">
-        <v>2.832192589096059E-5</v>
+        <v>4.0544923775543302E-6</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.1800802454566909E-6</v>
+        <v>8.1089847551086602E-7</v>
       </c>
       <c r="K13">
-        <v>1.534104319093698E-5</v>
+        <v>3.2435939020434641E-6</v>
       </c>
       <c r="L13">
-        <v>1.534104319093698E-5</v>
+        <v>1.621796951021732E-6</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.6049091338210999E-4</v>
+        <v>6.5682776516380153E-5</v>
       </c>
       <c r="O13">
-        <v>9.2046259145621905E-5</v>
+        <v>1.5407071034706451E-5</v>
       </c>
       <c r="P13">
-        <v>7.0804814727401465E-5</v>
+        <v>3.6490431397988971E-5</v>
       </c>
       <c r="Q13">
-        <v>4.2836912910077879E-4</v>
+        <v>5.0032435939020435E-4</v>
       </c>
       <c r="R13">
-        <v>4.366296908189757E-5</v>
+        <v>6.4871878040869282E-6</v>
       </c>
       <c r="S13">
-        <v>2.2421524663677129E-5</v>
+        <v>2.432695426532598E-6</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>2.432695426532598E-6</v>
       </c>
       <c r="U13">
-        <v>6.2898277082841633E-4</v>
+        <v>5.0275705481673692E-4</v>
       </c>
       <c r="V13">
-        <v>3.5048383290063731E-4</v>
+        <v>4.0707103470645468E-4</v>
       </c>
       <c r="W13">
-        <v>2.3601604909133818E-6</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>1.534104319093698E-5</v>
+        <v>0</v>
       </c>
       <c r="Y13">
-        <v>4.7203209818267636E-6</v>
+        <v>8.1089847551086602E-7</v>
       </c>
       <c r="Z13">
-        <v>4.9563370309181017E-5</v>
+        <v>5.9195588712293221E-5</v>
       </c>
       <c r="AA13">
-        <v>1.581307528911966E-4</v>
+        <v>1.81641258514434E-4</v>
       </c>
       <c r="AB13">
-        <v>1.168279443002124E-4</v>
+        <v>2.1975348686344471E-4</v>
       </c>
       <c r="AC13">
-        <v>4.7203209818267636E-6</v>
+        <v>0</v>
       </c>
       <c r="AD13">
         <v>0</v>
@@ -1860,13 +1860,13 @@
         <v>0</v>
       </c>
       <c r="AG13">
-        <v>0</v>
+        <v>2.432695426532598E-6</v>
       </c>
       <c r="AH13">
-        <v>2.3601604909133818E-6</v>
+        <v>0</v>
       </c>
       <c r="AI13">
-        <v>1.062072220911022E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:35">
@@ -1874,85 +1874,85 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.6653292423884818E-3</v>
+        <v>4.582387285111904E-3</v>
       </c>
       <c r="C14">
-        <v>6.5411848005664389E-3</v>
+        <v>6.1879662666234191E-3</v>
       </c>
       <c r="D14">
-        <v>3.5402407363700729E-6</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>3.8234599952796791E-4</v>
+        <v>1.5488160882257541E-4</v>
       </c>
       <c r="F14">
-        <v>2.0061364172763749E-5</v>
+        <v>3.2435939020434641E-6</v>
       </c>
       <c r="G14">
-        <v>1.8881283927307061E-5</v>
+        <v>2.6759649691858579E-5</v>
       </c>
       <c r="H14">
-        <v>7.5289119660136886E-4</v>
+        <v>4.7032111579630229E-4</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4.4843049327354258E-5</v>
+        <v>5.6762893285760616E-6</v>
       </c>
       <c r="K14">
-        <v>9.9126740618362048E-5</v>
+        <v>7.2980862795977947E-6</v>
       </c>
       <c r="L14">
-        <v>4.157422704743923E-3</v>
+        <v>1.8399286409341549E-3</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>3.0682086381873973E-5</v>
+        <v>6.4871878040869282E-6</v>
       </c>
       <c r="O14">
-        <v>9.0748170875619546E-4</v>
+        <v>4.435614661044437E-4</v>
       </c>
       <c r="P14">
-        <v>2.59617654000472E-5</v>
+        <v>2.432695426532598E-6</v>
       </c>
       <c r="Q14">
-        <v>4.0004720320981828E-4</v>
+        <v>2.2713266299059362E-3</v>
       </c>
       <c r="R14">
-        <v>8.8187396742978527E-3</v>
+        <v>7.7424586441777491E-3</v>
       </c>
       <c r="S14">
-        <v>2.9502006136417271E-5</v>
+        <v>3.2435939020434641E-6</v>
       </c>
       <c r="T14">
-        <v>1.9494925654944539E-3</v>
+        <v>1.449075575737918E-3</v>
       </c>
       <c r="U14">
-        <v>3.3396270946424358E-4</v>
+        <v>3.2111579630230298E-4</v>
       </c>
       <c r="V14">
-        <v>7.7531272126504607E-4</v>
+        <v>4.9302627311060654E-4</v>
       </c>
       <c r="W14">
-        <v>1.8279443002124139E-3</v>
+        <v>1.0225429776192019E-3</v>
       </c>
       <c r="X14">
-        <v>1.1800802454566909E-6</v>
+        <v>0</v>
       </c>
       <c r="Y14">
-        <v>1.1800802454566909E-6</v>
+        <v>2.432695426532598E-6</v>
       </c>
       <c r="Z14">
-        <v>2.1241444418220441E-4</v>
+        <v>1.3785274083684719E-5</v>
       </c>
       <c r="AA14">
-        <v>7.0804814727401466E-6</v>
+        <v>8.1089847551086602E-7</v>
       </c>
       <c r="AB14">
-        <v>1.534104319093698E-5</v>
+        <v>4.8653908530651959E-6</v>
       </c>
       <c r="AC14">
         <v>0</v>
@@ -1964,13 +1964,13 @@
         <v>0</v>
       </c>
       <c r="AF14">
-        <v>0</v>
+        <v>2.108336036328252E-5</v>
       </c>
       <c r="AG14">
-        <v>3.5402407363700729E-6</v>
+        <v>0</v>
       </c>
       <c r="AH14">
-        <v>2.3601604909133818E-6</v>
+        <v>0</v>
       </c>
       <c r="AI14">
         <v>0</v>
@@ -1981,106 +1981,106 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.4739202265754071E-3</v>
+        <v>6.7872202400259488E-3</v>
       </c>
       <c r="C15">
-        <v>4.8843521359452436E-3</v>
+        <v>5.6681803438209536E-3</v>
       </c>
       <c r="D15">
-        <v>5.6643851781921173E-5</v>
+        <v>3.2435939020434642E-5</v>
       </c>
       <c r="E15">
-        <v>3.5402407363700732E-5</v>
+        <v>3.0003243593902039E-5</v>
       </c>
       <c r="F15">
-        <v>1.6167099362756669E-4</v>
+        <v>1.8488485241647751E-4</v>
       </c>
       <c r="G15">
-        <v>5.428369129100779E-5</v>
+        <v>2.189425883879338E-5</v>
       </c>
       <c r="H15">
-        <v>4.7297616237904176E-3</v>
+        <v>3.6985079468050599E-3</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1.297437560817386E-5</v>
       </c>
       <c r="J15">
-        <v>2.2657540712768469E-4</v>
+        <v>3.008433344145313E-4</v>
       </c>
       <c r="K15">
-        <v>1.770120368185037E-5</v>
+        <v>1.865066493674992E-5</v>
       </c>
       <c r="L15">
-        <v>7.6752419164503186E-3</v>
+        <v>6.4734025300032432E-3</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>4.8973330186452676E-4</v>
+        <v>2.384041518001946E-4</v>
       </c>
       <c r="O15">
-        <v>3.5520415388246398E-4</v>
+        <v>1.3460914693480381E-4</v>
       </c>
       <c r="P15">
-        <v>8.2605617181968373E-6</v>
+        <v>5.6762893285760616E-6</v>
       </c>
       <c r="Q15">
-        <v>3.7290535756431429E-4</v>
+        <v>2.3921505027570551E-4</v>
       </c>
       <c r="R15">
-        <v>5.4496105735189993E-3</v>
+        <v>5.062439182614337E-3</v>
       </c>
       <c r="S15">
-        <v>8.1425536936511678E-5</v>
+        <v>5.1897502432695432E-5</v>
       </c>
       <c r="T15">
-        <v>1.1800802454566909E-6</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>1.446778380929903E-3</v>
+        <v>1.4734025300032439E-3</v>
       </c>
       <c r="V15">
-        <v>1.2862874675477931E-4</v>
+        <v>4.6221213104119363E-5</v>
       </c>
       <c r="W15">
-        <v>1.353552041538825E-3</v>
+        <v>1.3079792409990271E-3</v>
       </c>
       <c r="X15">
-        <v>9.4406419636535288E-6</v>
+        <v>4.0544923775543302E-6</v>
       </c>
       <c r="Y15">
-        <v>3.5402407363700729E-6</v>
+        <v>8.1089847551086602E-7</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>8.1089847551086602E-7</v>
       </c>
       <c r="AA15">
-        <v>1.156478640547557E-4</v>
+        <v>2.1083360363282521E-4</v>
       </c>
       <c r="AB15">
-        <v>5.9004012272834551E-6</v>
+        <v>2.432695426532598E-6</v>
       </c>
       <c r="AC15">
-        <v>4.7203209818267636E-6</v>
+        <v>2.432695426532598E-6</v>
       </c>
       <c r="AD15">
-        <v>1.1800802454566909E-6</v>
+        <v>0</v>
       </c>
       <c r="AE15">
-        <v>6.0892140665565263E-4</v>
+        <v>6.4871878040869281E-4</v>
       </c>
       <c r="AF15">
-        <v>4.4689638895444887E-3</v>
+        <v>3.6409341550437879E-3</v>
       </c>
       <c r="AG15">
-        <v>1.1800802454566909E-6</v>
+        <v>0</v>
       </c>
       <c r="AH15">
-        <v>9.1456219022893553E-4</v>
+        <v>9.2442426208238734E-4</v>
       </c>
       <c r="AI15">
-        <v>1.6627330658484779E-3</v>
+        <v>1.449886474213429E-3</v>
       </c>
     </row>
     <row r="16" spans="1:35">
@@ -2088,106 +2088,106 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.8810479112579653E-3</v>
+        <v>7.7578657152124553E-3</v>
       </c>
       <c r="C16">
-        <v>3.5709228227519471E-3</v>
+        <v>2.242945183263055E-3</v>
       </c>
       <c r="D16">
-        <v>2.8675949964597589E-4</v>
+        <v>2.108336036328252E-5</v>
       </c>
       <c r="E16">
-        <v>1.1918810479112579E-4</v>
+        <v>1.621796951021732E-6</v>
       </c>
       <c r="F16">
-        <v>2.7141845645503898E-5</v>
+        <v>7.2169964320467072E-5</v>
       </c>
       <c r="G16">
-        <v>9.4406419636535288E-6</v>
+        <v>3.2435939020434641E-6</v>
       </c>
       <c r="H16">
-        <v>3.6936511682794429E-3</v>
+        <v>4.1477457022380797E-3</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1.1800802454566909E-6</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>8.2605617181968373E-6</v>
+        <v>1.621796951021732E-6</v>
       </c>
       <c r="L16">
-        <v>3.3703091810243098E-3</v>
+        <v>2.1496918585793062E-3</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.14467783809299E-4</v>
+        <v>6.5682776516380153E-5</v>
       </c>
       <c r="O16">
-        <v>1.864526787821572E-4</v>
+        <v>1.054168018164126E-4</v>
       </c>
       <c r="P16">
-        <v>1.5223035166391321E-4</v>
+        <v>2.432695426532598E-5</v>
       </c>
       <c r="Q16">
-        <v>9.9362756667453387E-4</v>
+        <v>1.747486214725916E-3</v>
       </c>
       <c r="R16">
-        <v>3.2074581071512859E-3</v>
+        <v>3.673370094064223E-3</v>
       </c>
       <c r="S16">
-        <v>2.8911966013688928E-4</v>
+        <v>1.119039896204995E-4</v>
       </c>
       <c r="T16">
-        <v>8.2605617181968373E-5</v>
+        <v>7.9468050600064874E-5</v>
       </c>
       <c r="U16">
-        <v>2.1713476516403119E-4</v>
+        <v>1.256892637041842E-4</v>
       </c>
       <c r="V16">
-        <v>4.1302808590984193E-5</v>
+        <v>1.3460914693480381E-4</v>
       </c>
       <c r="W16">
-        <v>1.7028557941940049E-3</v>
+        <v>2.243756081738566E-3</v>
       </c>
       <c r="X16">
-        <v>3.3042246872787349E-5</v>
+        <v>5.6762893285760616E-6</v>
       </c>
       <c r="Y16">
-        <v>1.6521123436393671E-5</v>
+        <v>0</v>
       </c>
       <c r="Z16">
-        <v>2.832192589096059E-5</v>
+        <v>4.8653908530651959E-6</v>
       </c>
       <c r="AA16">
-        <v>3.658248760915742E-5</v>
+        <v>5.2708400908206302E-5</v>
       </c>
       <c r="AB16">
-        <v>8.2605617181968373E-6</v>
+        <v>0</v>
       </c>
       <c r="AC16">
-        <v>4.7203209818267636E-6</v>
+        <v>8.919883230619527E-6</v>
       </c>
       <c r="AD16">
-        <v>2.3601604909133818E-6</v>
+        <v>0</v>
       </c>
       <c r="AE16">
-        <v>8.3077649280151051E-4</v>
+        <v>8.4252351605578987E-4</v>
       </c>
       <c r="AF16">
-        <v>1.014869011092754E-4</v>
+        <v>7.0548167369445346E-5</v>
       </c>
       <c r="AG16">
-        <v>0</v>
+        <v>8.1089847551086602E-7</v>
       </c>
       <c r="AH16">
-        <v>7.0804814727401466E-6</v>
+        <v>0</v>
       </c>
       <c r="AI16">
-        <v>3.9650696247344819E-4</v>
+        <v>3.5598443074927018E-4</v>
       </c>
     </row>
     <row r="17" spans="1:35">
@@ -2195,106 +2195,106 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.6882227991503419E-3</v>
+        <v>3.4974051248783649E-3</v>
       </c>
       <c r="C17">
-        <v>9.4087797970261976E-3</v>
+        <v>9.93512812195913E-3</v>
       </c>
       <c r="D17">
-        <v>2.360160490913382E-5</v>
+        <v>3.2435939020434641E-6</v>
       </c>
       <c r="E17">
-        <v>4.1302808590984193E-5</v>
+        <v>9.7307817061303918E-6</v>
       </c>
       <c r="F17">
-        <v>2.135945244276611E-4</v>
+        <v>3.1625040544923779E-5</v>
       </c>
       <c r="G17">
-        <v>7.2810951144677838E-4</v>
+        <v>2.8543626337982492E-4</v>
       </c>
       <c r="H17">
-        <v>6.884588151994336E-3</v>
+        <v>1.112228349010704E-2</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.432695426532598E-6</v>
       </c>
       <c r="J17">
-        <v>1.2744866650932259E-4</v>
+        <v>1.621796951021732E-6</v>
       </c>
       <c r="K17">
-        <v>5.5463771536464478E-5</v>
+        <v>1.297437560817386E-5</v>
       </c>
       <c r="L17">
-        <v>7.4734481944772248E-3</v>
+        <v>6.9299383717158613E-3</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>4.9091338210998346E-4</v>
+        <v>3.073305222186182E-4</v>
       </c>
       <c r="O17">
-        <v>7.0804814727401466E-6</v>
+        <v>8.1089847551086602E-7</v>
       </c>
       <c r="P17">
-        <v>4.7203209818267636E-6</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>3.0044843049327349E-3</v>
+        <v>2.526759649691858E-3</v>
       </c>
       <c r="R17">
-        <v>9.8430493273542596E-3</v>
+        <v>1.042166720726565E-2</v>
       </c>
       <c r="S17">
-        <v>5.9004012272834551E-6</v>
+        <v>1.621796951021732E-6</v>
       </c>
       <c r="T17">
-        <v>6.0184092518291238E-5</v>
+        <v>9.0009730781706129E-5</v>
       </c>
       <c r="U17">
-        <v>9.4170403587443951E-4</v>
+        <v>2.6273110606552061E-4</v>
       </c>
       <c r="V17">
-        <v>1.1659192825112109E-3</v>
+        <v>3.4219915666558551E-4</v>
       </c>
       <c r="W17">
-        <v>2.338919046495162E-3</v>
+        <v>2.2445669802140769E-3</v>
       </c>
       <c r="X17">
-        <v>3.8942648100070797E-5</v>
+        <v>4.6221213104119363E-5</v>
       </c>
       <c r="Y17">
-        <v>2.9502006136417271E-5</v>
+        <v>0</v>
       </c>
       <c r="Z17">
-        <v>5.912202029738022E-4</v>
+        <v>1.5974699967564061E-4</v>
       </c>
       <c r="AA17">
-        <v>2.3719612933679489E-4</v>
+        <v>2.9678884203697701E-4</v>
       </c>
       <c r="AB17">
-        <v>1.770120368185037E-5</v>
+        <v>1.6217969510217321E-5</v>
       </c>
       <c r="AC17">
-        <v>5.7823932027377861E-5</v>
+        <v>1.0298410638987999E-4</v>
       </c>
       <c r="AD17">
-        <v>9.4406419636535288E-6</v>
+        <v>0</v>
       </c>
       <c r="AE17">
-        <v>4.5067264573991029E-3</v>
+        <v>2.486214725916315E-3</v>
       </c>
       <c r="AF17">
-        <v>9.5704507906537643E-4</v>
+        <v>1.1060655205968209E-3</v>
       </c>
       <c r="AG17">
-        <v>2.360160490913382E-5</v>
+        <v>0</v>
       </c>
       <c r="AH17">
-        <v>9.7946660372905353E-5</v>
+        <v>1.5731430424910801E-4</v>
       </c>
       <c r="AI17">
-        <v>9.865470852017937E-4</v>
+        <v>3.447129419396692E-3</v>
       </c>
     </row>
     <row r="18" spans="1:35">
@@ -2302,106 +2302,106 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.537408543780977E-2</v>
+        <v>2.460103795004865E-2</v>
       </c>
       <c r="C18">
-        <v>4.8383290063724343E-5</v>
+        <v>4.0544923775543302E-6</v>
       </c>
       <c r="D18">
-        <v>3.4812367240972392E-3</v>
+        <v>3.209536166072008E-3</v>
       </c>
       <c r="E18">
-        <v>8.7160726929431196E-3</v>
+        <v>7.1245540058384694E-3</v>
       </c>
       <c r="F18">
-        <v>4.2482888836440878E-3</v>
+        <v>4.7859228024651314E-3</v>
       </c>
       <c r="G18">
-        <v>5.7658720793013927E-3</v>
+        <v>4.2434317223483623E-3</v>
       </c>
       <c r="H18">
-        <v>1.586027849893793E-3</v>
+        <v>1.9502108336036329E-3</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1.621796951021732E-6</v>
       </c>
       <c r="J18">
-        <v>1.6698135473212181E-3</v>
+        <v>2.4643204670775219E-3</v>
       </c>
       <c r="K18">
-        <v>1.3629926835024781E-3</v>
+        <v>8.8793383068439837E-4</v>
       </c>
       <c r="L18">
-        <v>6.9978758555581781E-4</v>
+        <v>7.225105416801816E-4</v>
       </c>
       <c r="M18">
-        <v>3.9249468963889547E-3</v>
+        <v>2.7319169639961078E-3</v>
       </c>
       <c r="N18">
-        <v>2.0734009912674058E-3</v>
+        <v>1.7791112552708399E-3</v>
       </c>
       <c r="O18">
-        <v>6.3405711588388012E-3</v>
+        <v>5.0527084009082063E-3</v>
       </c>
       <c r="P18">
-        <v>5.697427425064904E-3</v>
+        <v>5.2002919234511837E-3</v>
       </c>
       <c r="Q18">
-        <v>4.742742506490441E-3</v>
+        <v>5.4597794356146612E-3</v>
       </c>
       <c r="R18">
-        <v>3.6582487609157418E-4</v>
+        <v>1.929938371715861E-4</v>
       </c>
       <c r="S18">
-        <v>1.6863346707576121E-3</v>
+        <v>1.243918261433668E-3</v>
       </c>
       <c r="T18">
-        <v>6.7583195657304699E-3</v>
+        <v>4.6691534219915664E-3</v>
       </c>
       <c r="U18">
-        <v>6.5765872079301393E-3</v>
+        <v>5.5838469023678236E-3</v>
       </c>
       <c r="V18">
-        <v>5.2230351663913148E-3</v>
+        <v>6.3282517028867983E-3</v>
       </c>
       <c r="W18">
-        <v>1.14467783809299E-4</v>
+        <v>1.0622770029192341E-4</v>
       </c>
       <c r="X18">
-        <v>2.1831484540948791E-4</v>
+        <v>3.2111579630230298E-4</v>
       </c>
       <c r="Y18">
-        <v>6.584847769648336E-4</v>
+        <v>3.2679208563087903E-4</v>
       </c>
       <c r="Z18">
-        <v>1.9471324050035401E-4</v>
+        <v>1.2893285760622771E-4</v>
       </c>
       <c r="AA18">
-        <v>1.735898041066793E-3</v>
+        <v>2.4643204670775219E-3</v>
       </c>
       <c r="AB18">
-        <v>8.3667689402879399E-4</v>
+        <v>8.4333441453130072E-4</v>
       </c>
       <c r="AC18">
-        <v>2.2303516639131461E-4</v>
+        <v>1.8488485241647751E-4</v>
       </c>
       <c r="AD18">
         <v>0</v>
       </c>
       <c r="AE18">
-        <v>1.1800802454566909E-6</v>
+        <v>0</v>
       </c>
       <c r="AF18">
         <v>0</v>
       </c>
       <c r="AG18">
-        <v>1.3924946896388951E-4</v>
+        <v>2.027246188777165E-5</v>
       </c>
       <c r="AH18">
-        <v>2.525371725277319E-4</v>
+        <v>5.8465780084333439E-4</v>
       </c>
       <c r="AI18">
-        <v>6.4196365352843998E-4</v>
+        <v>5.7654881608822572E-4</v>
       </c>
     </row>
     <row r="19" spans="1:35">
@@ -2409,106 +2409,106 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.021477460467312E-4</v>
+        <v>3.7301329873499841E-5</v>
       </c>
       <c r="C19">
-        <v>1.9542128864762798E-3</v>
+        <v>1.3039247486214729E-3</v>
       </c>
       <c r="D19">
-        <v>1.29808827000236E-5</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>8.2605617181968373E-6</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>3.5402407363700729E-6</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>4.7203209818267636E-6</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>2.534812367240972E-3</v>
+        <v>2.096172559195589E-3</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>1.1800802454566909E-6</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>2.3601604909133818E-6</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>1.506962473448194E-3</v>
+        <v>7.8657152124554002E-4</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>7.0804814727401465E-5</v>
+        <v>6.1628284138825817E-5</v>
       </c>
       <c r="O19">
-        <v>8.6263865942884117E-4</v>
+        <v>4.3301978592280251E-4</v>
       </c>
       <c r="P19">
-        <v>3.5402407363700729E-6</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.5105027141845649E-4</v>
+        <v>1.094712941939669E-4</v>
       </c>
       <c r="R19">
-        <v>9.1527023837620954E-3</v>
+        <v>8.8298734998378207E-3</v>
       </c>
       <c r="S19">
-        <v>8.5791833844701439E-4</v>
+        <v>5.3438209536166075E-4</v>
       </c>
       <c r="T19">
-        <v>6.084493745574699E-3</v>
+        <v>6.8910152448913393E-3</v>
       </c>
       <c r="U19">
-        <v>9.9126740618362048E-5</v>
+        <v>2.7570548167369449E-5</v>
       </c>
       <c r="V19">
-        <v>1.156478640547557E-4</v>
+        <v>1.4920531949399939E-4</v>
       </c>
       <c r="W19">
-        <v>9.8418692471088031E-4</v>
+        <v>5.4086928316574761E-4</v>
       </c>
       <c r="X19">
-        <v>3.5402407363700729E-6</v>
+        <v>8.1089847551086602E-7</v>
       </c>
       <c r="Y19">
-        <v>1.1800802454566909E-6</v>
+        <v>0</v>
       </c>
       <c r="Z19">
-        <v>1.180080245456691E-5</v>
+        <v>1.216347713266299E-5</v>
       </c>
       <c r="AA19">
-        <v>1.6521123436393671E-5</v>
+        <v>1.135257865715212E-5</v>
       </c>
       <c r="AB19">
-        <v>8.2605617181968373E-6</v>
+        <v>2.432695426532598E-6</v>
       </c>
       <c r="AC19">
-        <v>3.5402407363700729E-6</v>
+        <v>8.1089847551086602E-7</v>
       </c>
       <c r="AD19">
         <v>0</v>
       </c>
       <c r="AE19">
-        <v>2.9029974038234597E-4</v>
+        <v>1.8975024326954259E-4</v>
       </c>
       <c r="AF19">
-        <v>8.8506018409251834E-5</v>
+        <v>5.7573791761271488E-5</v>
       </c>
       <c r="AG19">
-        <v>1.1800802454566909E-6</v>
+        <v>0</v>
       </c>
       <c r="AH19">
-        <v>1.29808827000236E-5</v>
+        <v>3.2435939020434641E-6</v>
       </c>
       <c r="AI19">
-        <v>3.280623082369601E-4</v>
+        <v>4.8653908530651958E-4</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -2516,106 +2516,106 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.6379513806938869E-3</v>
+        <v>5.7735971456373658E-4</v>
       </c>
       <c r="C20">
-        <v>8.2369601132877036E-3</v>
+        <v>6.6031462860849819E-3</v>
       </c>
       <c r="D20">
-        <v>1.2390842577295259E-4</v>
+        <v>1.2325656827765161E-4</v>
       </c>
       <c r="E20">
-        <v>3.941468019825348E-4</v>
+        <v>3.867985728186831E-4</v>
       </c>
       <c r="F20">
-        <v>4.8501298088269998E-4</v>
+        <v>1.4677262406746671E-4</v>
       </c>
       <c r="G20">
-        <v>2.8439933915506261E-4</v>
+        <v>7.1845604930262732E-4</v>
       </c>
       <c r="H20">
-        <v>6.0797734245928723E-3</v>
+        <v>5.06568277651638E-3</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>3.2570214774604671E-4</v>
+        <v>2.3921505027570551E-4</v>
       </c>
       <c r="K20">
-        <v>1.038470616001888E-4</v>
+        <v>3.5679532922478108E-5</v>
       </c>
       <c r="L20">
-        <v>5.1380693887184328E-3</v>
+        <v>4.3991242296464476E-3</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>4.3780977106443241E-4</v>
+        <v>1.792085630879014E-4</v>
       </c>
       <c r="O20">
-        <v>1.038470616001888E-4</v>
+        <v>5.5141096334738892E-5</v>
       </c>
       <c r="P20">
-        <v>4.4489025253717252E-4</v>
+        <v>2.0191372040220571E-4</v>
       </c>
       <c r="Q20">
-        <v>1.45149870191173E-3</v>
+        <v>5.6519623743107362E-4</v>
       </c>
       <c r="R20">
-        <v>8.508378569742743E-3</v>
+        <v>6.7774894583198181E-3</v>
       </c>
       <c r="S20">
-        <v>1.038470616001888E-4</v>
+        <v>1.192020759000973E-4</v>
       </c>
       <c r="T20">
-        <v>1.2272834552749589E-4</v>
+        <v>6.649367499189101E-5</v>
       </c>
       <c r="U20">
-        <v>6.6910549917394385E-4</v>
+        <v>9.0820629257216999E-5</v>
       </c>
       <c r="V20">
-        <v>7.6469199905593581E-4</v>
+        <v>4.1436912098605249E-4</v>
       </c>
       <c r="W20">
-        <v>2.6398395090866181E-3</v>
+        <v>2.281057411612066E-3</v>
       </c>
       <c r="X20">
-        <v>6.0184092518291238E-5</v>
+        <v>6.5682776516380153E-5</v>
       </c>
       <c r="Y20">
-        <v>1.9117299976398401E-4</v>
+        <v>5.9195588712293221E-5</v>
       </c>
       <c r="Z20">
-        <v>8.1425536936511678E-5</v>
+        <v>1.3785274083684719E-5</v>
       </c>
       <c r="AA20">
-        <v>8.2605617181968373E-5</v>
+        <v>5.6762893285760618E-5</v>
       </c>
       <c r="AB20">
-        <v>2.3247580835496811E-4</v>
+        <v>2.9273434965942262E-4</v>
       </c>
       <c r="AC20">
-        <v>4.366296908189757E-5</v>
+        <v>1.135257865715212E-5</v>
       </c>
       <c r="AD20">
-        <v>1.1800802454566909E-6</v>
+        <v>0</v>
       </c>
       <c r="AE20">
-        <v>1.471560066084494E-3</v>
+        <v>9.1226078494972428E-4</v>
       </c>
       <c r="AF20">
-        <v>4.7321217842813309E-4</v>
+        <v>8.9604281543950693E-4</v>
       </c>
       <c r="AG20">
-        <v>2.3601604909133818E-6</v>
+        <v>1.621796951021732E-6</v>
       </c>
       <c r="AH20">
-        <v>1.4987019117299979E-4</v>
+        <v>1.8488485241647751E-4</v>
       </c>
       <c r="AI20">
-        <v>8.4493745574699074E-4</v>
+        <v>9.8199805384365868E-4</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -2623,106 +2623,106 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.684682558413972E-3</v>
+        <v>3.594712941939669E-3</v>
       </c>
       <c r="C21">
-        <v>1.8267642199669581E-3</v>
+        <v>1.858579305870905E-3</v>
       </c>
       <c r="D21">
-        <v>9.2046259145621905E-5</v>
+        <v>5.4330197859228022E-5</v>
       </c>
       <c r="E21">
-        <v>1.1777200849657781E-3</v>
+        <v>1.2463509568602009E-3</v>
       </c>
       <c r="F21">
-        <v>3.5402407363700732E-5</v>
+        <v>1.7839766461239051E-5</v>
       </c>
       <c r="G21">
-        <v>1.593108331366533E-4</v>
+        <v>1.710995783327927E-4</v>
       </c>
       <c r="H21">
-        <v>2.7023837620958231E-3</v>
+        <v>3.750405449237756E-3</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>6.527732727862472E-4</v>
       </c>
       <c r="J21">
-        <v>5.9004012272834551E-6</v>
+        <v>1.7839766461239051E-5</v>
       </c>
       <c r="K21">
-        <v>8.2605617181968373E-6</v>
+        <v>9.7307817061303918E-6</v>
       </c>
       <c r="L21">
-        <v>2.0332782629218791E-3</v>
+        <v>1.290139474537788E-3</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>5.1368893084729758E-3</v>
+        <v>3.2452156989944861E-3</v>
       </c>
       <c r="O21">
-        <v>2.1689874911493979E-3</v>
+        <v>2.882744080441129E-3</v>
       </c>
       <c r="P21">
-        <v>6.9034694359216425E-4</v>
+        <v>1.183100875770353E-3</v>
       </c>
       <c r="Q21">
-        <v>9.6884588151994338E-4</v>
+        <v>9.0982808952319171E-4</v>
       </c>
       <c r="R21">
-        <v>3.065848477696483E-3</v>
+        <v>2.4497242945183259E-3</v>
       </c>
       <c r="S21">
-        <v>1.7618598064668401E-3</v>
+        <v>1.673694453454428E-3</v>
       </c>
       <c r="T21">
-        <v>3.4930375265518061E-4</v>
+        <v>1.27311060655206E-4</v>
       </c>
       <c r="U21">
-        <v>1.397215010620722E-3</v>
+        <v>7.152124554005839E-4</v>
       </c>
       <c r="V21">
-        <v>1.201675713948549E-2</v>
+        <v>9.704022056438534E-3</v>
       </c>
       <c r="W21">
-        <v>7.5407127684682556E-4</v>
+        <v>5.5789815115147581E-4</v>
       </c>
       <c r="X21">
-        <v>3.658248760915742E-5</v>
+        <v>3.2435939020434641E-6</v>
       </c>
       <c r="Y21">
-        <v>1.9353316025489729E-4</v>
+        <v>1.8893934479403179E-4</v>
       </c>
       <c r="Z21">
-        <v>8.1425536936511678E-5</v>
+        <v>3.7301329873499841E-5</v>
       </c>
       <c r="AA21">
-        <v>2.8911966013688928E-4</v>
+        <v>4.1680181641258522E-4</v>
       </c>
       <c r="AB21">
-        <v>8.4965777672881749E-5</v>
+        <v>1.15147583522543E-4</v>
       </c>
       <c r="AC21">
         <v>0</v>
       </c>
       <c r="AD21">
-        <v>3.5402407363700732E-5</v>
+        <v>1.6217969510217321E-5</v>
       </c>
       <c r="AE21">
-        <v>4.3190936983714888E-4</v>
+        <v>1.9948102497567311E-4</v>
       </c>
       <c r="AF21">
-        <v>2.7000236016049089E-3</v>
+        <v>3.253324683749594E-3</v>
       </c>
       <c r="AG21">
-        <v>3.5402407363700729E-6</v>
+        <v>0</v>
       </c>
       <c r="AH21">
-        <v>2.0297380221855079E-4</v>
+        <v>2.2786247161855341E-4</v>
       </c>
       <c r="AI21">
-        <v>3.3278262921878688E-3</v>
+        <v>3.7471618553357121E-3</v>
       </c>
     </row>
     <row r="22" spans="1:35">
@@ -2730,106 +2730,106 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.6860986547085214E-3</v>
+        <v>5.754946480700616E-3</v>
       </c>
       <c r="C22">
-        <v>6.4503186216662732E-3</v>
+        <v>5.8263055465455722E-3</v>
       </c>
       <c r="D22">
-        <v>2.59617654000472E-5</v>
+        <v>8.1089847551086604E-6</v>
       </c>
       <c r="E22">
-        <v>2.978522539532688E-3</v>
+        <v>2.1926694777813821E-3</v>
       </c>
       <c r="F22">
-        <v>7.0804814727401466E-6</v>
+        <v>1.216347713266299E-5</v>
       </c>
       <c r="G22">
-        <v>2.2657540712768469E-4</v>
+        <v>7.3791761271488812E-5</v>
       </c>
       <c r="H22">
-        <v>5.6938871843285341E-3</v>
+        <v>5.4954589685371393E-3</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>3.5402407363700729E-6</v>
+        <v>8.1089847551086602E-7</v>
       </c>
       <c r="K22">
-        <v>8.2605617181968373E-6</v>
+        <v>6.4871878040869282E-6</v>
       </c>
       <c r="L22">
-        <v>3.9343875383526083E-3</v>
+        <v>3.6393123580927668E-3</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>5.7587915978286528E-4</v>
+        <v>3.3409017191047679E-4</v>
       </c>
       <c r="O22">
-        <v>1.8881283927307059E-4</v>
+        <v>2.5218942588387932E-4</v>
       </c>
       <c r="P22">
-        <v>4.1302808590984193E-5</v>
+        <v>1.4596172559195589E-5</v>
       </c>
       <c r="Q22">
-        <v>1.5282039178664149E-3</v>
+        <v>8.6928316574764835E-4</v>
       </c>
       <c r="R22">
-        <v>9.4949256549445357E-3</v>
+        <v>1.451589361012001E-2</v>
       </c>
       <c r="S22">
-        <v>1.3806938871843279E-4</v>
+        <v>8.6766136879662663E-5</v>
       </c>
       <c r="T22">
-        <v>3.4989379277790889E-3</v>
+        <v>2.3751216347713271E-3</v>
       </c>
       <c r="U22">
-        <v>1.1505782393202741E-3</v>
+        <v>1.100389231268245E-3</v>
       </c>
       <c r="V22">
-        <v>8.1425536936511678E-5</v>
+        <v>5.6762893285760618E-5</v>
       </c>
       <c r="W22">
-        <v>2.0497993863582719E-3</v>
+        <v>1.3898799870256241E-3</v>
       </c>
       <c r="X22">
-        <v>1.180080245456691E-5</v>
+        <v>3.2435939020434641E-6</v>
       </c>
       <c r="Y22">
-        <v>1.8881283927307061E-5</v>
+        <v>6.4871878040869282E-6</v>
       </c>
       <c r="Z22">
-        <v>8.9686098654708516E-5</v>
+        <v>5.1086603957184562E-5</v>
       </c>
       <c r="AA22">
-        <v>1.168279443002124E-4</v>
+        <v>2.6921829386960752E-4</v>
       </c>
       <c r="AB22">
-        <v>1.062072220911022E-5</v>
+        <v>9.7307817061303918E-6</v>
       </c>
       <c r="AC22">
-        <v>2.7141845645503898E-5</v>
+        <v>2.108336036328252E-5</v>
       </c>
       <c r="AD22">
-        <v>1.416096294548029E-5</v>
+        <v>1.3785274083684719E-5</v>
       </c>
       <c r="AE22">
-        <v>1.46919990559358E-3</v>
+        <v>1.1482322413233861E-3</v>
       </c>
       <c r="AF22">
-        <v>3.9485485012980886E-3</v>
+        <v>6.4936749918910151E-3</v>
       </c>
       <c r="AG22">
-        <v>3.5402407363700729E-6</v>
+        <v>8.1089847551086602E-7</v>
       </c>
       <c r="AH22">
-        <v>1.4514987019117299E-4</v>
+        <v>3.9734025300032437E-5</v>
       </c>
       <c r="AI22">
-        <v>5.1451498701911725E-4</v>
+        <v>4.5896853713915019E-4</v>
       </c>
     </row>
     <row r="23" spans="1:35">
@@ -2837,88 +2837,88 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.4389898513098889E-3</v>
+        <v>6.2495945507622446E-3</v>
       </c>
       <c r="C23">
-        <v>1.215482652820392E-4</v>
+        <v>3.6490431397988971E-5</v>
       </c>
       <c r="D23">
-        <v>1.0962945480292659E-3</v>
+        <v>4.8491728835549792E-4</v>
       </c>
       <c r="E23">
-        <v>4.4253009204625908E-4</v>
+        <v>6.6818034382095358E-4</v>
       </c>
       <c r="F23">
-        <v>7.0922822751947137E-4</v>
+        <v>1.4101524489133961E-3</v>
       </c>
       <c r="G23">
-        <v>1.6167099362756671E-3</v>
+        <v>1.6331495296788841E-3</v>
       </c>
       <c r="H23">
-        <v>2.9502006136417281E-4</v>
+        <v>1.646123905287058E-4</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.184800566438518E-3</v>
+        <v>1.594226402854363E-3</v>
       </c>
       <c r="K23">
-        <v>4.5197073400991269E-4</v>
+        <v>2.6354200454103152E-4</v>
       </c>
       <c r="L23">
-        <v>5.5463771536464478E-5</v>
+        <v>1.297437560817386E-5</v>
       </c>
       <c r="M23">
-        <v>1.038470616001888E-4</v>
+        <v>1.5163801492053199E-4</v>
       </c>
       <c r="N23">
-        <v>9.7002596176540008E-4</v>
+        <v>5.5465455724943238E-4</v>
       </c>
       <c r="O23">
-        <v>1.8928487137125319E-3</v>
+        <v>1.03957184560493E-3</v>
       </c>
       <c r="P23">
-        <v>9.1338210998347883E-4</v>
+        <v>1.2779759974051251E-3</v>
       </c>
       <c r="Q23">
-        <v>4.7557233891904648E-4</v>
+        <v>1.8731754784300999E-4</v>
       </c>
       <c r="R23">
-        <v>4.6023129572810953E-5</v>
+        <v>1.135257865715212E-5</v>
       </c>
       <c r="S23">
-        <v>8.331366532924239E-4</v>
+        <v>5.3194939993512808E-4</v>
       </c>
       <c r="T23">
-        <v>1.0809535048383291E-3</v>
+        <v>4.605903340901719E-4</v>
       </c>
       <c r="U23">
-        <v>1.3334906773660609E-3</v>
+        <v>9.2361336360687637E-4</v>
       </c>
       <c r="V23">
-        <v>1.3028085909841871E-3</v>
+        <v>1.532598118715537E-3</v>
       </c>
       <c r="W23">
-        <v>2.59617654000472E-5</v>
+        <v>8.1089847551086602E-7</v>
       </c>
       <c r="X23">
-        <v>3.1862166627330661E-5</v>
+        <v>2.432695426532598E-6</v>
       </c>
       <c r="Y23">
-        <v>4.9327354260089685E-4</v>
+        <v>3.2030489782679212E-4</v>
       </c>
       <c r="Z23">
-        <v>2.1241444418220441E-5</v>
+        <v>4.0544923775543302E-6</v>
       </c>
       <c r="AA23">
-        <v>9.1220202973802214E-4</v>
+        <v>7.890042166720727E-4</v>
       </c>
       <c r="AB23">
-        <v>6.1836204861930608E-4</v>
+        <v>5.4816736944534542E-4</v>
       </c>
       <c r="AC23">
-        <v>2.2185508614585791E-4</v>
+        <v>2.4732403503081412E-4</v>
       </c>
       <c r="AD23">
         <v>0</v>
@@ -2930,13 +2930,13 @@
         <v>0</v>
       </c>
       <c r="AG23">
-        <v>2.832192589096059E-5</v>
+        <v>1.297437560817386E-5</v>
       </c>
       <c r="AH23">
-        <v>1.072692943120132E-3</v>
+        <v>7.2980862795977942E-4</v>
       </c>
       <c r="AI23">
-        <v>8.9686098654708516E-5</v>
+        <v>2.5948751216347709E-5</v>
       </c>
     </row>
     <row r="24" spans="1:35">
@@ -2944,10 +2944,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.2046259145621905E-5</v>
+        <v>2.270515731430425E-5</v>
       </c>
       <c r="C24">
-        <v>2.9502006136417281E-4</v>
+        <v>2.1083360363282521E-4</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.2128864762803868E-4</v>
+        <v>3.1219591307168339E-4</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -2971,46 +2971,46 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>3.5402407363700729E-6</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>4.0948784517347178E-4</v>
+        <v>4.5167045085955237E-4</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2.3601604909133818E-6</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>7.5525135709228231E-5</v>
+        <v>1.135257865715212E-5</v>
       </c>
       <c r="P24">
-        <v>8.2605617181968373E-6</v>
+        <v>3.2435939020434641E-6</v>
       </c>
       <c r="Q24">
-        <v>8.2605617181968373E-6</v>
+        <v>1.297437560817386E-5</v>
       </c>
       <c r="R24">
-        <v>4.0358744394618842E-4</v>
+        <v>8.2711644502108341E-5</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>1.9471324050035401E-4</v>
+        <v>8.6766136879662663E-5</v>
       </c>
       <c r="U24">
-        <v>3.5402407363700732E-5</v>
+        <v>1.621796951021732E-6</v>
       </c>
       <c r="V24">
-        <v>2.1241444418220441E-5</v>
+        <v>1.4596172559195589E-5</v>
       </c>
       <c r="W24">
-        <v>8.6145857918338444E-5</v>
+        <v>5.3519299383717158E-5</v>
       </c>
       <c r="X24">
-        <v>1.770120368185037E-5</v>
+        <v>1.297437560817386E-5</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -3022,7 +3022,7 @@
         <v>0</v>
       </c>
       <c r="AB24">
-        <v>1.1800802454566909E-6</v>
+        <v>0</v>
       </c>
       <c r="AC24">
         <v>0</v>
@@ -3031,19 +3031,19 @@
         <v>0</v>
       </c>
       <c r="AE24">
-        <v>1.6521123436393671E-5</v>
+        <v>3.2435939020434641E-6</v>
       </c>
       <c r="AF24">
-        <v>2.0061364172763749E-5</v>
+        <v>2.4083684722672719E-4</v>
       </c>
       <c r="AG24">
-        <v>1.1800802454566909E-6</v>
+        <v>0</v>
       </c>
       <c r="AH24">
-        <v>4.7203209818267636E-6</v>
+        <v>0</v>
       </c>
       <c r="AI24">
-        <v>0</v>
+        <v>8.1089847551086602E-7</v>
       </c>
     </row>
     <row r="25" spans="1:35">
@@ -3051,91 +3051,91 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.5166391314609391E-3</v>
+        <v>2.6078494972429449E-3</v>
       </c>
       <c r="C25">
-        <v>7.1276846825584135E-4</v>
+        <v>4.1112552708400912E-4</v>
       </c>
       <c r="D25">
-        <v>3.5402407363700729E-6</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>1.5223035166391321E-4</v>
+        <v>1.9542653259811869E-4</v>
       </c>
       <c r="F25">
-        <v>9.4406419636535288E-6</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>7.0804814727401466E-6</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>9.3226339391078587E-5</v>
+        <v>6.811547194291275E-5</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>2.3601604909133818E-6</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>1.1800802454566909E-6</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>3.3160254897333019E-4</v>
+        <v>1.1271488809601041E-4</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.29808827000236E-5</v>
+        <v>3.2435939020434641E-6</v>
       </c>
       <c r="O25">
-        <v>1.534104319093698E-4</v>
+        <v>7.5413558222510538E-5</v>
       </c>
       <c r="P25">
-        <v>1.416096294548029E-4</v>
+        <v>6.3250081089847557E-5</v>
       </c>
       <c r="Q25">
-        <v>2.2303516639131461E-4</v>
+        <v>1.256892637041842E-4</v>
       </c>
       <c r="R25">
-        <v>2.10054283691291E-3</v>
+        <v>2.1861822899772948E-3</v>
       </c>
       <c r="S25">
-        <v>8.2605617181968373E-6</v>
+        <v>1.621796951021732E-6</v>
       </c>
       <c r="T25">
-        <v>1.5105027141845649E-4</v>
+        <v>6.4871878040869283E-5</v>
       </c>
       <c r="U25">
-        <v>7.0804814727401465E-5</v>
+        <v>3.7301329873499841E-5</v>
       </c>
       <c r="V25">
-        <v>6.0184092518291238E-5</v>
+        <v>1.865066493674992E-5</v>
       </c>
       <c r="W25">
-        <v>2.1241444418220441E-4</v>
+        <v>8.5955238404151807E-5</v>
       </c>
       <c r="X25">
-        <v>1.1800802454566909E-6</v>
+        <v>0</v>
       </c>
       <c r="Y25">
-        <v>3.5402407363700729E-6</v>
+        <v>8.1089847551086602E-7</v>
       </c>
       <c r="Z25">
-        <v>1.1800802454566909E-6</v>
+        <v>0</v>
       </c>
       <c r="AA25">
-        <v>1.1800802454566909E-6</v>
+        <v>0</v>
       </c>
       <c r="AB25">
-        <v>1.180080245456691E-5</v>
+        <v>4.0544923775543302E-6</v>
       </c>
       <c r="AC25">
         <v>0</v>
       </c>
       <c r="AD25">
-        <v>1.1800802454566909E-6</v>
+        <v>0</v>
       </c>
       <c r="AE25">
         <v>0</v>
@@ -3144,7 +3144,7 @@
         <v>0</v>
       </c>
       <c r="AG25">
-        <v>8.2605617181968373E-6</v>
+        <v>8.1089847551086602E-7</v>
       </c>
       <c r="AH25">
         <v>0</v>
@@ -3158,25 +3158,25 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>4.4843049327354261E-4</v>
+        <v>4.200454103146286E-4</v>
       </c>
       <c r="C26">
-        <v>8.2251593108331365E-4</v>
+        <v>5.8790139474537793E-4</v>
       </c>
       <c r="D26">
-        <v>1.1800802454566909E-6</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>1.534104319093698E-4</v>
+        <v>2.027246188777165E-5</v>
       </c>
       <c r="F26">
-        <v>2.3601604909133818E-6</v>
+        <v>0</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>9.8182676421996692E-4</v>
+        <v>6.5601686668829062E-4</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -3188,55 +3188,55 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <v>1.240264337974982E-3</v>
+        <v>1.2163477132662989E-4</v>
       </c>
       <c r="M26">
         <v>0</v>
       </c>
       <c r="N26">
-        <v>2.737786169459523E-4</v>
+        <v>6.730457346740188E-5</v>
       </c>
       <c r="O26">
         <v>0</v>
       </c>
       <c r="P26">
-        <v>7.0804814727401466E-6</v>
+        <v>3.2435939020434641E-6</v>
       </c>
       <c r="Q26">
         <v>0</v>
       </c>
       <c r="R26">
-        <v>1.6757139485485011E-4</v>
+        <v>2.0272461887771651E-4</v>
       </c>
       <c r="S26">
-        <v>1.1800802454566909E-6</v>
+        <v>8.1089847551086602E-7</v>
       </c>
       <c r="T26">
         <v>0</v>
       </c>
       <c r="U26">
-        <v>4.7203209818267636E-6</v>
+        <v>0</v>
       </c>
       <c r="V26">
-        <v>0</v>
+        <v>3.2435939020434641E-6</v>
       </c>
       <c r="W26">
-        <v>2.4663677130044842E-4</v>
+        <v>1.3704184236133641E-4</v>
       </c>
       <c r="X26">
-        <v>1.1800802454566909E-6</v>
+        <v>0</v>
       </c>
       <c r="Y26">
-        <v>1.1800802454566909E-6</v>
+        <v>0</v>
       </c>
       <c r="Z26">
-        <v>2.3601604909133818E-6</v>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <v>1.1800802454566909E-6</v>
+        <v>8.1089847551086602E-7</v>
       </c>
       <c r="AB26">
-        <v>1.1800802454566909E-6</v>
+        <v>0</v>
       </c>
       <c r="AC26">
         <v>0</v>
@@ -3245,13 +3245,13 @@
         <v>0</v>
       </c>
       <c r="AE26">
-        <v>2.5961765400047201E-4</v>
+        <v>1.9380473564709701E-4</v>
       </c>
       <c r="AF26">
         <v>0</v>
       </c>
       <c r="AG26">
-        <v>0</v>
+        <v>8.1089847551086602E-7</v>
       </c>
       <c r="AH26">
         <v>0</v>
@@ -3265,70 +3265,70 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>8.6145857918338447E-4</v>
+        <v>4.7194291274732411E-4</v>
       </c>
       <c r="C27">
-        <v>2.1312249232947841E-3</v>
+        <v>2.78057087252676E-3</v>
       </c>
       <c r="D27">
-        <v>3.5402407363700729E-6</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>1.062072220911022E-5</v>
+        <v>1.621796951021732E-6</v>
       </c>
       <c r="F27">
-        <v>3.5402407363700729E-6</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>1.1800802454566909E-6</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>3.336086853906065E-3</v>
+        <v>3.957184560493026E-3</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>8.1089847551086602E-7</v>
       </c>
       <c r="J27">
-        <v>2.3601604909133818E-6</v>
+        <v>0</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
-        <v>1.6403115411848009E-3</v>
+        <v>1.630716834252352E-3</v>
       </c>
       <c r="M27">
         <v>0</v>
       </c>
       <c r="N27">
-        <v>5.9830068444654237E-4</v>
+        <v>2.3678235484917291E-4</v>
       </c>
       <c r="O27">
-        <v>6.7264573991031393E-5</v>
+        <v>3.3246837495945498E-5</v>
       </c>
       <c r="P27">
-        <v>2.3601604909133818E-6</v>
+        <v>8.1089847551086602E-7</v>
       </c>
       <c r="Q27">
-        <v>9.3698371489261273E-4</v>
+        <v>8.5063250081089843E-4</v>
       </c>
       <c r="R27">
-        <v>8.8506018409251834E-5</v>
+        <v>7.0548167369445346E-5</v>
       </c>
       <c r="S27">
-        <v>2.3601604909133818E-6</v>
+        <v>0</v>
       </c>
       <c r="T27">
-        <v>8.1425536936511678E-5</v>
+        <v>2.9759974051248782E-4</v>
       </c>
       <c r="U27">
-        <v>1.29808827000236E-5</v>
+        <v>2.432695426532598E-6</v>
       </c>
       <c r="V27">
-        <v>1.6119896152938401E-3</v>
+        <v>4.5945507622445671E-3</v>
       </c>
       <c r="W27">
-        <v>4.4843049327354261E-4</v>
+        <v>6.527732727862472E-4</v>
       </c>
       <c r="X27">
         <v>0</v>
@@ -3340,10 +3340,10 @@
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>7.0804814727401466E-6</v>
+        <v>8.1089847551086602E-7</v>
       </c>
       <c r="AB27">
-        <v>6.7264573991031393E-5</v>
+        <v>1.4028543626337981E-4</v>
       </c>
       <c r="AC27">
         <v>0</v>
@@ -3355,10 +3355,10 @@
         <v>0</v>
       </c>
       <c r="AF27">
-        <v>2.5961765400047201E-4</v>
+        <v>1.9542653259811869E-4</v>
       </c>
       <c r="AG27">
-        <v>2.3601604909133818E-6</v>
+        <v>0</v>
       </c>
       <c r="AH27">
         <v>0</v>
@@ -3372,16 +3372,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>7.9065376445598302E-5</v>
+        <v>8.6766136879662663E-5</v>
       </c>
       <c r="C28">
-        <v>1.0691527023837619E-3</v>
+        <v>8.5955238404151796E-4</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>3.1862166627330661E-5</v>
+        <v>5.9195588712293221E-5</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>1.9848949728581539E-3</v>
+        <v>2.0904962698670131E-3</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -3402,49 +3402,49 @@
         <v>0</v>
       </c>
       <c r="L28">
-        <v>1.6155298560302099E-3</v>
+        <v>1.373662017515407E-3</v>
       </c>
       <c r="M28">
         <v>0</v>
       </c>
       <c r="N28">
-        <v>4.5315081425536938E-4</v>
+        <v>5.0600064871878046E-4</v>
       </c>
       <c r="O28">
-        <v>4.8619306112815668E-4</v>
+        <v>5.0032435939020435E-4</v>
       </c>
       <c r="P28">
-        <v>1.29808827000236E-5</v>
+        <v>1.5407071034706451E-5</v>
       </c>
       <c r="Q28">
-        <v>3.6700495633703093E-4</v>
+        <v>3.4706454751865071E-4</v>
       </c>
       <c r="R28">
-        <v>2.7849893792777908E-4</v>
+        <v>2.1975348686344471E-4</v>
       </c>
       <c r="S28">
-        <v>2.9502006136417271E-5</v>
+        <v>1.135257865715212E-5</v>
       </c>
       <c r="T28">
-        <v>3.5402407363700729E-6</v>
+        <v>1.054168018164126E-5</v>
       </c>
       <c r="U28">
-        <v>1.1800802454566909E-6</v>
+        <v>0</v>
       </c>
       <c r="V28">
-        <v>1.5105027141845649E-4</v>
+        <v>2.5137852740836849E-5</v>
       </c>
       <c r="W28">
-        <v>3.3278262921878688E-4</v>
+        <v>2.6110930911449879E-4</v>
       </c>
       <c r="X28">
         <v>0</v>
       </c>
       <c r="Y28">
-        <v>7.0804814727401466E-6</v>
+        <v>0</v>
       </c>
       <c r="Z28">
-        <v>1.1800802454566909E-6</v>
+        <v>0</v>
       </c>
       <c r="AA28">
         <v>0</v>
@@ -3462,13 +3462,13 @@
         <v>0</v>
       </c>
       <c r="AF28">
-        <v>2.0651404295492091E-4</v>
+        <v>4.4031787220240028E-4</v>
       </c>
       <c r="AG28">
         <v>0</v>
       </c>
       <c r="AH28">
-        <v>4.7203209818267636E-6</v>
+        <v>8.1089847551086602E-7</v>
       </c>
       <c r="AI28">
         <v>0</v>
@@ -3479,25 +3479,25 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>9.7946660372905353E-5</v>
+        <v>7.4602659746999682E-5</v>
       </c>
       <c r="C29">
-        <v>4.2600896860986551E-4</v>
+        <v>2.8786895880635738E-4</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>2.3601604909133818E-6</v>
+        <v>0</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>1.1800802454566909E-6</v>
+        <v>8.1089847551086602E-7</v>
       </c>
       <c r="H29">
-        <v>1.247344819447722E-3</v>
+        <v>1.44177748945832E-3</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -3509,7 +3509,7 @@
         <v>0</v>
       </c>
       <c r="L29">
-        <v>8.2959641255605382E-4</v>
+        <v>4.6869931884528057E-4</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -3524,16 +3524,16 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>5.6643851781921173E-5</v>
+        <v>4.8653908530651959E-5</v>
       </c>
       <c r="R29">
-        <v>1.1800802454566909E-6</v>
+        <v>1.621796951021732E-6</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>3.5402407363700729E-6</v>
+        <v>4.0544923775543302E-6</v>
       </c>
       <c r="U29">
         <v>0</v>
@@ -3542,13 +3542,13 @@
         <v>0</v>
       </c>
       <c r="W29">
-        <v>1.1328770356384231E-4</v>
+        <v>1.070385987674343E-4</v>
       </c>
       <c r="X29">
         <v>0</v>
       </c>
       <c r="Y29">
-        <v>1.1800802454566909E-6</v>
+        <v>0</v>
       </c>
       <c r="Z29">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="AF29">
-        <v>3.3042246872787349E-5</v>
+        <v>1.7028867985728191E-5</v>
       </c>
       <c r="AG29">
         <v>0</v>
@@ -3586,13 +3586,13 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5.9004012272834551E-6</v>
+        <v>0</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30">
-        <v>1.1800802454566909E-6</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -3604,7 +3604,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>1.321689874911494E-4</v>
+        <v>4.7843010055141103E-5</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -3631,19 +3631,19 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>2.3601604909133818E-6</v>
+        <v>0</v>
       </c>
       <c r="R30">
         <v>0</v>
       </c>
       <c r="S30">
-        <v>1.1800802454566909E-6</v>
+        <v>0</v>
       </c>
       <c r="T30">
         <v>0</v>
       </c>
       <c r="U30">
-        <v>1.1800802454566909E-6</v>
+        <v>0</v>
       </c>
       <c r="V30">
         <v>0</v>
@@ -3682,10 +3682,10 @@
         <v>0</v>
       </c>
       <c r="AH30">
-        <v>9.4406419636535288E-6</v>
+        <v>1.621796951021732E-6</v>
       </c>
       <c r="AI30">
-        <v>1.097474628274723E-4</v>
+        <v>1.9948102497567311E-4</v>
       </c>
     </row>
     <row r="31" spans="1:35">
@@ -3693,88 +3693,88 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>4.3190936983714904E-3</v>
+        <v>4.5304897826792083E-3</v>
       </c>
       <c r="C31">
-        <v>3.5402407363700729E-6</v>
+        <v>1.621796951021732E-6</v>
       </c>
       <c r="D31">
-        <v>1.5105027141845649E-4</v>
+        <v>1.4028543626337981E-4</v>
       </c>
       <c r="E31">
-        <v>9.4642435685626618E-4</v>
+        <v>7.6143366850470325E-4</v>
       </c>
       <c r="F31">
-        <v>1.4632995043662971E-4</v>
+        <v>8.0278949075575744E-5</v>
       </c>
       <c r="G31">
-        <v>1.2508850601840931E-4</v>
+        <v>1.710995783327927E-4</v>
       </c>
       <c r="H31">
-        <v>1.3948548501298091E-3</v>
+        <v>5.6276354200454105E-4</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>3.658248760915742E-5</v>
+        <v>1.6217969510217321E-5</v>
       </c>
       <c r="K31">
-        <v>7.0804814727401465E-5</v>
+        <v>4.2166720726565027E-5</v>
       </c>
       <c r="L31">
-        <v>6.2544253009204627E-5</v>
+        <v>1.297437560817386E-5</v>
       </c>
       <c r="M31">
-        <v>1.9778144913854142E-3</v>
+        <v>1.28284138825819E-3</v>
       </c>
       <c r="N31">
-        <v>2.2303516639131461E-4</v>
+        <v>2.165098929614012E-4</v>
       </c>
       <c r="O31">
-        <v>1.8220438989851311E-3</v>
+        <v>1.879662666234187E-3</v>
       </c>
       <c r="P31">
-        <v>1.4585791833844699E-3</v>
+        <v>9.5037301329873496E-4</v>
       </c>
       <c r="Q31">
-        <v>2.360160490913382E-4</v>
+        <v>2.7084009082062918E-4</v>
       </c>
       <c r="R31">
-        <v>7.0804814727401466E-6</v>
+        <v>4.8653908530651959E-6</v>
       </c>
       <c r="S31">
-        <v>2.3129572810951139E-4</v>
+        <v>7.0548167369445346E-5</v>
       </c>
       <c r="T31">
-        <v>2.2067500590040119E-4</v>
+        <v>2.0029192345118391E-4</v>
       </c>
       <c r="U31">
-        <v>6.2308236960113286E-4</v>
+        <v>7.3143042491080113E-4</v>
       </c>
       <c r="V31">
-        <v>5.3457635119188106E-4</v>
+        <v>8.7414855660071359E-4</v>
       </c>
       <c r="W31">
-        <v>4.7203209818267636E-6</v>
+        <v>2.432695426532598E-6</v>
       </c>
       <c r="X31">
         <v>0</v>
       </c>
       <c r="Y31">
-        <v>1.2980882700023601E-3</v>
+        <v>7.5575737917612715E-4</v>
       </c>
       <c r="Z31">
-        <v>7.0804814727401466E-6</v>
+        <v>3.2435939020434642E-5</v>
       </c>
       <c r="AA31">
-        <v>1.7347179608213361E-4</v>
+        <v>3.0976321764515083E-4</v>
       </c>
       <c r="AB31">
-        <v>4.2954920934623549E-4</v>
+        <v>4.3869607525137851E-4</v>
       </c>
       <c r="AC31">
-        <v>1.180080245456691E-5</v>
+        <v>1.094712941939669E-4</v>
       </c>
       <c r="AD31">
         <v>0</v>
@@ -3786,13 +3786,13 @@
         <v>0</v>
       </c>
       <c r="AG31">
-        <v>2.3601604909133818E-6</v>
+        <v>1.621796951021732E-6</v>
       </c>
       <c r="AH31">
         <v>0</v>
       </c>
       <c r="AI31">
-        <v>1.416096294548029E-5</v>
+        <v>3.2435939020434641E-6</v>
       </c>
     </row>
     <row r="32" spans="1:35">
@@ -3800,88 +3800,88 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>7.4097238612225629E-3</v>
+        <v>1.2363769056114171E-2</v>
       </c>
       <c r="C32">
-        <v>8.2605617181968373E-6</v>
+        <v>2.432695426532598E-6</v>
       </c>
       <c r="D32">
-        <v>8.7325938163795139E-5</v>
+        <v>1.183911774245864E-4</v>
       </c>
       <c r="E32">
-        <v>6.1364172763747932E-5</v>
+        <v>3.3246837495945498E-5</v>
       </c>
       <c r="F32">
-        <v>1.6403115411848011E-4</v>
+        <v>8.2711644502108341E-5</v>
       </c>
       <c r="G32">
-        <v>1.7465187632759031E-4</v>
+        <v>4.7032111579630233E-5</v>
       </c>
       <c r="H32">
-        <v>5.9594052395562898E-4</v>
+        <v>6.1385014596172555E-4</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>1.1800802454566909E-6</v>
+        <v>0</v>
       </c>
       <c r="K32">
-        <v>1.309889072456927E-4</v>
+        <v>1.078494972429452E-4</v>
       </c>
       <c r="L32">
-        <v>9.9126740618362048E-5</v>
+        <v>1.3217645150827119E-4</v>
       </c>
       <c r="M32">
         <v>0</v>
       </c>
       <c r="N32">
-        <v>7.4463063488317211E-4</v>
+        <v>1.2131041193642559E-3</v>
       </c>
       <c r="O32">
-        <v>3.5402407363700729E-6</v>
+        <v>1.621796951021732E-6</v>
       </c>
       <c r="P32">
-        <v>2.4545669105499168E-4</v>
+        <v>3.0003243593902039E-4</v>
       </c>
       <c r="Q32">
-        <v>1.5942884116119901E-3</v>
+        <v>1.32014271813169E-3</v>
       </c>
       <c r="R32">
-        <v>6.962473448194477E-5</v>
+        <v>1.054168018164126E-5</v>
       </c>
       <c r="S32">
-        <v>4.1302808590984193E-5</v>
+        <v>5.6762893285760616E-6</v>
       </c>
       <c r="T32">
-        <v>7.0804814727401466E-6</v>
+        <v>1.621796951021732E-6</v>
       </c>
       <c r="U32">
-        <v>7.222091102194949E-4</v>
+        <v>8.9279922153746351E-4</v>
       </c>
       <c r="V32">
-        <v>1.6757139485485011E-4</v>
+        <v>2.2948426856957509E-4</v>
       </c>
       <c r="W32">
-        <v>4.7203209818267636E-6</v>
+        <v>8.1089847551086602E-7</v>
       </c>
       <c r="X32">
-        <v>5.428369129100779E-5</v>
+        <v>5.6762893285760616E-6</v>
       </c>
       <c r="Y32">
-        <v>4.0122728345527498E-5</v>
+        <v>0</v>
       </c>
       <c r="Z32">
-        <v>9.3226339391078587E-5</v>
+        <v>5.1897502432695432E-5</v>
       </c>
       <c r="AA32">
-        <v>6.962473448194477E-5</v>
+        <v>8.1900746026597471E-5</v>
       </c>
       <c r="AB32">
-        <v>4.8501298088269998E-4</v>
+        <v>4.1112552708400912E-4</v>
       </c>
       <c r="AC32">
-        <v>2.1241444418220441E-5</v>
+        <v>5.6762893285760616E-6</v>
       </c>
       <c r="AD32">
         <v>0</v>
@@ -3893,13 +3893,13 @@
         <v>0</v>
       </c>
       <c r="AG32">
-        <v>7.0804814727401466E-6</v>
+        <v>6.4871878040869282E-6</v>
       </c>
       <c r="AH32">
-        <v>3.835260797734246E-4</v>
+        <v>3.3246837495945508E-4</v>
       </c>
       <c r="AI32">
-        <v>6.5258437573755012E-4</v>
+        <v>4.0544923775543302E-4</v>
       </c>
     </row>
     <row r="33" spans="1:35">
@@ -3907,7 +3907,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1.180080245456691E-5</v>
+        <v>3.2435939020434641E-6</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -3916,13 +3916,13 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>4.7203209818267636E-6</v>
+        <v>3.2435939020434641E-6</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>1.054168018164126E-5</v>
       </c>
       <c r="G33">
-        <v>3.5402407363700729E-6</v>
+        <v>4.0544923775543302E-6</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -3934,49 +3934,49 @@
         <v>0</v>
       </c>
       <c r="K33">
-        <v>4.7203209818267636E-6</v>
+        <v>1.621796951021732E-6</v>
       </c>
       <c r="L33">
         <v>0</v>
       </c>
       <c r="M33">
-        <v>1.180080245456691E-5</v>
+        <v>5.6762893285760616E-6</v>
       </c>
       <c r="N33">
-        <v>1.262685862638659E-4</v>
+        <v>4.9464807006162829E-5</v>
       </c>
       <c r="O33">
-        <v>1.427897097002596E-4</v>
+        <v>1.054168018164126E-5</v>
       </c>
       <c r="P33">
-        <v>1.038470616001888E-4</v>
+        <v>5.6762893285760616E-6</v>
       </c>
       <c r="Q33">
-        <v>4.2482888836440868E-5</v>
+        <v>4.8653908530651959E-6</v>
       </c>
       <c r="R33">
-        <v>1.1800802454566909E-6</v>
+        <v>0</v>
       </c>
       <c r="S33">
-        <v>7.4345055463771536E-5</v>
+        <v>1.216347713266299E-5</v>
       </c>
       <c r="T33">
-        <v>4.7203209818267641E-5</v>
+        <v>0</v>
       </c>
       <c r="U33">
-        <v>6.962473448194477E-5</v>
+        <v>3.2435939020434641E-6</v>
       </c>
       <c r="V33">
-        <v>1.3582723625206511E-3</v>
+        <v>2.821926694777814E-3</v>
       </c>
       <c r="W33">
         <v>0</v>
       </c>
       <c r="X33">
-        <v>2.4781685154590509E-5</v>
+        <v>1.3785274083684719E-5</v>
       </c>
       <c r="Y33">
-        <v>1.416096294548029E-5</v>
+        <v>1.4596172559195589E-5</v>
       </c>
       <c r="Z33">
         <v>0</v>
@@ -3985,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="AB33">
-        <v>0</v>
+        <v>8.1089847551086604E-6</v>
       </c>
       <c r="AC33">
         <v>0</v>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="AG33">
-        <v>2.3601604909133818E-6</v>
+        <v>6.4871878040869282E-6</v>
       </c>
       <c r="AH33">
         <v>0</v>
@@ -4014,88 +4014,88 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>2.1949492565494452E-3</v>
+        <v>3.2362958157638659E-3</v>
       </c>
       <c r="C34">
-        <v>7.0804814727401466E-6</v>
+        <v>3.2435939020434641E-6</v>
       </c>
       <c r="D34">
-        <v>2.8675949964597589E-4</v>
+        <v>4.3058709049626989E-4</v>
       </c>
       <c r="E34">
-        <v>1.6521123436393671E-5</v>
+        <v>3.2435939020434641E-6</v>
       </c>
       <c r="F34">
-        <v>2.4781685154590509E-5</v>
+        <v>2.432695426532598E-6</v>
       </c>
       <c r="G34">
-        <v>2.525371725277319E-4</v>
+        <v>2.838144664288031E-4</v>
       </c>
       <c r="H34">
-        <v>1.1800802454566909E-6</v>
+        <v>8.1089847551086602E-7</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>4.4843049327354258E-5</v>
+        <v>1.4596172559195589E-5</v>
       </c>
       <c r="K34">
-        <v>1.3924946896388951E-4</v>
+        <v>6.4871878040869282E-6</v>
       </c>
       <c r="L34">
-        <v>1.062072220911022E-5</v>
+        <v>2.432695426532598E-6</v>
       </c>
       <c r="M34">
-        <v>1.180080245456691E-5</v>
+        <v>0</v>
       </c>
       <c r="N34">
-        <v>1.4042954920934621E-4</v>
+        <v>6.4871878040869282E-6</v>
       </c>
       <c r="O34">
-        <v>3.4222327118244037E-5</v>
+        <v>8.919883230619527E-6</v>
       </c>
       <c r="P34">
-        <v>8.6145857918338444E-5</v>
+        <v>2.189425883879338E-5</v>
       </c>
       <c r="Q34">
-        <v>8.9686098654708516E-5</v>
+        <v>4.135582225105417E-5</v>
       </c>
       <c r="R34">
-        <v>9.4406419636535288E-6</v>
+        <v>9.7307817061303918E-6</v>
       </c>
       <c r="S34">
-        <v>1.062072220911022E-5</v>
+        <v>3.2435939020434641E-6</v>
       </c>
       <c r="T34">
-        <v>8.9686098654708516E-5</v>
+        <v>5.0275705481673692E-5</v>
       </c>
       <c r="U34">
-        <v>1.3924946896388951E-4</v>
+        <v>1.9704832954914049E-4</v>
       </c>
       <c r="V34">
-        <v>3.9296672173707811E-4</v>
+        <v>3.0165423289004221E-4</v>
       </c>
       <c r="W34">
-        <v>2.3601604909133818E-6</v>
+        <v>8.1089847551086602E-7</v>
       </c>
       <c r="X34">
-        <v>0</v>
+        <v>8.1089847551086602E-7</v>
       </c>
       <c r="Y34">
-        <v>9.4406419636535288E-6</v>
+        <v>2.432695426532598E-6</v>
       </c>
       <c r="Z34">
-        <v>7.5525135709228231E-5</v>
+        <v>8.1089847551086602E-7</v>
       </c>
       <c r="AA34">
-        <v>1.593108331366533E-4</v>
+        <v>1.337982484592929E-4</v>
       </c>
       <c r="AB34">
-        <v>2.360160490913382E-5</v>
+        <v>2.270515731430425E-5</v>
       </c>
       <c r="AC34">
-        <v>4.2600896860986551E-4</v>
+        <v>1.702886798572819E-4</v>
       </c>
       <c r="AD34">
         <v>0</v>
@@ -4107,13 +4107,13 @@
         <v>0</v>
       </c>
       <c r="AG34">
-        <v>3.5402407363700729E-6</v>
+        <v>0</v>
       </c>
       <c r="AH34">
-        <v>3.0682086381873973E-5</v>
+        <v>2.8381446642880309E-5</v>
       </c>
       <c r="AI34">
-        <v>1.1800802454566909E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:35">
@@ -4121,88 +4121,88 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>8.5508614585791832E-3</v>
+        <v>1.215131365553033E-2</v>
       </c>
       <c r="C35">
-        <v>1.180080245456691E-5</v>
+        <v>8.1089847551086602E-7</v>
       </c>
       <c r="D35">
-        <v>1.168279443002124E-4</v>
+        <v>8.919883230619527E-6</v>
       </c>
       <c r="E35">
-        <v>3.0918102430965298E-4</v>
+        <v>2.6029841063898799E-4</v>
       </c>
       <c r="F35">
-        <v>1.2390842577295259E-4</v>
+        <v>5.5141096334738892E-5</v>
       </c>
       <c r="G35">
-        <v>3.7880575879159782E-4</v>
+        <v>5.0681154719429131E-4</v>
       </c>
       <c r="H35">
-        <v>9.3226339391078587E-5</v>
+        <v>9.9740512487836528E-5</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>1.486901109275431E-4</v>
+        <v>1.102821926694778E-4</v>
       </c>
       <c r="K35">
-        <v>2.40736370073165E-4</v>
+        <v>1.926694777813818E-3</v>
       </c>
       <c r="L35">
-        <v>5.1923530800094407E-5</v>
+        <v>1.054168018164126E-5</v>
       </c>
       <c r="M35">
-        <v>8.9686098654708516E-5</v>
+        <v>2.5137852740836849E-5</v>
       </c>
       <c r="N35">
-        <v>2.2657540712768469E-4</v>
+        <v>1.7677586766136881E-4</v>
       </c>
       <c r="O35">
-        <v>7.8593344347415621E-4</v>
+        <v>8.0522218618228993E-4</v>
       </c>
       <c r="P35">
-        <v>4.5433089450082608E-4</v>
+        <v>3.1868310087577041E-4</v>
       </c>
       <c r="Q35">
-        <v>8.5083785697427422E-4</v>
+        <v>5.4897826792085628E-4</v>
       </c>
       <c r="R35">
-        <v>2.4781685154590509E-5</v>
+        <v>1.297437560817386E-5</v>
       </c>
       <c r="S35">
-        <v>1.6757139485485011E-4</v>
+        <v>3.0003243593902039E-5</v>
       </c>
       <c r="T35">
-        <v>2.194949256549445E-4</v>
+        <v>3.4057735971456368E-5</v>
       </c>
       <c r="U35">
-        <v>5.3811659192825115E-4</v>
+        <v>5.3924748621472589E-4</v>
       </c>
       <c r="V35">
-        <v>1.316969553929667E-3</v>
+        <v>1.539896204995135E-3</v>
       </c>
       <c r="W35">
-        <v>3.5402407363700729E-6</v>
+        <v>0</v>
       </c>
       <c r="X35">
-        <v>5.9004012272834551E-6</v>
+        <v>0</v>
       </c>
       <c r="Y35">
-        <v>2.088742034458343E-4</v>
+        <v>1.3947453778786901E-4</v>
       </c>
       <c r="Z35">
-        <v>6.6084493745574699E-5</v>
+        <v>7.6224456698021408E-5</v>
       </c>
       <c r="AA35">
-        <v>1.6049091338210999E-4</v>
+        <v>1.7758676613687969E-4</v>
       </c>
       <c r="AB35">
-        <v>2.0061364172763749E-5</v>
+        <v>8.1089847551086604E-6</v>
       </c>
       <c r="AC35">
-        <v>2.25395326882228E-4</v>
+        <v>1.248783652286734E-4</v>
       </c>
       <c r="AD35">
         <v>0</v>
@@ -4214,13 +4214,13 @@
         <v>0</v>
       </c>
       <c r="AG35">
-        <v>2.3601604909133818E-6</v>
+        <v>8.1089847551086602E-7</v>
       </c>
       <c r="AH35">
-        <v>8.2605617181968373E-5</v>
+        <v>1.256892637041842E-4</v>
       </c>
       <c r="AI35">
-        <v>7.198489497285816E-5</v>
+        <v>7.5413558222510538E-5</v>
       </c>
     </row>
   </sheetData>

--- a/cp1/tostogan_fb-01_novak_fb-01_cp1/bigram_cross2.xlsx
+++ b/cp1/tostogan_fb-01_novak_fb-01_cp1/bigram_cross2.xlsx
@@ -476,7 +476,7 @@
   <dimension ref="A1:AI35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -593,85 +593,85 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.4837820304897821E-3</v>
+        <v>2.4838061998657141E-3</v>
       </c>
       <c r="D2">
-        <v>6.7272137528381444E-3</v>
+        <v>6.7272792145236576E-3</v>
       </c>
       <c r="E2">
-        <v>1.682208887447292E-2</v>
+        <v>1.6822252568140461E-2</v>
       </c>
       <c r="F2">
-        <v>3.636068764190723E-3</v>
+        <v>3.6361041463264321E-3</v>
       </c>
       <c r="G2">
-        <v>7.6410963347388911E-3</v>
+        <v>7.6411706893028484E-3</v>
       </c>
       <c r="H2">
-        <v>4.1704508595523842E-3</v>
+        <v>4.1704914416942108E-3</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>2.1967239701589361E-3</v>
+        <v>2.196745346208364E-3</v>
       </c>
       <c r="K2">
-        <v>4.2993837171586124E-3</v>
+        <v>4.2994255539301387E-3</v>
       </c>
       <c r="L2">
-        <v>1.1573953940966591E-2</v>
+        <v>1.1574066565681791E-2</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>9.0593577684073955E-3</v>
+        <v>9.0594459238980598E-3</v>
       </c>
       <c r="O2">
-        <v>2.6702886798572818E-3</v>
+        <v>2.670314664106365E-3</v>
       </c>
       <c r="P2">
-        <v>6.091469348037626E-3</v>
+        <v>6.0915286233729164E-3</v>
       </c>
       <c r="Q2">
-        <v>1.635501135257866E-2</v>
+        <v>1.6355170501172571E-2</v>
       </c>
       <c r="R2">
-        <v>1.022542977619202E-2</v>
+        <v>1.022552927858526E-2</v>
       </c>
       <c r="S2">
-        <v>1.484917288355498E-2</v>
+        <v>1.4848506472654619E-2</v>
       </c>
       <c r="T2">
-        <v>3.7285111903989621E-3</v>
+        <v>3.7285474720804941E-3</v>
       </c>
       <c r="U2">
-        <v>1.521732079143691E-2</v>
+        <v>1.52174688693046E-2</v>
       </c>
       <c r="V2">
-        <v>8.4228024651313658E-3</v>
+        <v>8.422884426381054E-3</v>
       </c>
       <c r="W2">
-        <v>4.6886149854038278E-3</v>
+        <v>4.688660609736715E-3</v>
       </c>
       <c r="X2">
-        <v>8.4901070385987672E-4</v>
+        <v>8.4901896547809417E-4</v>
       </c>
       <c r="Y2">
-        <v>1.445831981835874E-3</v>
+        <v>1.445846051048178E-3</v>
       </c>
       <c r="Z2">
-        <v>2.8624716185533572E-4</v>
+        <v>2.8624994729108621E-4</v>
       </c>
       <c r="AA2">
-        <v>6.5990917937074284E-3</v>
+        <v>6.5991560086539926E-3</v>
       </c>
       <c r="AB2">
-        <v>5.619526435290302E-4</v>
+        <v>5.6195811182074428E-4</v>
       </c>
       <c r="AC2">
-        <v>1.094712941939669E-4</v>
+        <v>1.094723594455995E-4</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>2.92085630879014E-3</v>
+        <v>2.9208847312818479E-3</v>
       </c>
       <c r="AH2">
-        <v>3.1625040544923779E-5</v>
+        <v>3.162534828428431E-5</v>
       </c>
       <c r="AI2">
-        <v>2.962212131041194E-3</v>
+        <v>2.9622409559612972E-3</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -697,88 +697,88 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.585955238404152E-2</v>
+        <v>1.5859706711385448E-2</v>
       </c>
       <c r="C3">
-        <v>1.216347713266299E-5</v>
+        <v>1.2163595493955499E-5</v>
       </c>
       <c r="D3">
-        <v>3.5598443074927018E-4</v>
+        <v>3.5598789478976441E-4</v>
       </c>
       <c r="E3">
-        <v>3.292247810574116E-3</v>
+        <v>3.2922798470306231E-3</v>
       </c>
       <c r="F3">
-        <v>9.6415828738241973E-4</v>
+        <v>9.6416766948753967E-4</v>
       </c>
       <c r="G3">
-        <v>1.7815439506973731E-3</v>
+        <v>1.78156128668135E-3</v>
       </c>
       <c r="H3">
-        <v>1.339604281543951E-3</v>
+        <v>1.339617317067633E-3</v>
       </c>
       <c r="I3">
-        <v>8.1089847551086602E-7</v>
+        <v>8.1090636626370026E-7</v>
       </c>
       <c r="J3">
-        <v>1.8334414531300681E-3</v>
+        <v>1.8334592941222261E-3</v>
       </c>
       <c r="K3">
-        <v>3.1389879987025618E-3</v>
+        <v>3.1390185438067838E-3</v>
       </c>
       <c r="L3">
-        <v>2.8462536490431401E-4</v>
+        <v>2.8462813455855878E-4</v>
       </c>
       <c r="M3">
-        <v>7.7927343496594231E-4</v>
+        <v>7.7928101797941597E-4</v>
       </c>
       <c r="N3">
-        <v>5.391663963671748E-3</v>
+        <v>5.391716429287343E-3</v>
       </c>
       <c r="O3">
-        <v>7.7043464158287386E-3</v>
+        <v>7.7044213858714159E-3</v>
       </c>
       <c r="P3">
-        <v>3.186020110282193E-3</v>
+        <v>3.1860511130500781E-3</v>
       </c>
       <c r="Q3">
-        <v>3.2817061303924751E-3</v>
+        <v>3.2817380642691952E-3</v>
       </c>
       <c r="R3">
-        <v>2.5137852740836849E-5</v>
+        <v>2.5138097354174708E-5</v>
       </c>
       <c r="S3">
-        <v>6.9980538436587741E-4</v>
+        <v>6.9981219408557331E-4</v>
       </c>
       <c r="T3">
-        <v>1.8220888744729161E-3</v>
+        <v>1.8221066049945341E-3</v>
       </c>
       <c r="U3">
-        <v>5.0567628932857607E-3</v>
+        <v>5.0560011936541709E-3</v>
       </c>
       <c r="V3">
-        <v>3.750405449237756E-3</v>
+        <v>3.750441943969614E-3</v>
       </c>
       <c r="W3">
-        <v>4.54103146286085E-5</v>
+        <v>4.5410756510767212E-5</v>
       </c>
       <c r="X3">
-        <v>1.4190723321440149E-4</v>
+        <v>1.4190861409614749E-4</v>
       </c>
       <c r="Y3">
-        <v>7.7521894258838792E-4</v>
+        <v>7.7522648614809743E-4</v>
       </c>
       <c r="Z3">
-        <v>3.6490431397988971E-5</v>
+        <v>3.6490786481866508E-5</v>
       </c>
       <c r="AA3">
-        <v>8.3846902367823548E-4</v>
+        <v>8.3847718271666603E-4</v>
       </c>
       <c r="AB3">
-        <v>9.3739863769056115E-4</v>
+        <v>9.3740775940083748E-4</v>
       </c>
       <c r="AC3">
-        <v>1.8326305546545571E-4</v>
+        <v>1.8326483877559619E-4</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -790,13 +790,13 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>1.621796951021732E-6</v>
+        <v>1.6218127325274009E-6</v>
       </c>
       <c r="AH3">
-        <v>9.2036976970483295E-4</v>
+        <v>9.2037872570929974E-4</v>
       </c>
       <c r="AI3">
-        <v>1.83506325008109E-3</v>
+        <v>1.83427020048849E-3</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -804,106 +804,106 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.527408368472267E-4</v>
+        <v>3.5274426932470961E-4</v>
       </c>
       <c r="C4">
-        <v>5.2951670450859551E-4</v>
+        <v>5.2952185717019629E-4</v>
       </c>
       <c r="D4">
-        <v>4.0544923775543302E-6</v>
+        <v>4.0545318313185012E-6</v>
       </c>
       <c r="E4">
-        <v>4.6221213104119363E-5</v>
+        <v>4.6221662877030918E-5</v>
       </c>
       <c r="F4">
-        <v>3.2435939020434641E-6</v>
+        <v>3.243625465054801E-6</v>
       </c>
       <c r="G4">
-        <v>1.946156341226078E-5</v>
+        <v>1.946175279032881E-5</v>
       </c>
       <c r="H4">
-        <v>2.3175478430100551E-3</v>
+        <v>2.317570394781655E-3</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>3.2435939020434641E-6</v>
+        <v>3.243625465054801E-6</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.2033733376581251E-4</v>
+        <v>6.2034337019173066E-4</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.5144339928640937E-5</v>
+        <v>8.5145168457688525E-5</v>
       </c>
       <c r="O4">
-        <v>6.4385338955562767E-4</v>
+        <v>6.4385965481337799E-4</v>
       </c>
       <c r="P4">
-        <v>5.1086603957184562E-5</v>
+        <v>5.1087101074613117E-5</v>
       </c>
       <c r="Q4">
-        <v>2.3029516704508601E-4</v>
+        <v>2.3029740801889091E-4</v>
       </c>
       <c r="R4">
-        <v>1.775867661368797E-3</v>
+        <v>1.7758849421175039E-3</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>9.1469348037625684E-4</v>
+        <v>9.1470238114545394E-4</v>
       </c>
       <c r="U4">
-        <v>1.7758676613687969E-4</v>
+        <v>1.7758849421175039E-4</v>
       </c>
       <c r="V4">
-        <v>1.621796951021732E-6</v>
+        <v>1.6218127325274009E-6</v>
       </c>
       <c r="W4">
-        <v>1.1903989620499511E-3</v>
+        <v>1.1904105456751119E-3</v>
       </c>
       <c r="X4">
         <v>0</v>
       </c>
       <c r="Y4">
-        <v>3.3246837495945498E-5</v>
+        <v>3.3247161016811709E-5</v>
       </c>
       <c r="Z4">
-        <v>8.1089847551086602E-7</v>
+        <v>8.1090636626370026E-7</v>
       </c>
       <c r="AA4">
-        <v>1.297437560817386E-5</v>
+        <v>1.2974501860219201E-5</v>
       </c>
       <c r="AB4">
-        <v>5.6762893285760616E-6</v>
+        <v>5.6763445638459006E-6</v>
       </c>
       <c r="AC4">
-        <v>1.881284463185209E-4</v>
+        <v>1.881302769731785E-4</v>
       </c>
       <c r="AD4">
-        <v>1.7758676613687969E-4</v>
+        <v>1.7758849421175039E-4</v>
       </c>
       <c r="AE4">
-        <v>4.0098929614012322E-3</v>
+        <v>4.0099319811739984E-3</v>
       </c>
       <c r="AF4">
-        <v>3.9734025300032437E-5</v>
+        <v>3.9734411946921307E-5</v>
       </c>
       <c r="AG4">
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>1.621796951021732E-6</v>
+        <v>1.6218127325274009E-6</v>
       </c>
       <c r="AI4">
-        <v>5.1086603957184559E-4</v>
+        <v>5.1087101074613118E-4</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -911,25 +911,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.1597469996756407E-3</v>
+        <v>5.1597972085359236E-3</v>
       </c>
       <c r="C5">
-        <v>5.8700940642231591E-3</v>
+        <v>5.8693402790166629E-3</v>
       </c>
       <c r="D5">
-        <v>4.0544923775543302E-6</v>
+        <v>4.0545318313185012E-6</v>
       </c>
       <c r="E5">
-        <v>4.135582225105417E-5</v>
+        <v>4.1356224679448713E-5</v>
       </c>
       <c r="F5">
-        <v>1.929938371715861E-4</v>
+        <v>1.929957151707607E-4</v>
       </c>
       <c r="G5">
-        <v>7.4845929289652933E-4</v>
+        <v>7.4846657606139535E-4</v>
       </c>
       <c r="H5">
-        <v>5.3640934155043786E-3</v>
+        <v>5.3641456128343768E-3</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -938,70 +938,70 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>4.3383068439831332E-4</v>
+        <v>4.3383490595107958E-4</v>
       </c>
       <c r="L5">
-        <v>3.106552059682128E-3</v>
+        <v>3.1065822891562359E-3</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.2325656827765161E-4</v>
+        <v>1.2325776767208241E-4</v>
       </c>
       <c r="O5">
-        <v>8.9928640934155047E-4</v>
+        <v>8.9929516018644358E-4</v>
       </c>
       <c r="P5">
-        <v>9.5686020110282192E-5</v>
+        <v>9.5686951219116635E-5</v>
       </c>
       <c r="Q5">
-        <v>1.6793707427830041E-3</v>
+        <v>1.6793870845321229E-3</v>
       </c>
       <c r="R5">
-        <v>6.0817385663314953E-3</v>
+        <v>6.0817977469777521E-3</v>
       </c>
       <c r="S5">
-        <v>4.2572169964320459E-4</v>
+        <v>4.2572584228844261E-4</v>
       </c>
       <c r="T5">
-        <v>5.3924748621472589E-4</v>
+        <v>5.3925273356536063E-4</v>
       </c>
       <c r="U5">
-        <v>3.7074278300356801E-3</v>
+        <v>3.7074639065576378E-3</v>
       </c>
       <c r="V5">
-        <v>1.8893934479403179E-4</v>
+        <v>1.8894118333944221E-4</v>
       </c>
       <c r="W5">
-        <v>4.5085955238404152E-4</v>
+        <v>4.5086393964261737E-4</v>
       </c>
       <c r="X5">
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>4.3788517677586773E-5</v>
+        <v>4.3788943778239812E-5</v>
       </c>
       <c r="Z5">
-        <v>1.4596172559195589E-5</v>
+        <v>1.459631459274661E-5</v>
       </c>
       <c r="AA5">
-        <v>1.037950048653909E-4</v>
+        <v>1.0379601488175361E-4</v>
       </c>
       <c r="AB5">
-        <v>6.5763866363931233E-4</v>
+        <v>6.5764506303986087E-4</v>
       </c>
       <c r="AC5">
-        <v>1.5407071034706451E-5</v>
+        <v>1.5407220959010302E-5</v>
       </c>
       <c r="AD5">
-        <v>4.0544923775543302E-6</v>
+        <v>4.0545318313185012E-6</v>
       </c>
       <c r="AE5">
-        <v>3.0287058060330841E-3</v>
+        <v>3.0287352779949199E-3</v>
       </c>
       <c r="AF5">
-        <v>1.248783652286734E-4</v>
+        <v>1.2487958040460981E-4</v>
       </c>
       <c r="AG5">
         <v>0</v>
@@ -1010,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>1.5650340577359721E-4</v>
+        <v>1.5650492868889409E-4</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -1018,25 +1018,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.9659422640285432E-4</v>
+        <v>9.9660392413808765E-4</v>
       </c>
       <c r="C6">
-        <v>1.079305870904963E-3</v>
+        <v>1.0793163734969849E-3</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.1089847551086602E-7</v>
+        <v>8.1090636626370026E-7</v>
       </c>
       <c r="F6">
-        <v>8.1089847551086602E-7</v>
+        <v>8.1090636626370026E-7</v>
       </c>
       <c r="G6">
-        <v>1.097956535841713E-3</v>
+        <v>1.0979672199210499E-3</v>
       </c>
       <c r="H6">
-        <v>7.7765163801492049E-4</v>
+        <v>7.7765920524688859E-4</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1045,46 +1045,46 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.1089847551086602E-7</v>
+        <v>8.1090636626370026E-7</v>
       </c>
       <c r="L6">
-        <v>4.9626986701264996E-4</v>
+        <v>4.9627469615338461E-4</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>4.2166720726565027E-5</v>
+        <v>4.2167131045712413E-5</v>
       </c>
       <c r="O6">
-        <v>1.635582225105417E-3</v>
+        <v>1.635598140753883E-3</v>
       </c>
       <c r="P6">
-        <v>1.946156341226078E-5</v>
+        <v>1.946175279032881E-5</v>
       </c>
       <c r="Q6">
-        <v>2.1488809601037949E-4</v>
+        <v>2.148901870598806E-4</v>
       </c>
       <c r="R6">
-        <v>8.3417126175802797E-3</v>
+        <v>8.3417937897546854E-3</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>4.9545896853713911E-4</v>
+        <v>4.9546378978712082E-4</v>
       </c>
       <c r="U6">
-        <v>1.5407071034706451E-5</v>
+        <v>1.5407220959010302E-5</v>
       </c>
       <c r="V6">
-        <v>4.0544923775543302E-6</v>
+        <v>4.0545318313185012E-6</v>
       </c>
       <c r="W6">
-        <v>3.9490755757379178E-4</v>
+        <v>3.9491140037042211E-4</v>
       </c>
       <c r="X6">
-        <v>8.1089847551086602E-7</v>
+        <v>8.1090636626370026E-7</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1093,10 +1093,10 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>2.5137852740836849E-5</v>
+        <v>2.5138097354174708E-5</v>
       </c>
       <c r="AB6">
-        <v>6.4871878040869282E-6</v>
+        <v>6.487250930109602E-6</v>
       </c>
       <c r="AC6">
         <v>0</v>
@@ -1125,106 +1125,106 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.8819331819656184E-4</v>
+        <v>7.8820098800831662E-4</v>
       </c>
       <c r="C7">
-        <v>5.3121959130716838E-3</v>
+        <v>5.3122476053935001E-3</v>
       </c>
       <c r="D7">
-        <v>8.919883230619527E-6</v>
+        <v>8.9199700289007021E-6</v>
       </c>
       <c r="E7">
-        <v>6.6493674991891015E-4</v>
+        <v>6.6494322033623426E-4</v>
       </c>
       <c r="F7">
-        <v>4.8653908530651959E-6</v>
+        <v>4.8654381975822017E-6</v>
       </c>
       <c r="G7">
-        <v>2.108336036328252E-5</v>
+        <v>2.108356552285621E-5</v>
       </c>
       <c r="H7">
-        <v>4.3374959455076221E-3</v>
+        <v>4.3375381531445328E-3</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1.4596172559195589E-5</v>
+        <v>1.459631459274661E-5</v>
       </c>
       <c r="K7">
-        <v>4.8653908530651959E-6</v>
+        <v>4.8654381975822017E-6</v>
       </c>
       <c r="L7">
-        <v>2.1886149854038269E-3</v>
+        <v>2.1886362825457271E-3</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.3759325332468371E-4</v>
+        <v>2.375955653152642E-4</v>
       </c>
       <c r="O7">
-        <v>5.7411612066169315E-4</v>
+        <v>5.7412170731469979E-4</v>
       </c>
       <c r="P7">
-        <v>4.2977619202075897E-5</v>
+        <v>4.2978037411976113E-5</v>
       </c>
       <c r="Q7">
-        <v>1.8715536814790791E-3</v>
+        <v>1.87157189333662E-3</v>
       </c>
       <c r="R7">
-        <v>3.8258190074602662E-3</v>
+        <v>3.8258562360321382E-3</v>
       </c>
       <c r="S7">
-        <v>6.9737268893934476E-5</v>
+        <v>6.9737947498678217E-5</v>
       </c>
       <c r="T7">
-        <v>1.539896204995135E-3</v>
+        <v>1.5399111895347669E-3</v>
       </c>
       <c r="U7">
-        <v>2.6029841063898799E-4</v>
+        <v>2.6030094357064782E-4</v>
       </c>
       <c r="V7">
-        <v>2.1407719753486861E-4</v>
+        <v>2.1407928069361689E-4</v>
       </c>
       <c r="W7">
-        <v>1.505027570548167E-3</v>
+        <v>1.505042215785428E-3</v>
       </c>
       <c r="X7">
-        <v>8.1089847551086602E-7</v>
+        <v>8.1090636626370026E-7</v>
       </c>
       <c r="Y7">
-        <v>7.2980862795977942E-5</v>
+        <v>7.298157296373303E-5</v>
       </c>
       <c r="Z7">
-        <v>3.1300681154719431E-4</v>
+        <v>3.1300985737778828E-4</v>
       </c>
       <c r="AA7">
-        <v>6.1628284138825817E-5</v>
+        <v>6.162888383604122E-5</v>
       </c>
       <c r="AB7">
-        <v>7.4602659746999682E-5</v>
+        <v>7.4603385696260429E-5</v>
       </c>
       <c r="AC7">
         <v>0</v>
       </c>
       <c r="AD7">
-        <v>4.8653908530651959E-6</v>
+        <v>4.8654381975822017E-6</v>
       </c>
       <c r="AE7">
-        <v>4.8005189750243273E-4</v>
+        <v>4.8005656882811062E-4</v>
       </c>
       <c r="AF7">
-        <v>8.4576710995783329E-4</v>
+        <v>8.4577534001303942E-4</v>
       </c>
       <c r="AG7">
         <v>0</v>
       </c>
       <c r="AH7">
-        <v>1.216347713266299E-5</v>
+        <v>1.2163595493955499E-5</v>
       </c>
       <c r="AI7">
-        <v>2.440804411287707E-4</v>
+        <v>2.4408281624537379E-4</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -1232,88 +1232,88 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.85898475510866E-2</v>
+        <v>1.8590028446595332E-2</v>
       </c>
       <c r="C8">
-        <v>2.351605578981512E-5</v>
+        <v>2.3516284621647309E-5</v>
       </c>
       <c r="D8">
-        <v>1.440966590982809E-3</v>
+        <v>1.4409806128505951E-3</v>
       </c>
       <c r="E8">
-        <v>2.0450859552384039E-3</v>
+        <v>2.0451058557170521E-3</v>
       </c>
       <c r="F8">
-        <v>3.185209211806682E-3</v>
+        <v>3.1852402066838148E-3</v>
       </c>
       <c r="G8">
-        <v>2.9013947453778791E-3</v>
+        <v>2.901422978491519E-3</v>
       </c>
       <c r="H8">
-        <v>1.5885501135257871E-3</v>
+        <v>1.588565571510589E-3</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.2899772948426856E-4</v>
+        <v>7.2900482327106656E-4</v>
       </c>
       <c r="K8">
-        <v>1.31041193642556E-3</v>
+        <v>1.3104246878821401E-3</v>
       </c>
       <c r="L8">
-        <v>1.2650016217969509E-4</v>
+        <v>1.2650139313713721E-4</v>
       </c>
       <c r="M8">
-        <v>2.1853713915017839E-3</v>
+        <v>2.185392657080672E-3</v>
       </c>
       <c r="N8">
-        <v>1.298248459292897E-3</v>
+        <v>1.2982610923881839E-3</v>
       </c>
       <c r="O8">
-        <v>5.2457022380797934E-3</v>
+        <v>5.2457532833598769E-3</v>
       </c>
       <c r="P8">
-        <v>4.2718131689912422E-3</v>
+        <v>4.2718547374771734E-3</v>
       </c>
       <c r="Q8">
-        <v>7.5405449237755436E-3</v>
+        <v>7.5406182998861487E-3</v>
       </c>
       <c r="R8">
-        <v>2.8138177100227053E-4</v>
+        <v>2.8138450909350398E-4</v>
       </c>
       <c r="S8">
-        <v>1.2877067791112549E-3</v>
+        <v>1.287719309626756E-3</v>
       </c>
       <c r="T8">
-        <v>5.9122607849497241E-3</v>
+        <v>5.9115074100623754E-3</v>
       </c>
       <c r="U8">
-        <v>4.2458644177748948E-3</v>
+        <v>4.2459057337567354E-3</v>
       </c>
       <c r="V8">
-        <v>5.6592604605903343E-3</v>
+        <v>5.6593155301543638E-3</v>
       </c>
       <c r="W8">
-        <v>1.200129743756082E-4</v>
+        <v>1.200141422070276E-4</v>
       </c>
       <c r="X8">
-        <v>9.7307817061303918E-6</v>
+        <v>9.7308763951644035E-6</v>
       </c>
       <c r="Y8">
-        <v>5.8303600389231268E-4</v>
+        <v>5.8304167734360044E-4</v>
       </c>
       <c r="Z8">
-        <v>3.8517677586766139E-4</v>
+        <v>3.851805239752576E-4</v>
       </c>
       <c r="AA8">
-        <v>1.2236457995458969E-3</v>
+        <v>1.2236577066919239E-3</v>
       </c>
       <c r="AB8">
-        <v>9.0253000324359389E-4</v>
+        <v>9.0253878565149843E-4</v>
       </c>
       <c r="AC8">
-        <v>8.1900746026597471E-4</v>
+        <v>8.1901542992633724E-4</v>
       </c>
       <c r="AD8">
         <v>0</v>
@@ -1325,13 +1325,13 @@
         <v>0</v>
       </c>
       <c r="AG8">
-        <v>8.1089847551086602E-7</v>
+        <v>8.1090636626370026E-7</v>
       </c>
       <c r="AH8">
-        <v>2.554330197859228E-4</v>
+        <v>2.5543550537306559E-4</v>
       </c>
       <c r="AI8">
-        <v>3.0327602984106392E-4</v>
+        <v>3.0327898098262389E-4</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -1339,7 +1339,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.5682776516380148E-4</v>
+        <v>6.5683415667359718E-4</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.7307817061303918E-6</v>
+        <v>9.7308763951644035E-6</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>8.1089847551086602E-7</v>
+        <v>8.1090636626370026E-7</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -1393,19 +1393,19 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>4.0544923775543302E-6</v>
+        <v>4.0545318313185012E-6</v>
       </c>
       <c r="U9">
-        <v>8.1089847551086602E-7</v>
+        <v>8.1090636626370026E-7</v>
       </c>
       <c r="V9">
-        <v>3.2435939020434641E-6</v>
+        <v>3.243625465054801E-6</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>8.1089847551086602E-7</v>
+        <v>8.1090636626370026E-7</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>1.621796951021732E-6</v>
+        <v>1.6218127325274009E-6</v>
       </c>
       <c r="AC9">
         <v>0</v>
@@ -1446,70 +1446,70 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.7113201427181309E-4</v>
+        <v>4.7113659879920991E-4</v>
       </c>
       <c r="C10">
-        <v>1.2917612714888099E-3</v>
+        <v>1.2917738414580751E-3</v>
       </c>
       <c r="D10">
-        <v>4.05449237755433E-5</v>
+        <v>4.0545318313185007E-5</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.2435939020434641E-6</v>
+        <v>3.243625465054801E-6</v>
       </c>
       <c r="G10">
-        <v>8.0927667855984432E-4</v>
+        <v>8.092845535311729E-4</v>
       </c>
       <c r="H10">
-        <v>4.8070061628284139E-3</v>
+        <v>4.8070529392112149E-3</v>
       </c>
       <c r="I10">
-        <v>6.4871878040869282E-6</v>
+        <v>6.487250930109602E-6</v>
       </c>
       <c r="J10">
-        <v>7.2980862795977947E-6</v>
+        <v>7.2981572963733026E-6</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.3177100227051569E-3</v>
+        <v>1.317722845178513E-3</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>4.2166720726565027E-5</v>
+        <v>4.2167131045712413E-5</v>
       </c>
       <c r="O10">
-        <v>2.270515731430425E-5</v>
+        <v>2.2705378255383609E-5</v>
       </c>
       <c r="P10">
-        <v>4.0544923775543302E-6</v>
+        <v>4.0545318313185012E-6</v>
       </c>
       <c r="Q10">
-        <v>7.0304897826792083E-4</v>
+        <v>7.0305581955062816E-4</v>
       </c>
       <c r="R10">
-        <v>3.1625040544923779E-5</v>
+        <v>3.162534828428431E-5</v>
       </c>
       <c r="S10">
-        <v>8.1089847551086602E-7</v>
+        <v>8.1090636626370026E-7</v>
       </c>
       <c r="T10">
-        <v>4.0544923775543302E-6</v>
+        <v>4.0545318313185012E-6</v>
       </c>
       <c r="U10">
-        <v>7.2980862795977947E-6</v>
+        <v>7.2981572963733026E-6</v>
       </c>
       <c r="V10">
-        <v>1.865066493674992E-5</v>
+        <v>1.8650846424065111E-5</v>
       </c>
       <c r="W10">
-        <v>2.075900097307817E-4</v>
+        <v>2.0759202976350729E-4</v>
       </c>
       <c r="X10">
         <v>0</v>
@@ -1521,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>6.4871878040869282E-6</v>
+        <v>6.487250930109602E-6</v>
       </c>
       <c r="AB10">
         <v>0</v>
@@ -1536,13 +1536,13 @@
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>2.108336036328252E-5</v>
+        <v>2.108356552285621E-5</v>
       </c>
       <c r="AG10">
         <v>0</v>
       </c>
       <c r="AH10">
-        <v>8.1089847551086602E-7</v>
+        <v>8.1090636626370026E-7</v>
       </c>
       <c r="AI10">
         <v>0</v>
@@ -1553,70 +1553,70 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.222024002594875E-3</v>
+        <v>1.2220358939593961E-3</v>
       </c>
       <c r="C11">
-        <v>4.7924099902692183E-3</v>
+        <v>4.7924566246184694E-3</v>
       </c>
       <c r="D11">
-        <v>1.0622770029192341E-4</v>
+        <v>1.062287339805447E-4</v>
       </c>
       <c r="E11">
-        <v>9.5767109957833278E-4</v>
+        <v>9.5768041855742996E-4</v>
       </c>
       <c r="F11">
-        <v>3.803113850145962E-4</v>
+        <v>3.8031508577767537E-4</v>
       </c>
       <c r="G11">
-        <v>6.3331170937398643E-4</v>
+        <v>6.3331787205194985E-4</v>
       </c>
       <c r="H11">
-        <v>2.416477457022381E-4</v>
+        <v>2.4165009714658271E-4</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>4.8653908530651959E-5</v>
+        <v>4.8654381975822017E-5</v>
       </c>
       <c r="K11">
-        <v>4.7032111579630233E-5</v>
+        <v>4.7032569243294618E-5</v>
       </c>
       <c r="L11">
-        <v>3.5517353227375933E-4</v>
+        <v>3.5517698842350072E-4</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>9.2442426208238726E-5</v>
+        <v>9.2443325754061837E-5</v>
       </c>
       <c r="O11">
-        <v>2.2299708076548819E-4</v>
+        <v>2.229992507225176E-4</v>
       </c>
       <c r="P11">
-        <v>2.440804411287707E-4</v>
+        <v>2.4408281624537379E-4</v>
       </c>
       <c r="Q11">
-        <v>1.843172234836199E-3</v>
+        <v>1.843190170517391E-3</v>
       </c>
       <c r="R11">
-        <v>4.1112552708400912E-4</v>
+        <v>4.1112952769569599E-4</v>
       </c>
       <c r="S11">
-        <v>1.054168018164126E-5</v>
+        <v>1.05417827614281E-5</v>
       </c>
       <c r="T11">
-        <v>2.0191372040220571E-4</v>
+        <v>2.0191568519966141E-4</v>
       </c>
       <c r="U11">
-        <v>1.7028867985728191E-5</v>
+        <v>1.7029033691537701E-5</v>
       </c>
       <c r="V11">
-        <v>5.6762893285760616E-6</v>
+        <v>5.6763445638459006E-6</v>
       </c>
       <c r="W11">
-        <v>2.6273110606552061E-4</v>
+        <v>2.6273366266943887E-4</v>
       </c>
       <c r="X11">
         <v>0</v>
@@ -1625,34 +1625,34 @@
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>1.621796951021732E-6</v>
+        <v>1.6218127325274009E-6</v>
       </c>
       <c r="AA11">
-        <v>1.7028867985728191E-5</v>
+        <v>1.7029033691537701E-5</v>
       </c>
       <c r="AB11">
-        <v>3.2435939020434641E-6</v>
+        <v>3.243625465054801E-6</v>
       </c>
       <c r="AC11">
         <v>0</v>
       </c>
       <c r="AD11">
-        <v>3.2435939020434642E-5</v>
+        <v>3.2436254650548009E-5</v>
       </c>
       <c r="AE11">
-        <v>3.1138501459617248E-4</v>
+        <v>3.1138804464526091E-4</v>
       </c>
       <c r="AF11">
-        <v>1.313655530327603E-3</v>
+        <v>1.3136683133471939E-3</v>
       </c>
       <c r="AG11">
         <v>0</v>
       </c>
       <c r="AH11">
-        <v>1.6299059357768411E-4</v>
+        <v>1.6299217961900371E-4</v>
       </c>
       <c r="AI11">
-        <v>5.2059682127797598E-4</v>
+        <v>5.2060188714129552E-4</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -1660,88 +1660,88 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.721294193966915E-2</v>
+        <v>1.7213109436679561E-2</v>
       </c>
       <c r="C12">
-        <v>6.5682776516380153E-5</v>
+        <v>6.5683415667359718E-5</v>
       </c>
       <c r="D12">
-        <v>5.9357768407395392E-4</v>
+        <v>5.9358346010502858E-4</v>
       </c>
       <c r="E12">
-        <v>2.2356470969834581E-3</v>
+        <v>2.2356688517890218E-3</v>
       </c>
       <c r="F12">
-        <v>3.746350956860201E-4</v>
+        <v>3.7463874121382952E-4</v>
       </c>
       <c r="G12">
-        <v>1.5188128446318519E-3</v>
+        <v>1.5188276240119111E-3</v>
       </c>
       <c r="H12">
-        <v>1.7109957833279269E-3</v>
+        <v>1.711012432816408E-3</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>2.156989944858904E-4</v>
+        <v>2.1570109342614429E-4</v>
       </c>
       <c r="K12">
-        <v>1.89182614336685E-3</v>
+        <v>1.891844552493213E-3</v>
       </c>
       <c r="L12">
-        <v>5.4168018164125846E-4</v>
+        <v>5.416854526641518E-4</v>
       </c>
       <c r="M12">
-        <v>1.032273759325332E-3</v>
+        <v>1.0322838042536901E-3</v>
       </c>
       <c r="N12">
-        <v>1.391501783976646E-3</v>
+        <v>1.39151532450851E-3</v>
       </c>
       <c r="O12">
-        <v>5.3138177100227049E-3</v>
+        <v>5.3138694181260266E-3</v>
       </c>
       <c r="P12">
-        <v>2.4148556600713592E-3</v>
+        <v>2.4148791587332991E-3</v>
       </c>
       <c r="Q12">
-        <v>3.1714239377229969E-3</v>
+        <v>3.1714547984573321E-3</v>
       </c>
       <c r="R12">
-        <v>3.0895231916964002E-4</v>
+        <v>3.089553255464698E-4</v>
       </c>
       <c r="S12">
-        <v>7.2575413558222514E-4</v>
+        <v>7.257611978060117E-4</v>
       </c>
       <c r="T12">
-        <v>4.0058384690236782E-4</v>
+        <v>4.0058774493426791E-4</v>
       </c>
       <c r="U12">
-        <v>2.079954589685371E-3</v>
+        <v>2.079974829466391E-3</v>
       </c>
       <c r="V12">
-        <v>4.2207265650340579E-3</v>
+        <v>4.2207676364025603E-3</v>
       </c>
       <c r="W12">
-        <v>7.2980862795977947E-6</v>
+        <v>7.2981572963733026E-6</v>
       </c>
       <c r="X12">
-        <v>3.3246837495945498E-5</v>
+        <v>3.3247161016811709E-5</v>
       </c>
       <c r="Y12">
-        <v>1.290139474537788E-3</v>
+        <v>1.290152028725547E-3</v>
       </c>
       <c r="Z12">
-        <v>7.3061952643529028E-4</v>
+        <v>7.3062663600359393E-4</v>
       </c>
       <c r="AA12">
-        <v>1.574764839442102E-3</v>
+        <v>1.5747801632841061E-3</v>
       </c>
       <c r="AB12">
-        <v>5.6843983133311705E-4</v>
+        <v>5.6844536275085387E-4</v>
       </c>
       <c r="AC12">
-        <v>1.4677262406746671E-4</v>
+        <v>1.4677405229372969E-4</v>
       </c>
       <c r="AD12">
         <v>0</v>
@@ -1756,10 +1756,10 @@
         <v>0</v>
       </c>
       <c r="AH12">
-        <v>2.5867661368796628E-4</v>
+        <v>2.5867913083812039E-4</v>
       </c>
       <c r="AI12">
-        <v>1.14255595199481E-3</v>
+        <v>1.142567070065554E-3</v>
       </c>
     </row>
     <row r="13" spans="1:35">
@@ -1767,67 +1767,67 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.9065844956211486E-3</v>
+        <v>5.9066419718647916E-3</v>
       </c>
       <c r="C13">
-        <v>2.432695426532598E-6</v>
+        <v>2.4327190987911009E-6</v>
       </c>
       <c r="D13">
-        <v>3.0814142069412909E-5</v>
+        <v>3.081444191802061E-5</v>
       </c>
       <c r="E13">
-        <v>3.2435939020434641E-6</v>
+        <v>3.243625465054801E-6</v>
       </c>
       <c r="F13">
-        <v>4.8653908530651959E-6</v>
+        <v>4.8654381975822017E-6</v>
       </c>
       <c r="G13">
-        <v>2.335387609471294E-4</v>
+        <v>2.3354103348394571E-4</v>
       </c>
       <c r="H13">
-        <v>4.0544923775543302E-6</v>
+        <v>4.0545318313185012E-6</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>8.1089847551086602E-7</v>
+        <v>8.1090636626370026E-7</v>
       </c>
       <c r="K13">
-        <v>3.2435939020434641E-6</v>
+        <v>3.243625465054801E-6</v>
       </c>
       <c r="L13">
-        <v>1.621796951021732E-6</v>
+        <v>1.6218127325274009E-6</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>6.5682776516380153E-5</v>
+        <v>6.5683415667359718E-5</v>
       </c>
       <c r="O13">
-        <v>1.5407071034706451E-5</v>
+        <v>1.5407220959010302E-5</v>
       </c>
       <c r="P13">
-        <v>3.6490431397988971E-5</v>
+        <v>3.6490786481866508E-5</v>
       </c>
       <c r="Q13">
-        <v>5.0032435939020435E-4</v>
+        <v>5.0032922798470304E-4</v>
       </c>
       <c r="R13">
-        <v>6.4871878040869282E-6</v>
+        <v>6.487250930109602E-6</v>
       </c>
       <c r="S13">
-        <v>2.432695426532598E-6</v>
+        <v>2.4327190987911009E-6</v>
       </c>
       <c r="T13">
-        <v>2.432695426532598E-6</v>
+        <v>2.4327190987911009E-6</v>
       </c>
       <c r="U13">
-        <v>5.0275705481673692E-4</v>
+        <v>5.0276194708349421E-4</v>
       </c>
       <c r="V13">
-        <v>4.0707103470645468E-4</v>
+        <v>4.0707499586437751E-4</v>
       </c>
       <c r="W13">
         <v>0</v>
@@ -1836,16 +1836,16 @@
         <v>0</v>
       </c>
       <c r="Y13">
-        <v>8.1089847551086602E-7</v>
+        <v>8.1090636626370026E-7</v>
       </c>
       <c r="Z13">
-        <v>5.9195588712293221E-5</v>
+        <v>5.9196164737250121E-5</v>
       </c>
       <c r="AA13">
-        <v>1.81641258514434E-4</v>
+        <v>1.8164302604306879E-4</v>
       </c>
       <c r="AB13">
-        <v>2.1975348686344471E-4</v>
+        <v>2.197556252574628E-4</v>
       </c>
       <c r="AC13">
         <v>0</v>
@@ -1860,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="AG13">
-        <v>2.432695426532598E-6</v>
+        <v>2.4327190987911009E-6</v>
       </c>
       <c r="AH13">
         <v>0</v>
@@ -1874,85 +1874,85 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.582387285111904E-3</v>
+        <v>4.5824318757561704E-3</v>
       </c>
       <c r="C14">
-        <v>6.1879662666234191E-3</v>
+        <v>6.1880264809582967E-3</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1.5488160882257541E-4</v>
+        <v>1.5488311595636669E-4</v>
       </c>
       <c r="F14">
-        <v>3.2435939020434641E-6</v>
+        <v>3.243625465054801E-6</v>
       </c>
       <c r="G14">
-        <v>2.6759649691858579E-5</v>
+        <v>2.6759910086702111E-5</v>
       </c>
       <c r="H14">
-        <v>4.7032111579630229E-4</v>
+        <v>4.7032569243294622E-4</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.6762893285760616E-6</v>
+        <v>5.6763445638459006E-6</v>
       </c>
       <c r="K14">
-        <v>7.2980862795977947E-6</v>
+        <v>7.2981572963733026E-6</v>
       </c>
       <c r="L14">
-        <v>1.8399286409341549E-3</v>
+        <v>1.839946545052336E-3</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>6.4871878040869282E-6</v>
+        <v>6.487250930109602E-6</v>
       </c>
       <c r="O14">
-        <v>4.435614661044437E-4</v>
+        <v>4.4356578234624398E-4</v>
       </c>
       <c r="P14">
-        <v>2.432695426532598E-6</v>
+        <v>2.4327190987911009E-6</v>
       </c>
       <c r="Q14">
-        <v>2.2713266299059362E-3</v>
+        <v>2.271348731904624E-3</v>
       </c>
       <c r="R14">
-        <v>7.7424586441777491E-3</v>
+        <v>7.74253398508581E-3</v>
       </c>
       <c r="S14">
-        <v>3.2435939020434641E-6</v>
+        <v>3.243625465054801E-6</v>
       </c>
       <c r="T14">
-        <v>1.449075575737918E-3</v>
+        <v>1.4490896765132319E-3</v>
       </c>
       <c r="U14">
-        <v>3.2111579630230298E-4</v>
+        <v>3.2111892104042531E-4</v>
       </c>
       <c r="V14">
-        <v>4.9302627311060654E-4</v>
+        <v>4.9303107068832976E-4</v>
       </c>
       <c r="W14">
-        <v>1.0225429776192019E-3</v>
+        <v>1.022552927858526E-3</v>
       </c>
       <c r="X14">
         <v>0</v>
       </c>
       <c r="Y14">
-        <v>2.432695426532598E-6</v>
+        <v>2.4327190987911009E-6</v>
       </c>
       <c r="Z14">
-        <v>1.3785274083684719E-5</v>
+        <v>1.37854082264829E-5</v>
       </c>
       <c r="AA14">
-        <v>8.1089847551086602E-7</v>
+        <v>8.1090636626370026E-7</v>
       </c>
       <c r="AB14">
-        <v>4.8653908530651959E-6</v>
+        <v>4.8654381975822017E-6</v>
       </c>
       <c r="AC14">
         <v>0</v>
@@ -1964,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="AF14">
-        <v>2.108336036328252E-5</v>
+        <v>2.108356552285621E-5</v>
       </c>
       <c r="AG14">
         <v>0</v>
@@ -1981,106 +1981,106 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.7872202400259488E-3</v>
+        <v>6.7872862856271712E-3</v>
       </c>
       <c r="C15">
-        <v>5.6681803438209536E-3</v>
+        <v>5.6682355001832652E-3</v>
       </c>
       <c r="D15">
-        <v>3.2435939020434642E-5</v>
+        <v>3.2436254650548009E-5</v>
       </c>
       <c r="E15">
-        <v>3.0003243593902039E-5</v>
+        <v>3.000353555175691E-5</v>
       </c>
       <c r="F15">
-        <v>1.8488485241647751E-4</v>
+        <v>1.848866515081237E-4</v>
       </c>
       <c r="G15">
-        <v>2.189425883879338E-5</v>
+        <v>2.189447188911991E-5</v>
       </c>
       <c r="H15">
-        <v>3.6985079468050599E-3</v>
+        <v>3.6985439365287368E-3</v>
       </c>
       <c r="I15">
-        <v>1.297437560817386E-5</v>
+        <v>1.2974501860219201E-5</v>
       </c>
       <c r="J15">
-        <v>3.008433344145313E-4</v>
+        <v>3.0084626188383277E-4</v>
       </c>
       <c r="K15">
-        <v>1.865066493674992E-5</v>
+        <v>1.8650846424065111E-5</v>
       </c>
       <c r="L15">
-        <v>6.4734025300032432E-3</v>
+        <v>6.4734655218831186E-3</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.384041518001946E-4</v>
+        <v>2.3840647168152791E-4</v>
       </c>
       <c r="O15">
-        <v>1.3460914693480381E-4</v>
+        <v>1.3461045679977421E-4</v>
       </c>
       <c r="P15">
-        <v>5.6762893285760616E-6</v>
+        <v>5.6763445638459006E-6</v>
       </c>
       <c r="Q15">
-        <v>2.3921505027570551E-4</v>
+        <v>2.392173780477916E-4</v>
       </c>
       <c r="R15">
-        <v>5.062439182614337E-3</v>
+        <v>5.0624884445842804E-3</v>
       </c>
       <c r="S15">
-        <v>5.1897502432695432E-5</v>
+        <v>5.1898007440876823E-5</v>
       </c>
       <c r="T15">
         <v>0</v>
       </c>
       <c r="U15">
-        <v>1.4734025300032439E-3</v>
+        <v>1.4734168675011429E-3</v>
       </c>
       <c r="V15">
-        <v>4.6221213104119363E-5</v>
+        <v>4.6221662877030918E-5</v>
       </c>
       <c r="W15">
-        <v>1.3079792409990271E-3</v>
+        <v>1.307991968783349E-3</v>
       </c>
       <c r="X15">
-        <v>4.0544923775543302E-6</v>
+        <v>4.0545318313185012E-6</v>
       </c>
       <c r="Y15">
-        <v>8.1089847551086602E-7</v>
+        <v>8.1090636626370026E-7</v>
       </c>
       <c r="Z15">
-        <v>8.1089847551086602E-7</v>
+        <v>8.1090636626370026E-7</v>
       </c>
       <c r="AA15">
-        <v>2.1083360363282521E-4</v>
+        <v>2.1083565522856209E-4</v>
       </c>
       <c r="AB15">
-        <v>2.432695426532598E-6</v>
+        <v>2.4327190987911009E-6</v>
       </c>
       <c r="AC15">
-        <v>2.432695426532598E-6</v>
+        <v>2.4327190987911009E-6</v>
       </c>
       <c r="AD15">
         <v>0</v>
       </c>
       <c r="AE15">
-        <v>6.4871878040869281E-4</v>
+        <v>6.4872509301096021E-4</v>
       </c>
       <c r="AF15">
-        <v>3.6409341550437879E-3</v>
+        <v>3.6409695845240138E-3</v>
       </c>
       <c r="AG15">
         <v>0</v>
       </c>
       <c r="AH15">
-        <v>9.2442426208238734E-4</v>
+        <v>9.2443325754061828E-4</v>
       </c>
       <c r="AI15">
-        <v>1.449886474213429E-3</v>
+        <v>1.449900582879496E-3</v>
       </c>
     </row>
     <row r="16" spans="1:35">
@@ -2088,25 +2088,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.7578657152124553E-3</v>
+        <v>7.7579412060448201E-3</v>
       </c>
       <c r="C16">
-        <v>2.242945183263055E-3</v>
+        <v>2.242967009085395E-3</v>
       </c>
       <c r="D16">
-        <v>2.108336036328252E-5</v>
+        <v>2.108356552285621E-5</v>
       </c>
       <c r="E16">
-        <v>1.621796951021732E-6</v>
+        <v>1.6218127325274009E-6</v>
       </c>
       <c r="F16">
-        <v>7.2169964320467072E-5</v>
+        <v>7.217066659746933E-5</v>
       </c>
       <c r="G16">
-        <v>3.2435939020434641E-6</v>
+        <v>3.243625465054801E-6</v>
       </c>
       <c r="H16">
-        <v>4.1477457022380797E-3</v>
+        <v>4.1477860634388268E-3</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -2115,79 +2115,79 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.621796951021732E-6</v>
+        <v>1.6218127325274009E-6</v>
       </c>
       <c r="L16">
-        <v>2.1496918585793062E-3</v>
+        <v>2.1497127769650689E-3</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>6.5682776516380153E-5</v>
+        <v>6.5683415667359718E-5</v>
       </c>
       <c r="O16">
-        <v>1.054168018164126E-4</v>
+        <v>1.0541782761428101E-4</v>
       </c>
       <c r="P16">
-        <v>2.432695426532598E-5</v>
+        <v>2.4327190987911009E-5</v>
       </c>
       <c r="Q16">
-        <v>1.747486214725916E-3</v>
+        <v>1.7475032192982741E-3</v>
       </c>
       <c r="R16">
-        <v>3.673370094064223E-3</v>
+        <v>3.6734058391745621E-3</v>
       </c>
       <c r="S16">
-        <v>1.119039896204995E-4</v>
+        <v>1.119050785443906E-4</v>
       </c>
       <c r="T16">
-        <v>7.9468050600064874E-5</v>
+        <v>7.9468823893842627E-5</v>
       </c>
       <c r="U16">
-        <v>1.256892637041842E-4</v>
+        <v>1.2569048677087361E-4</v>
       </c>
       <c r="V16">
-        <v>1.3460914693480381E-4</v>
+        <v>1.3461045679977421E-4</v>
       </c>
       <c r="W16">
-        <v>2.243756081738566E-3</v>
+        <v>2.2437779154516591E-3</v>
       </c>
       <c r="X16">
-        <v>5.6762893285760616E-6</v>
+        <v>5.6763445638459006E-6</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>4.8653908530651959E-6</v>
+        <v>4.8654381975822017E-6</v>
       </c>
       <c r="AA16">
-        <v>5.2708400908206302E-5</v>
+        <v>5.2708913807140523E-5</v>
       </c>
       <c r="AB16">
         <v>0</v>
       </c>
       <c r="AC16">
-        <v>8.919883230619527E-6</v>
+        <v>8.9199700289007021E-6</v>
       </c>
       <c r="AD16">
         <v>0</v>
       </c>
       <c r="AE16">
-        <v>8.4252351605578987E-4</v>
+        <v>8.4253171454798457E-4</v>
       </c>
       <c r="AF16">
-        <v>7.0548167369445346E-5</v>
+        <v>7.0548853864941917E-5</v>
       </c>
       <c r="AG16">
-        <v>8.1089847551086602E-7</v>
+        <v>8.1090636626370026E-7</v>
       </c>
       <c r="AH16">
         <v>0</v>
       </c>
       <c r="AI16">
-        <v>3.5598443074927018E-4</v>
+        <v>3.5598789478976441E-4</v>
       </c>
     </row>
     <row r="17" spans="1:35">
@@ -2195,106 +2195,106 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.4974051248783649E-3</v>
+        <v>3.4974391576953392E-3</v>
       </c>
       <c r="C17">
-        <v>9.93512812195913E-3</v>
+        <v>9.9352247994628565E-3</v>
       </c>
       <c r="D17">
-        <v>3.2435939020434641E-6</v>
+        <v>3.243625465054801E-6</v>
       </c>
       <c r="E17">
-        <v>9.7307817061303918E-6</v>
+        <v>9.7308763951644035E-6</v>
       </c>
       <c r="F17">
-        <v>3.1625040544923779E-5</v>
+        <v>3.162534828428431E-5</v>
       </c>
       <c r="G17">
-        <v>2.8543626337982492E-4</v>
+        <v>2.8543904092482252E-4</v>
       </c>
       <c r="H17">
-        <v>1.112228349010704E-2</v>
+        <v>1.112239171967291E-2</v>
       </c>
       <c r="I17">
-        <v>2.432695426532598E-6</v>
+        <v>2.4327190987911009E-6</v>
       </c>
       <c r="J17">
-        <v>1.621796951021732E-6</v>
+        <v>1.6218127325274009E-6</v>
       </c>
       <c r="K17">
-        <v>1.297437560817386E-5</v>
+        <v>1.2974501860219201E-5</v>
       </c>
       <c r="L17">
-        <v>6.9299383717158613E-3</v>
+        <v>6.9300058060895826E-3</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>3.073305222186182E-4</v>
+        <v>3.0733351281394243E-4</v>
       </c>
       <c r="O17">
-        <v>8.1089847551086602E-7</v>
+        <v>8.1090636626370026E-7</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>2.526759649691858E-3</v>
+        <v>2.5267842372776899E-3</v>
       </c>
       <c r="R17">
-        <v>1.042166720726565E-2</v>
+        <v>1.042176861922108E-2</v>
       </c>
       <c r="S17">
-        <v>1.621796951021732E-6</v>
+        <v>1.6218127325274009E-6</v>
       </c>
       <c r="T17">
-        <v>9.0009730781706129E-5</v>
+        <v>9.0010606655270724E-5</v>
       </c>
       <c r="U17">
-        <v>2.6273110606552061E-4</v>
+        <v>2.6273366266943887E-4</v>
       </c>
       <c r="V17">
-        <v>3.4219915666558551E-4</v>
+        <v>3.4220248656328147E-4</v>
       </c>
       <c r="W17">
-        <v>2.2445669802140769E-3</v>
+        <v>2.2445888218179219E-3</v>
       </c>
       <c r="X17">
-        <v>4.6221213104119363E-5</v>
+        <v>4.6221662877030918E-5</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>1.5974699967564061E-4</v>
+        <v>1.5974855415394889E-4</v>
       </c>
       <c r="AA17">
-        <v>2.9678884203697701E-4</v>
+        <v>2.9679173005251429E-4</v>
       </c>
       <c r="AB17">
-        <v>1.6217969510217321E-5</v>
+        <v>1.6218127325274001E-5</v>
       </c>
       <c r="AC17">
-        <v>1.0298410638987999E-4</v>
+        <v>1.0298510851548991E-4</v>
       </c>
       <c r="AD17">
         <v>0</v>
       </c>
       <c r="AE17">
-        <v>2.486214725916315E-3</v>
+        <v>2.4862389189645052E-3</v>
       </c>
       <c r="AF17">
-        <v>1.1060655205968209E-3</v>
+        <v>1.106076283583687E-3</v>
       </c>
       <c r="AG17">
         <v>0</v>
       </c>
       <c r="AH17">
-        <v>1.5731430424910801E-4</v>
+        <v>1.5731583505515791E-4</v>
       </c>
       <c r="AI17">
-        <v>3.447129419396692E-3</v>
+        <v>3.4471629629869902E-3</v>
       </c>
     </row>
     <row r="18" spans="1:35">
@@ -2302,88 +2302,88 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.460103795004865E-2</v>
+        <v>2.4601277339708141E-2</v>
       </c>
       <c r="C18">
-        <v>4.0544923775543302E-6</v>
+        <v>4.0545318313185012E-6</v>
       </c>
       <c r="D18">
-        <v>3.209536166072008E-3</v>
+        <v>3.2095673976717258E-3</v>
       </c>
       <c r="E18">
-        <v>7.1245540058384694E-3</v>
+        <v>7.1246233339928708E-3</v>
       </c>
       <c r="F18">
-        <v>4.7859228024651314E-3</v>
+        <v>4.7859693736883591E-3</v>
       </c>
       <c r="G18">
-        <v>4.2434317223483623E-3</v>
+        <v>4.2434730146579426E-3</v>
       </c>
       <c r="H18">
-        <v>1.9502108336036329E-3</v>
+        <v>1.9502298108641991E-3</v>
       </c>
       <c r="I18">
-        <v>1.621796951021732E-6</v>
+        <v>1.6218127325274009E-6</v>
       </c>
       <c r="J18">
-        <v>2.4643204670775219E-3</v>
+        <v>2.4643444470753852E-3</v>
       </c>
       <c r="K18">
-        <v>8.8793383068439837E-4</v>
+        <v>8.8794247105875176E-4</v>
       </c>
       <c r="L18">
-        <v>7.225105416801816E-4</v>
+        <v>7.2251757234095696E-4</v>
       </c>
       <c r="M18">
-        <v>2.7319169639961078E-3</v>
+        <v>2.731943547942406E-3</v>
       </c>
       <c r="N18">
-        <v>1.7791112552708399E-3</v>
+        <v>1.779128567582558E-3</v>
       </c>
       <c r="O18">
-        <v>5.0527084009082063E-3</v>
+        <v>5.0527575681891162E-3</v>
       </c>
       <c r="P18">
-        <v>5.2002919234511837E-3</v>
+        <v>5.2003425268491096E-3</v>
       </c>
       <c r="Q18">
-        <v>5.4597794356146612E-3</v>
+        <v>5.4598325640534944E-3</v>
       </c>
       <c r="R18">
-        <v>1.929938371715861E-4</v>
+        <v>1.929957151707607E-4</v>
       </c>
       <c r="S18">
-        <v>1.243918261433668E-3</v>
+        <v>1.2439303658485161E-3</v>
       </c>
       <c r="T18">
-        <v>4.6691534219915664E-3</v>
+        <v>4.6691988569463874E-3</v>
       </c>
       <c r="U18">
-        <v>5.5838469023678236E-3</v>
+        <v>5.5839012380918401E-3</v>
       </c>
       <c r="V18">
-        <v>6.3282517028867983E-3</v>
+        <v>6.3283132823219171E-3</v>
       </c>
       <c r="W18">
-        <v>1.0622770029192341E-4</v>
+        <v>1.062287339805447E-4</v>
       </c>
       <c r="X18">
-        <v>3.2111579630230298E-4</v>
+        <v>3.2111892104042531E-4</v>
       </c>
       <c r="Y18">
-        <v>3.2679208563087903E-4</v>
+        <v>3.2679526560427122E-4</v>
       </c>
       <c r="Z18">
-        <v>1.2893285760622771E-4</v>
+        <v>1.2893411223592841E-4</v>
       </c>
       <c r="AA18">
-        <v>2.4643204670775219E-3</v>
+        <v>2.4643444470753852E-3</v>
       </c>
       <c r="AB18">
-        <v>8.4333441453130072E-4</v>
+        <v>8.4334262091424826E-4</v>
       </c>
       <c r="AC18">
-        <v>1.8488485241647751E-4</v>
+        <v>1.848866515081237E-4</v>
       </c>
       <c r="AD18">
         <v>0</v>
@@ -2395,13 +2395,13 @@
         <v>0</v>
       </c>
       <c r="AG18">
-        <v>2.027246188777165E-5</v>
+        <v>2.027265915659251E-5</v>
       </c>
       <c r="AH18">
-        <v>5.8465780084333439E-4</v>
+        <v>5.8466349007612792E-4</v>
       </c>
       <c r="AI18">
-        <v>5.7654881608822572E-4</v>
+        <v>5.7655442641349084E-4</v>
       </c>
     </row>
     <row r="19" spans="1:35">
@@ -2409,10 +2409,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.7301329873499841E-5</v>
+        <v>3.7301692848130208E-5</v>
       </c>
       <c r="C19">
-        <v>1.3039247486214729E-3</v>
+        <v>1.3039374369520299E-3</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -2427,7 +2427,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>2.096172559195589E-3</v>
+        <v>2.0953820504254019E-3</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -2439,76 +2439,76 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>7.8657152124554002E-4</v>
+        <v>7.8657917527578925E-4</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>6.1628284138825817E-5</v>
+        <v>6.162888383604122E-5</v>
       </c>
       <c r="O19">
-        <v>4.3301978592280251E-4</v>
+        <v>4.3302399958481601E-4</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.094712941939669E-4</v>
+        <v>1.094723594455995E-4</v>
       </c>
       <c r="R19">
-        <v>8.8298734998378207E-3</v>
+        <v>8.8299594222454314E-3</v>
       </c>
       <c r="S19">
-        <v>5.3438209536166075E-4</v>
+        <v>5.3438729536777851E-4</v>
       </c>
       <c r="T19">
-        <v>6.8910152448913393E-3</v>
+        <v>6.8910823005089248E-3</v>
       </c>
       <c r="U19">
-        <v>2.7570548167369449E-5</v>
+        <v>2.7570816452965811E-5</v>
       </c>
       <c r="V19">
-        <v>1.4920531949399939E-4</v>
+        <v>1.4920677139252091E-4</v>
       </c>
       <c r="W19">
-        <v>5.4086928316574761E-4</v>
+        <v>5.4087454629788811E-4</v>
       </c>
       <c r="X19">
-        <v>8.1089847551086602E-7</v>
+        <v>8.1090636626370026E-7</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>1.216347713266299E-5</v>
+        <v>1.2163595493955499E-5</v>
       </c>
       <c r="AA19">
-        <v>1.135257865715212E-5</v>
+        <v>1.13526891276918E-5</v>
       </c>
       <c r="AB19">
-        <v>2.432695426532598E-6</v>
+        <v>2.4327190987911009E-6</v>
       </c>
       <c r="AC19">
-        <v>8.1089847551086602E-7</v>
+        <v>8.1090636626370026E-7</v>
       </c>
       <c r="AD19">
         <v>0</v>
       </c>
       <c r="AE19">
-        <v>1.8975024326954259E-4</v>
+        <v>1.897520897057059E-4</v>
       </c>
       <c r="AF19">
-        <v>5.7573791761271488E-5</v>
+        <v>5.7574352004722721E-5</v>
       </c>
       <c r="AG19">
         <v>0</v>
       </c>
       <c r="AH19">
-        <v>3.2435939020434641E-6</v>
+        <v>3.243625465054801E-6</v>
       </c>
       <c r="AI19">
-        <v>4.8653908530651958E-4</v>
+        <v>4.8654381975822022E-4</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -2516,106 +2516,106 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.7735971456373658E-4</v>
+        <v>5.7736533277975464E-4</v>
       </c>
       <c r="C20">
-        <v>6.6031462860849819E-3</v>
+        <v>6.603210540485311E-3</v>
       </c>
       <c r="D20">
-        <v>1.2325656827765161E-4</v>
+        <v>1.2325776767208241E-4</v>
       </c>
       <c r="E20">
-        <v>3.867985728186831E-4</v>
+        <v>3.8599143034152129E-4</v>
       </c>
       <c r="F20">
-        <v>1.4677262406746671E-4</v>
+        <v>1.4677405229372969E-4</v>
       </c>
       <c r="G20">
-        <v>7.1845604930262732E-4</v>
+        <v>7.1846304050963842E-4</v>
       </c>
       <c r="H20">
-        <v>5.06568277651638E-3</v>
+        <v>5.0657320700493351E-3</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>2.3921505027570551E-4</v>
+        <v>2.392173780477916E-4</v>
       </c>
       <c r="K20">
-        <v>3.5679532922478108E-5</v>
+        <v>3.5679880115602808E-5</v>
       </c>
       <c r="L20">
-        <v>4.3991242296464476E-3</v>
+        <v>4.3991670369805738E-3</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.792085630879014E-4</v>
+        <v>1.7921030694427779E-4</v>
       </c>
       <c r="O20">
-        <v>5.5141096334738892E-5</v>
+        <v>5.5141632905931622E-5</v>
       </c>
       <c r="P20">
-        <v>2.0191372040220571E-4</v>
+        <v>2.0191568519966141E-4</v>
       </c>
       <c r="Q20">
-        <v>5.6519623743107362E-4</v>
+        <v>5.6520173728579913E-4</v>
       </c>
       <c r="R20">
-        <v>6.7774894583198181E-3</v>
+        <v>6.777555409232007E-3</v>
       </c>
       <c r="S20">
-        <v>1.192020759000973E-4</v>
+        <v>1.192032358407639E-4</v>
       </c>
       <c r="T20">
-        <v>6.649367499189101E-5</v>
+        <v>6.6494322033623418E-5</v>
       </c>
       <c r="U20">
-        <v>9.0820629257216999E-5</v>
+        <v>9.0821513021534424E-5</v>
       </c>
       <c r="V20">
-        <v>4.1436912098605249E-4</v>
+        <v>4.1437315316075079E-4</v>
       </c>
       <c r="W20">
-        <v>2.281057411612066E-3</v>
+        <v>2.2810796082997891E-3</v>
       </c>
       <c r="X20">
-        <v>6.5682776516380153E-5</v>
+        <v>6.5683415667359718E-5</v>
       </c>
       <c r="Y20">
-        <v>5.9195588712293221E-5</v>
+        <v>5.9196164737250121E-5</v>
       </c>
       <c r="Z20">
-        <v>1.3785274083684719E-5</v>
+        <v>1.37854082264829E-5</v>
       </c>
       <c r="AA20">
-        <v>5.6762893285760618E-5</v>
+        <v>5.6763445638459021E-5</v>
       </c>
       <c r="AB20">
-        <v>2.9273434965942262E-4</v>
+        <v>2.927371982211958E-4</v>
       </c>
       <c r="AC20">
-        <v>1.135257865715212E-5</v>
+        <v>1.13526891276918E-5</v>
       </c>
       <c r="AD20">
         <v>0</v>
       </c>
       <c r="AE20">
-        <v>9.1226078494972428E-4</v>
+        <v>9.1226966204666277E-4</v>
       </c>
       <c r="AF20">
-        <v>8.9604281543950693E-4</v>
+        <v>8.9605153472138883E-4</v>
       </c>
       <c r="AG20">
-        <v>1.621796951021732E-6</v>
+        <v>1.6218127325274009E-6</v>
       </c>
       <c r="AH20">
-        <v>1.8488485241647751E-4</v>
+        <v>1.848866515081237E-4</v>
       </c>
       <c r="AI20">
-        <v>9.8199805384365868E-4</v>
+        <v>9.8200760954534109E-4</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -2623,106 +2623,106 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.594712941939669E-3</v>
+        <v>3.5947479216469828E-3</v>
       </c>
       <c r="C21">
-        <v>1.858579305870905E-3</v>
+        <v>1.858597391476401E-3</v>
       </c>
       <c r="D21">
-        <v>5.4330197859228022E-5</v>
+        <v>5.4330726539667922E-5</v>
       </c>
       <c r="E21">
-        <v>1.2463509568602009E-3</v>
+        <v>1.2463630849473069E-3</v>
       </c>
       <c r="F21">
-        <v>1.7839766461239051E-5</v>
+        <v>1.7839940057801401E-5</v>
       </c>
       <c r="G21">
-        <v>1.710995783327927E-4</v>
+        <v>1.7110124328164079E-4</v>
       </c>
       <c r="H21">
-        <v>3.750405449237756E-3</v>
+        <v>3.750441943969614E-3</v>
       </c>
       <c r="I21">
-        <v>6.527732727862472E-4</v>
+        <v>6.5277962484227875E-4</v>
       </c>
       <c r="J21">
-        <v>1.7839766461239051E-5</v>
+        <v>1.7839940057801401E-5</v>
       </c>
       <c r="K21">
-        <v>9.7307817061303918E-6</v>
+        <v>9.7308763951644035E-6</v>
       </c>
       <c r="L21">
-        <v>1.290139474537788E-3</v>
+        <v>1.290152028725547E-3</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>3.2452156989944861E-3</v>
+        <v>3.245247277787328E-3</v>
       </c>
       <c r="O21">
-        <v>2.882744080441129E-3</v>
+        <v>2.8827721320674538E-3</v>
       </c>
       <c r="P21">
-        <v>1.183100875770353E-3</v>
+        <v>1.1831123883787389E-3</v>
       </c>
       <c r="Q21">
-        <v>9.0982808952319171E-4</v>
+        <v>9.0983694294787172E-4</v>
       </c>
       <c r="R21">
-        <v>2.4497242945183259E-3</v>
+        <v>2.449748132482638E-3</v>
       </c>
       <c r="S21">
-        <v>1.673694453454428E-3</v>
+        <v>1.6737107399682771E-3</v>
       </c>
       <c r="T21">
-        <v>1.27311060655206E-4</v>
+        <v>1.2731229950340101E-4</v>
       </c>
       <c r="U21">
-        <v>7.152124554005839E-4</v>
+        <v>7.1521941504458367E-4</v>
       </c>
       <c r="V21">
-        <v>9.704022056438534E-3</v>
+        <v>9.703305578711437E-3</v>
       </c>
       <c r="W21">
-        <v>5.5789815115147581E-4</v>
+        <v>5.5790357998942574E-4</v>
       </c>
       <c r="X21">
-        <v>3.2435939020434641E-6</v>
+        <v>3.243625465054801E-6</v>
       </c>
       <c r="Y21">
-        <v>1.8893934479403179E-4</v>
+        <v>1.8894118333944221E-4</v>
       </c>
       <c r="Z21">
-        <v>3.7301329873499841E-5</v>
+        <v>3.7301692848130208E-5</v>
       </c>
       <c r="AA21">
-        <v>4.1680181641258522E-4</v>
+        <v>4.1680587225954201E-4</v>
       </c>
       <c r="AB21">
-        <v>1.15147583522543E-4</v>
+        <v>1.151487040094454E-4</v>
       </c>
       <c r="AC21">
         <v>0</v>
       </c>
       <c r="AD21">
-        <v>1.6217969510217321E-5</v>
+        <v>1.6218127325274001E-5</v>
       </c>
       <c r="AE21">
-        <v>1.9948102497567311E-4</v>
+        <v>1.994829661008703E-4</v>
       </c>
       <c r="AF21">
-        <v>3.253324683749594E-3</v>
+        <v>3.2533563414499649E-3</v>
       </c>
       <c r="AG21">
         <v>0</v>
       </c>
       <c r="AH21">
-        <v>2.2786247161855341E-4</v>
+        <v>2.278646889200998E-4</v>
       </c>
       <c r="AI21">
-        <v>3.7471618553357121E-3</v>
+        <v>3.7471983185045589E-3</v>
       </c>
     </row>
     <row r="22" spans="1:35">
@@ -2730,106 +2730,106 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.754946480700616E-3</v>
+        <v>5.7550024813734814E-3</v>
       </c>
       <c r="C22">
-        <v>5.8263055465455722E-3</v>
+        <v>5.8263622416046866E-3</v>
       </c>
       <c r="D22">
-        <v>8.1089847551086604E-6</v>
+        <v>8.1090636626370023E-6</v>
       </c>
       <c r="E22">
-        <v>2.1926694777813821E-3</v>
+        <v>2.192690814377046E-3</v>
       </c>
       <c r="F22">
-        <v>1.216347713266299E-5</v>
+        <v>1.2163595493955499E-5</v>
       </c>
       <c r="G22">
-        <v>7.3791761271488812E-5</v>
+        <v>7.3792479329996729E-5</v>
       </c>
       <c r="H22">
-        <v>5.4954589685371393E-3</v>
+        <v>5.4955124441690966E-3</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.1089847551086602E-7</v>
+        <v>8.1090636626370026E-7</v>
       </c>
       <c r="K22">
-        <v>6.4871878040869282E-6</v>
+        <v>6.487250930109602E-6</v>
       </c>
       <c r="L22">
-        <v>3.6393123580927668E-3</v>
+        <v>3.6393477717914869E-3</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>3.3409017191047679E-4</v>
+        <v>3.340934229006445E-4</v>
       </c>
       <c r="O22">
-        <v>2.5218942588387932E-4</v>
+        <v>2.5219187990801079E-4</v>
       </c>
       <c r="P22">
-        <v>1.4596172559195589E-5</v>
+        <v>1.459631459274661E-5</v>
       </c>
       <c r="Q22">
-        <v>8.6928316574764835E-4</v>
+        <v>8.6929162463468665E-4</v>
       </c>
       <c r="R22">
-        <v>1.451589361012001E-2</v>
+        <v>1.4516034862486499E-2</v>
       </c>
       <c r="S22">
-        <v>8.6766136879662663E-5</v>
+        <v>8.6766981190215925E-5</v>
       </c>
       <c r="T22">
-        <v>2.3751216347713271E-3</v>
+        <v>2.375144746786378E-3</v>
       </c>
       <c r="U22">
-        <v>1.100389231268245E-3</v>
+        <v>1.100399939019841E-3</v>
       </c>
       <c r="V22">
-        <v>5.6762893285760618E-5</v>
+        <v>5.6763445638459021E-5</v>
       </c>
       <c r="W22">
-        <v>1.3898799870256241E-3</v>
+        <v>1.389893511775982E-3</v>
       </c>
       <c r="X22">
-        <v>3.2435939020434641E-6</v>
+        <v>3.243625465054801E-6</v>
       </c>
       <c r="Y22">
-        <v>6.4871878040869282E-6</v>
+        <v>6.487250930109602E-6</v>
       </c>
       <c r="Z22">
-        <v>5.1086603957184562E-5</v>
+        <v>5.1087101074613117E-5</v>
       </c>
       <c r="AA22">
-        <v>2.6921829386960752E-4</v>
+        <v>2.6922091359954853E-4</v>
       </c>
       <c r="AB22">
-        <v>9.7307817061303918E-6</v>
+        <v>9.7308763951644035E-6</v>
       </c>
       <c r="AC22">
-        <v>2.108336036328252E-5</v>
+        <v>2.108356552285621E-5</v>
       </c>
       <c r="AD22">
-        <v>1.3785274083684719E-5</v>
+        <v>1.37854082264829E-5</v>
       </c>
       <c r="AE22">
-        <v>1.1482322413233861E-3</v>
+        <v>1.1482434146294E-3</v>
       </c>
       <c r="AF22">
-        <v>6.4936749918910151E-3</v>
+        <v>6.4929272746734479E-3</v>
       </c>
       <c r="AG22">
-        <v>8.1089847551086602E-7</v>
+        <v>8.1090636626370026E-7</v>
       </c>
       <c r="AH22">
-        <v>3.9734025300032437E-5</v>
+        <v>3.9734411946921307E-5</v>
       </c>
       <c r="AI22">
-        <v>4.5896853713915019E-4</v>
+        <v>4.5897300330525429E-4</v>
       </c>
     </row>
     <row r="23" spans="1:35">
@@ -2837,88 +2837,88 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.2495945507622446E-3</v>
+        <v>6.2496553647943378E-3</v>
       </c>
       <c r="C23">
-        <v>3.6490431397988971E-5</v>
+        <v>3.6490786481866508E-5</v>
       </c>
       <c r="D23">
-        <v>4.8491728835549792E-4</v>
+        <v>4.8492200702569268E-4</v>
       </c>
       <c r="E23">
-        <v>6.6818034382095358E-4</v>
+        <v>6.6818684580128901E-4</v>
       </c>
       <c r="F23">
-        <v>1.4101524489133961E-3</v>
+        <v>1.410166170932575E-3</v>
       </c>
       <c r="G23">
-        <v>1.6331495296788841E-3</v>
+        <v>1.6331654216550919E-3</v>
       </c>
       <c r="H23">
-        <v>1.646123905287058E-4</v>
+        <v>1.6461399235153119E-4</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.594226402854363E-3</v>
+        <v>1.594241916074435E-3</v>
       </c>
       <c r="K23">
-        <v>2.6354200454103152E-4</v>
+        <v>2.6354456903570261E-4</v>
       </c>
       <c r="L23">
-        <v>1.297437560817386E-5</v>
+        <v>1.2974501860219201E-5</v>
       </c>
       <c r="M23">
-        <v>1.5163801492053199E-4</v>
+        <v>1.5163949049131189E-4</v>
       </c>
       <c r="N23">
-        <v>5.5465455724943238E-4</v>
+        <v>5.5465995452437099E-4</v>
       </c>
       <c r="O23">
-        <v>1.03957184560493E-3</v>
+        <v>1.0395819615500641E-3</v>
       </c>
       <c r="P23">
-        <v>1.2779759974051251E-3</v>
+        <v>1.277988433231592E-3</v>
       </c>
       <c r="Q23">
-        <v>1.8731754784300999E-4</v>
+        <v>1.8731937060691481E-4</v>
       </c>
       <c r="R23">
-        <v>1.135257865715212E-5</v>
+        <v>1.13526891276918E-5</v>
       </c>
       <c r="S23">
-        <v>5.3194939993512808E-4</v>
+        <v>5.3195457626898735E-4</v>
       </c>
       <c r="T23">
-        <v>4.605903340901719E-4</v>
+        <v>4.6059481603778182E-4</v>
       </c>
       <c r="U23">
-        <v>9.2361336360687637E-4</v>
+        <v>9.236223511743546E-4</v>
       </c>
       <c r="V23">
-        <v>1.532598118715537E-3</v>
+        <v>1.532613032238394E-3</v>
       </c>
       <c r="W23">
-        <v>8.1089847551086602E-7</v>
+        <v>8.1090636626370026E-7</v>
       </c>
       <c r="X23">
-        <v>2.432695426532598E-6</v>
+        <v>2.4327190987911009E-6</v>
       </c>
       <c r="Y23">
-        <v>3.2030489782679212E-4</v>
+        <v>3.2030801467416162E-4</v>
       </c>
       <c r="Z23">
-        <v>4.0544923775543302E-6</v>
+        <v>4.0545318313185012E-6</v>
       </c>
       <c r="AA23">
-        <v>7.890042166720727E-4</v>
+        <v>7.8901189437458031E-4</v>
       </c>
       <c r="AB23">
-        <v>5.4816736944534542E-4</v>
+        <v>5.4817270359426139E-4</v>
       </c>
       <c r="AC23">
-        <v>2.4732403503081412E-4</v>
+        <v>2.4732644171042862E-4</v>
       </c>
       <c r="AD23">
         <v>0</v>
@@ -2930,13 +2930,13 @@
         <v>0</v>
       </c>
       <c r="AG23">
-        <v>1.297437560817386E-5</v>
+        <v>1.2974501860219201E-5</v>
       </c>
       <c r="AH23">
-        <v>7.2980862795977942E-4</v>
+        <v>7.2981572963733024E-4</v>
       </c>
       <c r="AI23">
-        <v>2.5948751216347709E-5</v>
+        <v>2.5949003720438412E-5</v>
       </c>
     </row>
     <row r="24" spans="1:35">
@@ -2944,10 +2944,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.270515731430425E-5</v>
+        <v>2.2705378255383609E-5</v>
       </c>
       <c r="C24">
-        <v>2.1083360363282521E-4</v>
+        <v>2.1083565522856209E-4</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>3.1219591307168339E-4</v>
+        <v>3.121989510115246E-4</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -2974,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>4.5167045085955237E-4</v>
+        <v>4.5167484600888111E-4</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -2983,34 +2983,34 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.135257865715212E-5</v>
+        <v>1.13526891276918E-5</v>
       </c>
       <c r="P24">
-        <v>3.2435939020434641E-6</v>
+        <v>3.243625465054801E-6</v>
       </c>
       <c r="Q24">
-        <v>1.297437560817386E-5</v>
+        <v>1.2974501860219201E-5</v>
       </c>
       <c r="R24">
-        <v>8.2711644502108341E-5</v>
+        <v>8.2712449358897426E-5</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>8.6766136879662663E-5</v>
+        <v>8.6766981190215925E-5</v>
       </c>
       <c r="U24">
-        <v>1.621796951021732E-6</v>
+        <v>1.6218127325274009E-6</v>
       </c>
       <c r="V24">
-        <v>1.4596172559195589E-5</v>
+        <v>1.459631459274661E-5</v>
       </c>
       <c r="W24">
-        <v>5.3519299383717158E-5</v>
+        <v>5.3519820173404223E-5</v>
       </c>
       <c r="X24">
-        <v>1.297437560817386E-5</v>
+        <v>1.2974501860219201E-5</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -3031,10 +3031,10 @@
         <v>0</v>
       </c>
       <c r="AE24">
-        <v>3.2435939020434641E-6</v>
+        <v>3.243625465054801E-6</v>
       </c>
       <c r="AF24">
-        <v>2.4083684722672719E-4</v>
+        <v>2.4083919078031899E-4</v>
       </c>
       <c r="AG24">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="AI24">
-        <v>8.1089847551086602E-7</v>
+        <v>8.1090636626370026E-7</v>
       </c>
     </row>
     <row r="25" spans="1:35">
@@ -3051,16 +3051,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.6078494972429449E-3</v>
+        <v>2.6078748739040598E-3</v>
       </c>
       <c r="C25">
-        <v>4.1112552708400912E-4</v>
+        <v>4.1112952769569599E-4</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.9542653259811869E-4</v>
+        <v>1.9542843426955181E-4</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -3069,7 +3069,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>6.811547194291275E-5</v>
+        <v>6.8116134766150818E-5</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -3081,46 +3081,46 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.1271488809601041E-4</v>
+        <v>1.127159849106543E-4</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>3.2435939020434641E-6</v>
+        <v>3.243625465054801E-6</v>
       </c>
       <c r="O25">
-        <v>7.5413558222510538E-5</v>
+        <v>7.5414292062524129E-5</v>
       </c>
       <c r="P25">
-        <v>6.3250081089847557E-5</v>
+        <v>6.3250696568568619E-5</v>
       </c>
       <c r="Q25">
-        <v>1.256892637041842E-4</v>
+        <v>1.2569048677087361E-4</v>
       </c>
       <c r="R25">
-        <v>2.1861822899772948E-3</v>
+        <v>2.1862035634469361E-3</v>
       </c>
       <c r="S25">
-        <v>1.621796951021732E-6</v>
+        <v>1.6218127325274009E-6</v>
       </c>
       <c r="T25">
-        <v>6.4871878040869283E-5</v>
+        <v>6.4872509301096019E-5</v>
       </c>
       <c r="U25">
-        <v>3.7301329873499841E-5</v>
+        <v>3.7301692848130208E-5</v>
       </c>
       <c r="V25">
-        <v>1.865066493674992E-5</v>
+        <v>1.8650846424065111E-5</v>
       </c>
       <c r="W25">
-        <v>8.5955238404151807E-5</v>
+        <v>8.5956074823952225E-5</v>
       </c>
       <c r="X25">
         <v>0</v>
       </c>
       <c r="Y25">
-        <v>8.1089847551086602E-7</v>
+        <v>8.1090636626370026E-7</v>
       </c>
       <c r="Z25">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="AB25">
-        <v>4.0544923775543302E-6</v>
+        <v>4.0545318313185012E-6</v>
       </c>
       <c r="AC25">
         <v>0</v>
@@ -3144,7 +3144,7 @@
         <v>0</v>
       </c>
       <c r="AG25">
-        <v>8.1089847551086602E-7</v>
+        <v>8.1090636626370026E-7</v>
       </c>
       <c r="AH25">
         <v>0</v>
@@ -3158,16 +3158,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>4.200454103146286E-4</v>
+        <v>4.2004949772459681E-4</v>
       </c>
       <c r="C26">
-        <v>5.8790139474537793E-4</v>
+        <v>5.8790711554118267E-4</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>2.027246188777165E-5</v>
+        <v>2.027265915659251E-5</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -3176,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>6.5601686668829062E-4</v>
+        <v>6.560232503073335E-4</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -3188,28 +3188,28 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <v>1.2163477132662989E-4</v>
+        <v>1.21635954939555E-4</v>
       </c>
       <c r="M26">
         <v>0</v>
       </c>
       <c r="N26">
-        <v>6.730457346740188E-5</v>
+        <v>6.7305228399887118E-5</v>
       </c>
       <c r="O26">
         <v>0</v>
       </c>
       <c r="P26">
-        <v>3.2435939020434641E-6</v>
+        <v>3.243625465054801E-6</v>
       </c>
       <c r="Q26">
         <v>0</v>
       </c>
       <c r="R26">
-        <v>2.0272461887771651E-4</v>
+        <v>2.0272659156592509E-4</v>
       </c>
       <c r="S26">
-        <v>8.1089847551086602E-7</v>
+        <v>8.1090636626370026E-7</v>
       </c>
       <c r="T26">
         <v>0</v>
@@ -3218,10 +3218,10 @@
         <v>0</v>
       </c>
       <c r="V26">
-        <v>3.2435939020434641E-6</v>
+        <v>3.243625465054801E-6</v>
       </c>
       <c r="W26">
-        <v>1.3704184236133641E-4</v>
+        <v>1.3704317589856529E-4</v>
       </c>
       <c r="X26">
         <v>0</v>
@@ -3233,7 +3233,7 @@
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>8.1089847551086602E-7</v>
+        <v>8.1090636626370026E-7</v>
       </c>
       <c r="AB26">
         <v>0</v>
@@ -3245,13 +3245,13 @@
         <v>0</v>
       </c>
       <c r="AE26">
-        <v>1.9380473564709701E-4</v>
+        <v>1.9380662153702441E-4</v>
       </c>
       <c r="AF26">
         <v>0</v>
       </c>
       <c r="AG26">
-        <v>8.1089847551086602E-7</v>
+        <v>8.1090636626370026E-7</v>
       </c>
       <c r="AH26">
         <v>0</v>
@@ -3265,16 +3265,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>4.7194291274732411E-4</v>
+        <v>4.7194750516547348E-4</v>
       </c>
       <c r="C27">
-        <v>2.78057087252676E-3</v>
+        <v>2.7797870235519639E-3</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>1.621796951021732E-6</v>
+        <v>1.6218127325274009E-6</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -3283,10 +3283,10 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>3.957184560493026E-3</v>
+        <v>3.957223067366857E-3</v>
       </c>
       <c r="I27">
-        <v>8.1089847551086602E-7</v>
+        <v>8.1090636626370026E-7</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -3295,40 +3295,40 @@
         <v>0</v>
       </c>
       <c r="L27">
-        <v>1.630716834252352E-3</v>
+        <v>1.6307327025563011E-3</v>
       </c>
       <c r="M27">
         <v>0</v>
       </c>
       <c r="N27">
-        <v>2.3678235484917291E-4</v>
+        <v>2.3678465894900051E-4</v>
       </c>
       <c r="O27">
-        <v>3.3246837495945498E-5</v>
+        <v>3.3247161016811709E-5</v>
       </c>
       <c r="P27">
-        <v>8.1089847551086602E-7</v>
+        <v>8.1090636626370026E-7</v>
       </c>
       <c r="Q27">
-        <v>8.5063250081089843E-4</v>
+        <v>8.5064077821062154E-4</v>
       </c>
       <c r="R27">
-        <v>7.0548167369445346E-5</v>
+        <v>7.0548853864941917E-5</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>2.9759974051248782E-4</v>
+        <v>2.9760263641877798E-4</v>
       </c>
       <c r="U27">
-        <v>2.432695426532598E-6</v>
+        <v>2.4327190987911009E-6</v>
       </c>
       <c r="V27">
-        <v>4.5945507622445671E-3</v>
+        <v>4.5945954712501257E-3</v>
       </c>
       <c r="W27">
-        <v>6.527732727862472E-4</v>
+        <v>6.5277962484227875E-4</v>
       </c>
       <c r="X27">
         <v>0</v>
@@ -3340,10 +3340,10 @@
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>8.1089847551086602E-7</v>
+        <v>8.1090636626370026E-7</v>
       </c>
       <c r="AB27">
-        <v>1.4028543626337981E-4</v>
+        <v>1.4028680136362009E-4</v>
       </c>
       <c r="AC27">
         <v>0</v>
@@ -3355,7 +3355,7 @@
         <v>0</v>
       </c>
       <c r="AF27">
-        <v>1.9542653259811869E-4</v>
+        <v>1.9542843426955181E-4</v>
       </c>
       <c r="AG27">
         <v>0</v>
@@ -3372,16 +3372,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>8.6766136879662663E-5</v>
+        <v>8.6766981190215925E-5</v>
       </c>
       <c r="C28">
-        <v>8.5955238404151796E-4</v>
+        <v>8.5956074823952231E-4</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>5.9195588712293221E-5</v>
+        <v>5.9196164737250121E-5</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>2.0904962698670131E-3</v>
+        <v>2.090516612227819E-3</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -3402,40 +3402,40 @@
         <v>0</v>
       </c>
       <c r="L28">
-        <v>1.373662017515407E-3</v>
+        <v>1.373675384450708E-3</v>
       </c>
       <c r="M28">
         <v>0</v>
       </c>
       <c r="N28">
-        <v>5.0600064871878046E-4</v>
+        <v>5.0600557254854895E-4</v>
       </c>
       <c r="O28">
-        <v>5.0032435939020435E-4</v>
+        <v>5.0032922798470304E-4</v>
       </c>
       <c r="P28">
-        <v>1.5407071034706451E-5</v>
+        <v>1.5407220959010302E-5</v>
       </c>
       <c r="Q28">
-        <v>3.4706454751865071E-4</v>
+        <v>3.470679247608637E-4</v>
       </c>
       <c r="R28">
-        <v>2.1975348686344471E-4</v>
+        <v>2.197556252574628E-4</v>
       </c>
       <c r="S28">
-        <v>1.135257865715212E-5</v>
+        <v>1.13526891276918E-5</v>
       </c>
       <c r="T28">
-        <v>1.054168018164126E-5</v>
+        <v>1.05417827614281E-5</v>
       </c>
       <c r="U28">
         <v>0</v>
       </c>
       <c r="V28">
-        <v>2.5137852740836849E-5</v>
+        <v>2.5138097354174708E-5</v>
       </c>
       <c r="W28">
-        <v>2.6110930911449879E-4</v>
+        <v>2.611118499369115E-4</v>
       </c>
       <c r="X28">
         <v>0</v>
@@ -3462,13 +3462,13 @@
         <v>0</v>
       </c>
       <c r="AF28">
-        <v>4.4031787220240028E-4</v>
+        <v>4.4032215688118918E-4</v>
       </c>
       <c r="AG28">
         <v>0</v>
       </c>
       <c r="AH28">
-        <v>8.1089847551086602E-7</v>
+        <v>8.1090636626370026E-7</v>
       </c>
       <c r="AI28">
         <v>0</v>
@@ -3479,10 +3479,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>7.4602659746999682E-5</v>
+        <v>7.4603385696260429E-5</v>
       </c>
       <c r="C29">
-        <v>2.8786895880635738E-4</v>
+        <v>2.8787176002361358E-4</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -3494,10 +3494,10 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>8.1089847551086602E-7</v>
+        <v>8.1090636626370026E-7</v>
       </c>
       <c r="H29">
-        <v>1.44177748945832E-3</v>
+        <v>1.441791519216859E-3</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -3509,7 +3509,7 @@
         <v>0</v>
       </c>
       <c r="L29">
-        <v>4.6869931884528057E-4</v>
+        <v>4.6870387970041869E-4</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -3524,16 +3524,16 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>4.8653908530651959E-5</v>
+        <v>4.8654381975822017E-5</v>
       </c>
       <c r="R29">
-        <v>1.621796951021732E-6</v>
+        <v>1.6218127325274009E-6</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>4.0544923775543302E-6</v>
+        <v>4.0545318313185012E-6</v>
       </c>
       <c r="U29">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>0</v>
       </c>
       <c r="W29">
-        <v>1.070385987674343E-4</v>
+        <v>1.070396403468084E-4</v>
       </c>
       <c r="X29">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="AF29">
-        <v>1.7028867985728191E-5</v>
+        <v>1.7029033691537701E-5</v>
       </c>
       <c r="AG29">
         <v>0</v>
@@ -3604,7 +3604,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>4.7843010055141103E-5</v>
+        <v>4.7843475609558318E-5</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -3682,10 +3682,10 @@
         <v>0</v>
       </c>
       <c r="AH30">
-        <v>1.621796951021732E-6</v>
+        <v>1.6218127325274009E-6</v>
       </c>
       <c r="AI30">
-        <v>1.9948102497567311E-4</v>
+        <v>1.994829661008703E-4</v>
       </c>
     </row>
     <row r="31" spans="1:35">
@@ -3693,88 +3693,88 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>4.5304897826792083E-3</v>
+        <v>4.5305338683152936E-3</v>
       </c>
       <c r="C31">
-        <v>1.621796951021732E-6</v>
+        <v>1.6218127325274009E-6</v>
       </c>
       <c r="D31">
-        <v>1.4028543626337981E-4</v>
+        <v>1.4028680136362009E-4</v>
       </c>
       <c r="E31">
-        <v>7.6143366850470325E-4</v>
+        <v>7.6144107792161454E-4</v>
       </c>
       <c r="F31">
-        <v>8.0278949075575744E-5</v>
+        <v>8.0279730260106327E-5</v>
       </c>
       <c r="G31">
-        <v>1.710995783327927E-4</v>
+        <v>1.7110124328164079E-4</v>
       </c>
       <c r="H31">
-        <v>5.6276354200454105E-4</v>
+        <v>5.6276901818700796E-4</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>1.6217969510217321E-5</v>
+        <v>1.6218127325274001E-5</v>
       </c>
       <c r="K31">
-        <v>4.2166720726565027E-5</v>
+        <v>4.2167131045712413E-5</v>
       </c>
       <c r="L31">
-        <v>1.297437560817386E-5</v>
+        <v>1.2974501860219201E-5</v>
       </c>
       <c r="M31">
-        <v>1.28284138825819E-3</v>
+        <v>1.2828538714291741E-3</v>
       </c>
       <c r="N31">
-        <v>2.165098929614012E-4</v>
+        <v>2.16511999792408E-4</v>
       </c>
       <c r="O31">
-        <v>1.879662666234187E-3</v>
+        <v>1.8796809569992571E-3</v>
       </c>
       <c r="P31">
-        <v>9.5037301329873496E-4</v>
+        <v>9.5038226126105668E-4</v>
       </c>
       <c r="Q31">
-        <v>2.7084009082062918E-4</v>
+        <v>2.708427263320759E-4</v>
       </c>
       <c r="R31">
-        <v>4.8653908530651959E-6</v>
+        <v>4.8654381975822017E-6</v>
       </c>
       <c r="S31">
-        <v>7.0548167369445346E-5</v>
+        <v>7.0548853864941917E-5</v>
       </c>
       <c r="T31">
-        <v>2.0029192345118391E-4</v>
+        <v>2.0029387246713401E-4</v>
       </c>
       <c r="U31">
-        <v>7.3143042491080113E-4</v>
+        <v>7.3143754236985761E-4</v>
       </c>
       <c r="V31">
-        <v>8.7414855660071359E-4</v>
+        <v>8.7415706283226887E-4</v>
       </c>
       <c r="W31">
-        <v>2.432695426532598E-6</v>
+        <v>2.4327190987911009E-6</v>
       </c>
       <c r="X31">
         <v>0</v>
       </c>
       <c r="Y31">
-        <v>7.5575737917612715E-4</v>
+        <v>7.5576473335776863E-4</v>
       </c>
       <c r="Z31">
-        <v>3.2435939020434642E-5</v>
+        <v>3.2436254650548009E-5</v>
       </c>
       <c r="AA31">
-        <v>3.0976321764515083E-4</v>
+        <v>3.0976623191273349E-4</v>
       </c>
       <c r="AB31">
-        <v>4.3869607525137851E-4</v>
+        <v>4.3870034414866192E-4</v>
       </c>
       <c r="AC31">
-        <v>1.094712941939669E-4</v>
+        <v>1.094723594455995E-4</v>
       </c>
       <c r="AD31">
         <v>0</v>
@@ -3786,13 +3786,13 @@
         <v>0</v>
       </c>
       <c r="AG31">
-        <v>1.621796951021732E-6</v>
+        <v>1.6218127325274009E-6</v>
       </c>
       <c r="AH31">
         <v>0</v>
       </c>
       <c r="AI31">
-        <v>3.2435939020434641E-6</v>
+        <v>3.243625465054801E-6</v>
       </c>
     </row>
     <row r="32" spans="1:35">
@@ -3800,25 +3800,25 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1.2363769056114171E-2</v>
+        <v>1.2363078460056369E-2</v>
       </c>
       <c r="C32">
-        <v>2.432695426532598E-6</v>
+        <v>2.4327190987911009E-6</v>
       </c>
       <c r="D32">
-        <v>1.183911774245864E-4</v>
+        <v>1.183923294745002E-4</v>
       </c>
       <c r="E32">
-        <v>3.3246837495945498E-5</v>
+        <v>3.3247161016811709E-5</v>
       </c>
       <c r="F32">
-        <v>8.2711644502108341E-5</v>
+        <v>8.2712449358897426E-5</v>
       </c>
       <c r="G32">
-        <v>4.7032111579630233E-5</v>
+        <v>4.7032569243294618E-5</v>
       </c>
       <c r="H32">
-        <v>6.1385014596172555E-4</v>
+        <v>6.1385611926162106E-4</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -3827,61 +3827,61 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <v>1.078494972429452E-4</v>
+        <v>1.078505467130721E-4</v>
       </c>
       <c r="L32">
-        <v>1.3217645150827119E-4</v>
+        <v>1.321777377009832E-4</v>
       </c>
       <c r="M32">
         <v>0</v>
       </c>
       <c r="N32">
-        <v>1.2131041193642559E-3</v>
+        <v>1.213115923930496E-3</v>
       </c>
       <c r="O32">
-        <v>1.621796951021732E-6</v>
+        <v>1.6218127325274009E-6</v>
       </c>
       <c r="P32">
-        <v>3.0003243593902039E-4</v>
+        <v>3.0003535551756909E-4</v>
       </c>
       <c r="Q32">
-        <v>1.32014271813169E-3</v>
+        <v>1.3201555642773041E-3</v>
       </c>
       <c r="R32">
-        <v>1.054168018164126E-5</v>
+        <v>1.05417827614281E-5</v>
       </c>
       <c r="S32">
-        <v>5.6762893285760616E-6</v>
+        <v>5.6763445638459006E-6</v>
       </c>
       <c r="T32">
-        <v>1.621796951021732E-6</v>
+        <v>1.6218127325274009E-6</v>
       </c>
       <c r="U32">
-        <v>8.9279922153746351E-4</v>
+        <v>8.9280790925633398E-4</v>
       </c>
       <c r="V32">
-        <v>2.2948426856957509E-4</v>
+        <v>2.294865016526272E-4</v>
       </c>
       <c r="W32">
-        <v>8.1089847551086602E-7</v>
+        <v>8.1090636626370026E-7</v>
       </c>
       <c r="X32">
-        <v>5.6762893285760616E-6</v>
+        <v>5.6763445638459006E-6</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>5.1897502432695432E-5</v>
+        <v>5.1898007440876823E-5</v>
       </c>
       <c r="AA32">
-        <v>8.1900746026597471E-5</v>
+        <v>8.1901542992633727E-5</v>
       </c>
       <c r="AB32">
-        <v>4.1112552708400912E-4</v>
+        <v>4.1112952769569599E-4</v>
       </c>
       <c r="AC32">
-        <v>5.6762893285760616E-6</v>
+        <v>5.6763445638459006E-6</v>
       </c>
       <c r="AD32">
         <v>0</v>
@@ -3893,13 +3893,13 @@
         <v>0</v>
       </c>
       <c r="AG32">
-        <v>6.4871878040869282E-6</v>
+        <v>6.487250930109602E-6</v>
       </c>
       <c r="AH32">
-        <v>3.3246837495945508E-4</v>
+        <v>3.3247161016811708E-4</v>
       </c>
       <c r="AI32">
-        <v>4.0544923775543302E-4</v>
+        <v>4.0545318313185008E-4</v>
       </c>
     </row>
     <row r="33" spans="1:35">
@@ -3907,7 +3907,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>3.2435939020434641E-6</v>
+        <v>3.243625465054801E-6</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -3916,13 +3916,13 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>3.2435939020434641E-6</v>
+        <v>3.243625465054801E-6</v>
       </c>
       <c r="F33">
-        <v>1.054168018164126E-5</v>
+        <v>1.05417827614281E-5</v>
       </c>
       <c r="G33">
-        <v>4.0544923775543302E-6</v>
+        <v>4.0545318313185012E-6</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -3934,49 +3934,49 @@
         <v>0</v>
       </c>
       <c r="K33">
-        <v>1.621796951021732E-6</v>
+        <v>1.6218127325274009E-6</v>
       </c>
       <c r="L33">
         <v>0</v>
       </c>
       <c r="M33">
-        <v>5.6762893285760616E-6</v>
+        <v>5.6763445638459006E-6</v>
       </c>
       <c r="N33">
-        <v>4.9464807006162829E-5</v>
+        <v>4.9465288342085717E-5</v>
       </c>
       <c r="O33">
-        <v>1.054168018164126E-5</v>
+        <v>1.05417827614281E-5</v>
       </c>
       <c r="P33">
-        <v>5.6762893285760616E-6</v>
+        <v>5.6763445638459006E-6</v>
       </c>
       <c r="Q33">
-        <v>4.8653908530651959E-6</v>
+        <v>4.8654381975822017E-6</v>
       </c>
       <c r="R33">
         <v>0</v>
       </c>
       <c r="S33">
-        <v>1.216347713266299E-5</v>
+        <v>1.2163595493955499E-5</v>
       </c>
       <c r="T33">
         <v>0</v>
       </c>
       <c r="U33">
-        <v>3.2435939020434641E-6</v>
+        <v>3.243625465054801E-6</v>
       </c>
       <c r="V33">
-        <v>2.821926694777814E-3</v>
+        <v>2.8219541545976769E-3</v>
       </c>
       <c r="W33">
         <v>0</v>
       </c>
       <c r="X33">
-        <v>1.3785274083684719E-5</v>
+        <v>1.37854082264829E-5</v>
       </c>
       <c r="Y33">
-        <v>1.4596172559195589E-5</v>
+        <v>1.459631459274661E-5</v>
       </c>
       <c r="Z33">
         <v>0</v>
@@ -3985,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="AB33">
-        <v>8.1089847551086604E-6</v>
+        <v>8.1090636626370023E-6</v>
       </c>
       <c r="AC33">
         <v>0</v>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="AG33">
-        <v>6.4871878040869282E-6</v>
+        <v>6.487250930109602E-6</v>
       </c>
       <c r="AH33">
         <v>0</v>
@@ -4014,88 +4014,88 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>3.2362958157638659E-3</v>
+        <v>3.2363273077584279E-3</v>
       </c>
       <c r="C34">
-        <v>3.2435939020434641E-6</v>
+        <v>3.243625465054801E-6</v>
       </c>
       <c r="D34">
-        <v>4.3058709049626989E-4</v>
+        <v>4.3059128048602478E-4</v>
       </c>
       <c r="E34">
-        <v>3.2435939020434641E-6</v>
+        <v>3.243625465054801E-6</v>
       </c>
       <c r="F34">
-        <v>2.432695426532598E-6</v>
+        <v>2.4327190987911009E-6</v>
       </c>
       <c r="G34">
-        <v>2.838144664288031E-4</v>
+        <v>2.8381722819229509E-4</v>
       </c>
       <c r="H34">
-        <v>8.1089847551086602E-7</v>
+        <v>8.1090636626370026E-7</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>1.4596172559195589E-5</v>
+        <v>1.459631459274661E-5</v>
       </c>
       <c r="K34">
-        <v>6.4871878040869282E-6</v>
+        <v>6.487250930109602E-6</v>
       </c>
       <c r="L34">
-        <v>2.432695426532598E-6</v>
+        <v>2.4327190987911009E-6</v>
       </c>
       <c r="M34">
         <v>0</v>
       </c>
       <c r="N34">
-        <v>6.4871878040869282E-6</v>
+        <v>6.487250930109602E-6</v>
       </c>
       <c r="O34">
-        <v>8.919883230619527E-6</v>
+        <v>8.9199700289007021E-6</v>
       </c>
       <c r="P34">
-        <v>2.189425883879338E-5</v>
+        <v>2.189447188911991E-5</v>
       </c>
       <c r="Q34">
-        <v>4.135582225105417E-5</v>
+        <v>4.1356224679448713E-5</v>
       </c>
       <c r="R34">
-        <v>9.7307817061303918E-6</v>
+        <v>9.7308763951644035E-6</v>
       </c>
       <c r="S34">
-        <v>3.2435939020434641E-6</v>
+        <v>3.243625465054801E-6</v>
       </c>
       <c r="T34">
-        <v>5.0275705481673692E-5</v>
+        <v>5.0276194708349417E-5</v>
       </c>
       <c r="U34">
-        <v>1.9704832954914049E-4</v>
+        <v>1.9705024700207921E-4</v>
       </c>
       <c r="V34">
-        <v>3.0165423289004221E-4</v>
+        <v>3.0165716825009651E-4</v>
       </c>
       <c r="W34">
-        <v>8.1089847551086602E-7</v>
+        <v>8.1090636626370026E-7</v>
       </c>
       <c r="X34">
-        <v>8.1089847551086602E-7</v>
+        <v>8.1090636626370026E-7</v>
       </c>
       <c r="Y34">
-        <v>2.432695426532598E-6</v>
+        <v>2.4327190987911009E-6</v>
       </c>
       <c r="Z34">
-        <v>8.1089847551086602E-7</v>
+        <v>8.1090636626370026E-7</v>
       </c>
       <c r="AA34">
-        <v>1.337982484592929E-4</v>
+        <v>1.337995504335105E-4</v>
       </c>
       <c r="AB34">
-        <v>2.270515731430425E-5</v>
+        <v>2.2705378255383609E-5</v>
       </c>
       <c r="AC34">
-        <v>1.702886798572819E-4</v>
+        <v>1.7029033691537711E-4</v>
       </c>
       <c r="AD34">
         <v>0</v>
@@ -4110,7 +4110,7 @@
         <v>0</v>
       </c>
       <c r="AH34">
-        <v>2.8381446642880309E-5</v>
+        <v>2.8381722819229511E-5</v>
       </c>
       <c r="AI34">
         <v>0</v>
@@ -4121,67 +4121,67 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1.215131365553033E-2</v>
+        <v>1.2151431898461551E-2</v>
       </c>
       <c r="C35">
-        <v>8.1089847551086602E-7</v>
+        <v>8.1090636626370026E-7</v>
       </c>
       <c r="D35">
-        <v>8.919883230619527E-6</v>
+        <v>8.9199700289007021E-6</v>
       </c>
       <c r="E35">
-        <v>2.6029841063898799E-4</v>
+        <v>2.5949003720438407E-4</v>
       </c>
       <c r="F35">
-        <v>5.5141096334738892E-5</v>
+        <v>5.5141632905931622E-5</v>
       </c>
       <c r="G35">
-        <v>5.0681154719429131E-4</v>
+        <v>5.0681647891481264E-4</v>
       </c>
       <c r="H35">
-        <v>9.9740512487836528E-5</v>
+        <v>9.9741483050435134E-5</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>1.102821926694778E-4</v>
+        <v>1.102832658118632E-4</v>
       </c>
       <c r="K35">
-        <v>1.926694777813818E-3</v>
+        <v>1.926713526242552E-3</v>
       </c>
       <c r="L35">
-        <v>1.054168018164126E-5</v>
+        <v>1.05417827614281E-5</v>
       </c>
       <c r="M35">
-        <v>2.5137852740836849E-5</v>
+        <v>2.5138097354174708E-5</v>
       </c>
       <c r="N35">
-        <v>1.7677586766136881E-4</v>
+        <v>1.7677758784548659E-4</v>
       </c>
       <c r="O35">
-        <v>8.0522218618228993E-4</v>
+        <v>8.0523002169985436E-4</v>
       </c>
       <c r="P35">
-        <v>3.1868310087577041E-4</v>
+        <v>3.186862019416342E-4</v>
       </c>
       <c r="Q35">
-        <v>5.4897826792085628E-4</v>
+        <v>5.4898360996052508E-4</v>
       </c>
       <c r="R35">
-        <v>1.297437560817386E-5</v>
+        <v>1.2974501860219201E-5</v>
       </c>
       <c r="S35">
-        <v>3.0003243593902039E-5</v>
+        <v>3.000353555175691E-5</v>
       </c>
       <c r="T35">
-        <v>3.4057735971456368E-5</v>
+        <v>3.4058067383075409E-5</v>
       </c>
       <c r="U35">
-        <v>5.3924748621472589E-4</v>
+        <v>5.3925273356536063E-4</v>
       </c>
       <c r="V35">
-        <v>1.539896204995135E-3</v>
+        <v>1.5399111895347669E-3</v>
       </c>
       <c r="W35">
         <v>0</v>
@@ -4190,19 +4190,19 @@
         <v>0</v>
       </c>
       <c r="Y35">
-        <v>1.3947453778786901E-4</v>
+        <v>1.3947589499735641E-4</v>
       </c>
       <c r="Z35">
-        <v>7.6224456698021408E-5</v>
+        <v>7.6225198428787828E-5</v>
       </c>
       <c r="AA35">
-        <v>1.7758676613687969E-4</v>
+        <v>1.7758849421175039E-4</v>
       </c>
       <c r="AB35">
-        <v>8.1089847551086604E-6</v>
+        <v>8.1090636626370023E-6</v>
       </c>
       <c r="AC35">
-        <v>1.248783652286734E-4</v>
+        <v>1.2487958040460981E-4</v>
       </c>
       <c r="AD35">
         <v>0</v>
@@ -4214,13 +4214,13 @@
         <v>0</v>
       </c>
       <c r="AG35">
-        <v>8.1089847551086602E-7</v>
+        <v>8.1090636626370026E-7</v>
       </c>
       <c r="AH35">
-        <v>1.256892637041842E-4</v>
+        <v>1.2569048677087361E-4</v>
       </c>
       <c r="AI35">
-        <v>7.5413558222510538E-5</v>
+        <v>7.5414292062524129E-5</v>
       </c>
     </row>
   </sheetData>
